--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\mit3uri\mit3uri-song-list\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D663F00-E02A-48AE-B629-F60A436E0D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB76FD8-0C48-48D7-8598-3C98A44B5A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="1140" windowWidth="28800" windowHeight="15435" xr2:uid="{1DAD23D6-F6F7-4BBB-811A-57551CBA627F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="1579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1588">
   <si>
     <t>序号</t>
   </si>
@@ -4773,6 +4773,33 @@
   </si>
   <si>
     <t>2025/09/17，2025/09/15</t>
+  </si>
+  <si>
+    <t>2025/04/04，2025/09/02</t>
+  </si>
+  <si>
+    <t>黑色幽默</t>
+  </si>
+  <si>
+    <t>我最亲爱的</t>
+  </si>
+  <si>
+    <t>宠爱</t>
+  </si>
+  <si>
+    <t>慢慢喜欢你</t>
+  </si>
+  <si>
+    <t>萱草花</t>
+  </si>
+  <si>
+    <t>张小斐</t>
+  </si>
+  <si>
+    <t>How long will I Love you</t>
+  </si>
+  <si>
+    <t>Ellie Goulding</t>
   </si>
 </sst>
 </file>
@@ -4992,7 +5019,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -5329,10 +5356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8030F645-0AE7-49C3-B587-33454A6B20BA}">
-  <dimension ref="A1:I651"/>
+  <dimension ref="A1:I657"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A617" workbookViewId="0">
-      <selection activeCell="B645" sqref="B645"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12061,15 +12088,15 @@
       <c r="D288" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="E288" s="9">
-        <v>45751</v>
+      <c r="E288" s="7" t="s">
+        <v>1579</v>
       </c>
       <c r="F288" s="8"/>
       <c r="G288" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H288" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288" s="8"/>
     </row>
@@ -20036,7 +20063,7 @@
         <v>1545</v>
       </c>
       <c r="C634" s="8"/>
-      <c r="D634" s="21" t="s">
+      <c r="D634" s="11" t="s">
         <v>1546</v>
       </c>
       <c r="E634" s="7" t="s">
@@ -20059,7 +20086,7 @@
         <v>1548</v>
       </c>
       <c r="C635" s="8"/>
-      <c r="D635" s="21" t="s">
+      <c r="D635" s="11" t="s">
         <v>1549</v>
       </c>
       <c r="E635" s="9">
@@ -20197,7 +20224,7 @@
         <v>1558</v>
       </c>
       <c r="C641" s="8"/>
-      <c r="D641" s="21" t="s">
+      <c r="D641" s="11" t="s">
         <v>1559</v>
       </c>
       <c r="E641" s="9">
@@ -20266,7 +20293,7 @@
         <v>1563</v>
       </c>
       <c r="C644" s="8"/>
-      <c r="D644" s="21" t="s">
+      <c r="D644" s="11" t="s">
         <v>1564</v>
       </c>
       <c r="E644" s="9">
@@ -20335,7 +20362,7 @@
         <v>1569</v>
       </c>
       <c r="C647" s="8"/>
-      <c r="D647" s="22" t="s">
+      <c r="D647" s="15" t="s">
         <v>1570</v>
       </c>
       <c r="E647" s="9">
@@ -20441,6 +20468,144 @@
         <v>2</v>
       </c>
       <c r="I651" s="8"/>
+    </row>
+    <row r="652" spans="1:9">
+      <c r="A652" s="6">
+        <v>651</v>
+      </c>
+      <c r="B652" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C652" s="8"/>
+      <c r="D652" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E652" s="9">
+        <v>45917</v>
+      </c>
+      <c r="F652" s="8"/>
+      <c r="G652" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H652" s="6">
+        <v>1</v>
+      </c>
+      <c r="I652" s="8"/>
+    </row>
+    <row r="653" spans="1:9">
+      <c r="A653" s="6">
+        <v>652</v>
+      </c>
+      <c r="B653" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C653" s="8"/>
+      <c r="D653" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E653" s="9">
+        <v>45902</v>
+      </c>
+      <c r="F653" s="8"/>
+      <c r="G653" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H653" s="6">
+        <v>1</v>
+      </c>
+      <c r="I653" s="8"/>
+    </row>
+    <row r="654" spans="1:9">
+      <c r="A654" s="6">
+        <v>653</v>
+      </c>
+      <c r="B654" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C654" s="8"/>
+      <c r="D654" s="7" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E654" s="9">
+        <v>45902</v>
+      </c>
+      <c r="F654" s="8"/>
+      <c r="G654" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H654" s="6">
+        <v>1</v>
+      </c>
+      <c r="I654" s="8"/>
+    </row>
+    <row r="655" spans="1:9">
+      <c r="A655" s="6">
+        <v>654</v>
+      </c>
+      <c r="B655" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C655" s="8"/>
+      <c r="D655" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E655" s="9">
+        <v>45915</v>
+      </c>
+      <c r="F655" s="8"/>
+      <c r="G655" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H655" s="6">
+        <v>1</v>
+      </c>
+      <c r="I655" s="8"/>
+    </row>
+    <row r="656" spans="1:9">
+      <c r="A656" s="6">
+        <v>655</v>
+      </c>
+      <c r="B656" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C656" s="8"/>
+      <c r="D656" s="21" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E656" s="9">
+        <v>45915</v>
+      </c>
+      <c r="F656" s="8"/>
+      <c r="G656" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H656" s="6">
+        <v>1</v>
+      </c>
+      <c r="I656" s="8"/>
+    </row>
+    <row r="657" spans="1:9">
+      <c r="A657" s="6">
+        <v>656</v>
+      </c>
+      <c r="B657" s="7" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C657" s="8"/>
+      <c r="D657" s="7" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E657" s="9">
+        <v>45915</v>
+      </c>
+      <c r="F657" s="8"/>
+      <c r="G657" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H657" s="6">
+        <v>1</v>
+      </c>
+      <c r="I657" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -538,7 +538,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025/03/01，2025/03/15，2025/04/01，2025/04/15，2025/04/26，2025/05/09，2025/05/30，2025/06/08，2025/07/05，2025/07/11，2025/08/13，2025/09/17，2025/09/02，2025/09/07，2025/09/19，2025/10/01，2025/10/09，2025/10/16，2025/10/24，2025/10/30，2025/11/9，2025/11/14，2025/12/24，2025/12/26，2026/1/24</t>
+          <t>2025/03/01，2025/03/15，2025/04/01，2025/04/15，2025/04/26，2025/05/09，2025/05/30，2025/06/08，2025/07/05，2025/07/11，2025/08/13，2025/09/17，2025/09/02，2025/09/07，2025/09/19，2025/10/01，2025/10/09，2025/10/16，2025/10/24，2025/10/30，2025/11/9，2025/11/14，2025/12/24，2025/12/26，2026/1/16，2026/1/24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -549,7 +549,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025/03/03，2025/03/21，2025/04/17，2025/04/21，2025/05/12，2025/05/26，2025/05/30，2025/06/26，2025/07/07，2025/07/13，2025/07/26，2025/08/12，2025/08/22，2025/09/19，2025/10/03，2025/10/28，2025/11/9，2025/11/19，2025/12/16</t>
+          <t>2025/03/03，2025/03/21，2025/04/17，2025/04/21，2025/05/12，2025/05/26，2025/05/30，2025/06/26，2025/07/07，2025/07/13，2025/07/26，2025/08/12，2025/08/22，2025/09/19，2025/10/03，2025/10/28，2025/11/9，2025/11/19，2025/12/16，2026/1/16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -752,7 +752,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -993,7 +993,11 @@
           <t>31</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>BV1BvqVB4EFv</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1677,7 +1681,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025/03/04，2025/03/14，2025/04/17，2025/05/06，2025/05/25，2025/05/25，2025/05/31，2025/09/03，2025/11/7，2025/12/24，2026/1/1</t>
+          <t>2025/03/04，2025/03/14，2025/04/17，2025/05/06，2025/05/25，2025/05/25，2025/05/31，2025/09/03，2025/11/7，2025/12/24，2026/1/1，2026/1/16</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -1688,7 +1692,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2184,10 +2188,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TICKING AWAY (VCT ANTHEM 2023) (流光似箭)</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
+          <t>TICKING AWAY (VCT ANTHEM 2023)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>流光似箭</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>Grabbitz/无畏契约/bbno$</t>
@@ -2209,7 +2217,11 @@
           <t>17</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>BV1MYGdzHEtD</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2279,7 +2291,11 @@
           <t>13</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>BV1vazyB2Emo</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2602,7 +2618,11 @@
           <t>21</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>BV1N8UvB8ExW</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2637,7 +2657,11 @@
           <t>22</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>BV1BWGzzWEEP</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2711,7 +2735,11 @@
           <t>30</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>BV19DUYBTErV</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3098,7 +3126,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025/03/09，2025/03/14，2025/04/07，2025/04/15，2025/04/27，2025/05/12，2025/05/27，2025/06/05，2025/06/08，2025/07/20，2025/08/01，2025/09/21，2025/09/28，2025/10/07，2025/10/18，2025/10/24，2025/11/10</t>
+          <t>2025/03/09，2025/03/14，2025/04/07，2025/04/15，2025/04/27，2025/05/12，2025/05/27，2025/06/05，2025/06/08，2025/07/20，2025/08/01，2025/09/21，2025/09/28，2025/10/07，2025/10/18，2025/10/24，2025/11/10，2026/1/16</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -3109,7 +3137,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -3618,7 +3646,11 @@
           <t>21</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>BV1L2StBbEWk</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3828,7 +3860,11 @@
           <t>19</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>BV1DUQNYKE5T</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4802,7 +4838,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2025/03/14，2025/04/12，2025/05/20，2025/05/30，2025/06/27，2025/08/13，2025/09/11，2025/10/28</t>
+          <t>2025/03/14，2025/04/12，2025/05/20，2025/05/30，2025/06/27，2025/08/13，2025/09/11，2025/10/28，2026/1/16</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
@@ -4813,7 +4849,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -5166,7 +5202,11 @@
           <t>33</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>BV19KmPBDERd</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5485,7 +5525,11 @@
           <t>25</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr"/>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>BV1qKrGBwEpo</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5965,7 +6009,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2025/03/20，2025/05/19，2025/06/12，2025/06/19，2025/06/23，2025/07/11，2025/08/03，2025/08/12，2025/08/21，2025/09/15，2025/10/07，2025/12/2</t>
+          <t>2025/03/20，2025/05/19，2025/06/12，2025/06/19，2025/06/23，2025/07/11，2025/08/03，2025/08/12，2025/08/21，2025/09/15，2025/10/07，2025/12/2，2026/1/16</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -5976,7 +6020,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
@@ -6123,7 +6167,11 @@
           <t>13</t>
         </is>
       </c>
-      <c r="I156" t="inlineStr"/>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>BV15uzuB1ECd</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6249,7 +6297,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>2025/03/20，2025/04/17，2025/05/01，2025/05/03，2025/05/18，2025/05/22，2025/05/29，2025/06/06，2025/06/13，2025/06/30，2025/07/09，2025/07/27，2025/08/23，2025/09/03，2025/09/11，2025/10/11，2025/10/17，2025/12/24</t>
+          <t>2025/03/20，2025/04/17，2025/05/01，2025/05/03，2025/05/18，2025/05/22，2025/05/29，2025/06/06，2025/06/13，2025/06/30，2025/07/09，2025/07/27，2025/08/23，2025/09/03，2025/09/11，2025/10/11，2025/10/17，2025/12/24，2026/1/16</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -6260,7 +6308,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -6298,7 +6346,11 @@
           <t>20</t>
         </is>
       </c>
-      <c r="I161" t="inlineStr"/>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>BV19spgzxEJp</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7068,7 +7120,11 @@
           <t>28</t>
         </is>
       </c>
-      <c r="I183" t="inlineStr"/>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>BV1Xr2xBVEqN</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -7208,7 +7264,11 @@
           <t>14</t>
         </is>
       </c>
-      <c r="I187" t="inlineStr"/>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>BV1Q6E2zjE2b</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -7404,7 +7464,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>2025/03/24，2025/04/06，2025/04/15，2025/04/27，2025/05/05，2025/05/22，2025/05/30，2025/06/02，2025/06/06，2025/06/09，2025/06/21，2025/06/27，2025/08/25，2025/09/06，2025/09/10，2025/09/19，2025/10/05，2025/11/21，2025/12/7</t>
+          <t>2025/03/24，2025/04/06，2025/04/15，2025/04/27，2025/05/05，2025/05/22，2025/05/30，2025/06/02，2025/06/06，2025/06/09，2025/06/21，2025/06/27，2025/08/25，2025/09/06，2025/09/10，2025/09/19，2025/10/05，2025/11/21，2025/12/7，2026/1/17</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
@@ -7415,10 +7475,14 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="I193" t="inlineStr"/>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>BV1Gn7XzhEHE</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8126,7 +8190,11 @@
           <t>7</t>
         </is>
       </c>
-      <c r="I213" t="inlineStr"/>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>BV11GypBUErS</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -8182,7 +8250,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>2025/03/27，2025/05/06，2025/05/16，2025/06/10，2025/07/03，2025/07/13，2025/08/22，2025/10/05，2025/10/23，2025/11/10</t>
+          <t>2025/03/27，2025/05/06，2025/05/16，2025/06/10，2025/07/03，2025/07/13，2025/08/22，2025/10/05，2025/10/23，2025/11/10，2026/1/16</t>
         </is>
       </c>
       <c r="F215" t="inlineStr"/>
@@ -8193,7 +8261,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I215" t="inlineStr"/>
@@ -8252,7 +8320,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>2025/03/28，2025/07/25，2025/07/26，2025/08/16，2025/09/05，2025/09/29，2025/10/31，2025/12/24</t>
+          <t>2025/03/28，2025/07/25，2025/07/26，2025/08/16，2025/09/05，2025/09/29，2025/10/31，2025/12/24，2026/1/16</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -8263,7 +8331,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I217" t="inlineStr"/>
@@ -8497,7 +8565,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>2025/03/28，2025/05/05，2025/05/08，2025/05/15，2025/05/30，2025/06/13，2025/06/23，2025/07/10，2025/07/24，2025/08/04，2025/09/03，2025/09/21，2025/11/9，2025/11/26</t>
+          <t>2025/03/28，2025/05/05，2025/05/08，2025/05/15，2025/05/30，2025/06/13，2025/06/23，2025/07/10，2025/07/24，2025/08/04，2025/09/03，2025/09/21，2025/11/9，2025/11/26，2026/1/16</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
@@ -8508,7 +8576,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I224" t="inlineStr"/>
@@ -8791,7 +8859,11 @@
           <t>27</t>
         </is>
       </c>
-      <c r="I232" t="inlineStr"/>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>BV1crarzEEsn</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -8865,7 +8937,11 @@
           <t>15</t>
         </is>
       </c>
-      <c r="I234" t="inlineStr"/>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>BV1aPjfzkEww</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -9069,7 +9145,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>2025/03/30，2025/06/17，2025/09/28，2025/10/20，2025/10/31</t>
+          <t>2025/03/30，2025/06/17，2025/09/28，2025/10/20，2025/10/31，2026/1/16</t>
         </is>
       </c>
       <c r="F240" t="inlineStr"/>
@@ -9080,7 +9156,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I240" t="inlineStr"/>
@@ -9104,7 +9180,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>2025/03/30，2025/04/14，2025/05/26，2025/06/15，2025/07/09，2025/10/25，2025/11/24，2025/12/30</t>
+          <t>2025/03/30，2025/04/14，2025/05/26，2025/06/15，2025/07/09，2025/10/25，2025/11/24，2025/12/30，2026/1/16</t>
         </is>
       </c>
       <c r="F241" t="inlineStr"/>
@@ -9115,7 +9191,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I241" t="inlineStr"/>
@@ -10378,7 +10454,11 @@
           <t>21</t>
         </is>
       </c>
-      <c r="I277" t="inlineStr"/>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>BV1Yj7DzxEm9</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -10679,7 +10759,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>2025/04/04，2025/04/11，2025/05/18，2025/09/12，2025/10/12</t>
+          <t>2025/04/04，2025/04/11，2025/05/18，2025/09/12，2025/10/12，2026/1/16</t>
         </is>
       </c>
       <c r="F286" t="inlineStr"/>
@@ -10690,7 +10770,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I286" t="inlineStr"/>
@@ -11502,7 +11582,11 @@
           <t>19</t>
         </is>
       </c>
-      <c r="I309" t="inlineStr"/>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>BV1BfsmzyE4u</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -12117,7 +12201,7 @@
       <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr">
         <is>
-          <t>zhoujielun</t>
+          <t>周杰伦</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -12455,7 +12539,11 @@
           <t>23</t>
         </is>
       </c>
-      <c r="I336" t="inlineStr"/>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>BV1gKuwz8E9Y</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -12515,7 +12603,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>2025/04/13，2025/04/18，2025/08/28</t>
+          <t>2025/04/13，2025/04/18，2025/08/28，2026/1/16</t>
         </is>
       </c>
       <c r="F338" t="inlineStr"/>
@@ -12526,10 +12614,14 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I338" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>BV1Wi5Rz7EEo</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -12799,7 +12891,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>2025/04/15，2025/04/18，2025/05/12，2025/06/17，2025/09/03，2025/10/07，2025/11/24</t>
+          <t>2025/04/15，2025/04/18，2025/05/12，2025/06/17，2025/09/03，2025/10/07，2025/11/24，2026/1/16</t>
         </is>
       </c>
       <c r="F346" t="inlineStr"/>
@@ -12810,7 +12902,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I346" t="inlineStr"/>
@@ -13626,7 +13718,11 @@
           <t>10</t>
         </is>
       </c>
-      <c r="I369" t="inlineStr"/>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>BV19FzxBdEQb</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -13661,7 +13757,11 @@
           <t>7</t>
         </is>
       </c>
-      <c r="I370" t="inlineStr"/>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>BV1LZziBoEHB</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -13696,7 +13796,11 @@
           <t>24</t>
         </is>
       </c>
-      <c r="I371" t="inlineStr"/>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>BV1NDerzFEoM</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -13840,7 +13944,11 @@
           <t>3</t>
         </is>
       </c>
-      <c r="I375" t="inlineStr"/>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>BV1ewpuzpExm</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -13875,7 +13983,11 @@
           <t>7</t>
         </is>
       </c>
-      <c r="I376" t="inlineStr"/>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>BV1GhqjBoEMY</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -16368,7 +16480,11 @@
           <t>17</t>
         </is>
       </c>
-      <c r="I447" t="inlineStr"/>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>BV1vgxozAEPC</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -17251,7 +17367,11 @@
           <t>25</t>
         </is>
       </c>
-      <c r="I472" t="inlineStr"/>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>BV1oQBjBKExX</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -17566,7 +17686,11 @@
           <t>19</t>
         </is>
       </c>
-      <c r="I481" t="inlineStr"/>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>BV1h4yABqET3</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -18186,7 +18310,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>2025/06/02，2025/07/03，2025/10/09</t>
+          <t>2025/06/02，2025/07/03，2025/10/09，2026/1/16</t>
         </is>
       </c>
       <c r="F499" t="inlineStr"/>
@@ -18197,10 +18321,14 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I499" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>BV1W97Sz3E5m</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -18931,7 +19059,11 @@
           <t>24</t>
         </is>
       </c>
-      <c r="I520" t="inlineStr"/>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>BV1dgmMBeEF4</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -19351,7 +19483,11 @@
           <t>21</t>
         </is>
       </c>
-      <c r="I532" t="inlineStr"/>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>BV126rrBhEvE</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -19530,7 +19666,11 @@
           <t>20</t>
         </is>
       </c>
-      <c r="I537" t="inlineStr"/>
+      <c r="I537" t="inlineStr">
+        <is>
+          <t>BV1MosGzFEMe</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -20592,7 +20732,11 @@
           <t>11</t>
         </is>
       </c>
-      <c r="I567" t="inlineStr"/>
+      <c r="I567" t="inlineStr">
+        <is>
+          <t>BV1ttmJBQETy</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -21327,7 +21471,11 @@
           <t>15</t>
         </is>
       </c>
-      <c r="I588" t="inlineStr"/>
+      <c r="I588" t="inlineStr">
+        <is>
+          <t>BV1JbaYzsEF3</t>
+        </is>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -21537,7 +21685,11 @@
           <t>17</t>
         </is>
       </c>
-      <c r="I594" t="inlineStr"/>
+      <c r="I594" t="inlineStr">
+        <is>
+          <t>BV1uhbPzSE6S</t>
+        </is>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -22272,7 +22424,11 @@
           <t>15</t>
         </is>
       </c>
-      <c r="I615" t="inlineStr"/>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>BV1u4bwzyEez</t>
+        </is>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -22381,7 +22537,11 @@
           <t>13</t>
         </is>
       </c>
-      <c r="I618" t="inlineStr"/>
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>BV1RUSTBiEa5</t>
+        </is>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -22402,7 +22562,7 @@
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t>2025/08/21</t>
+          <t>2025/08/21，2026/1/16</t>
         </is>
       </c>
       <c r="F619" t="inlineStr"/>
@@ -22413,7 +22573,7 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I619" t="inlineStr"/>
@@ -22871,7 +23031,11 @@
           <t>6</t>
         </is>
       </c>
-      <c r="I632" t="inlineStr"/>
+      <c r="I632" t="inlineStr">
+        <is>
+          <t>BV1aXvxB1EWN</t>
+        </is>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -22892,7 +23056,7 @@
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>2025/09/10，2025/09/13，2025/09/29，2025/10/10，2025/10/17，2025/11/27，2025/12/19</t>
+          <t>2025/09/10，2025/09/13，2025/09/29，2025/10/10，2025/10/17，2025/11/27，2025/12/19，2026/1/16</t>
         </is>
       </c>
       <c r="F633" t="inlineStr"/>
@@ -22903,10 +23067,14 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I633" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I633" t="inlineStr">
+        <is>
+          <t>BV13YS7BtEU1</t>
+        </is>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -23431,7 +23599,11 @@
           <t>21</t>
         </is>
       </c>
-      <c r="I648" t="inlineStr"/>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>BV1p2p9zcELR</t>
+        </is>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -23921,7 +24093,11 @@
           <t>11</t>
         </is>
       </c>
-      <c r="I662" t="inlineStr"/>
+      <c r="I662" t="inlineStr">
+        <is>
+          <t>BV19wxTzsEnU</t>
+        </is>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -23956,7 +24132,11 @@
           <t>20</t>
         </is>
       </c>
-      <c r="I663" t="inlineStr"/>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>BV1UAnwzQE3E</t>
+        </is>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -23991,7 +24171,11 @@
           <t>4</t>
         </is>
       </c>
-      <c r="I664" t="inlineStr"/>
+      <c r="I664" t="inlineStr">
+        <is>
+          <t>BV1t3zxBEEZr</t>
+        </is>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -24236,7 +24420,11 @@
           <t>15</t>
         </is>
       </c>
-      <c r="I671" t="inlineStr"/>
+      <c r="I671" t="inlineStr">
+        <is>
+          <t>BV1V6BQBhEMS</t>
+        </is>
+      </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
@@ -24586,7 +24774,11 @@
           <t>14</t>
         </is>
       </c>
-      <c r="I681" t="inlineStr"/>
+      <c r="I681" t="inlineStr">
+        <is>
+          <t>BV126rrBhEun</t>
+        </is>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -24621,7 +24813,11 @@
           <t>11</t>
         </is>
       </c>
-      <c r="I682" t="inlineStr"/>
+      <c r="I682" t="inlineStr">
+        <is>
+          <t>BV1z8U7BiEjg</t>
+        </is>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
@@ -24831,7 +25027,11 @@
           <t>8</t>
         </is>
       </c>
-      <c r="I688" t="inlineStr"/>
+      <c r="I688" t="inlineStr">
+        <is>
+          <t>BV1p61rBKESr</t>
+        </is>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
@@ -25885,7 +26085,11 @@
           <t>8</t>
         </is>
       </c>
-      <c r="I718" t="inlineStr"/>
+      <c r="I718" t="inlineStr">
+        <is>
+          <t>BV1TBihBsEo5</t>
+        </is>
+      </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
@@ -26064,7 +26268,11 @@
           <t>7</t>
         </is>
       </c>
-      <c r="I723" t="inlineStr"/>
+      <c r="I723" t="inlineStr">
+        <is>
+          <t>BV1tJ1vBxEFQ</t>
+        </is>
+      </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
@@ -26417,7 +26625,11 @@
           <t>7</t>
         </is>
       </c>
-      <c r="I734" t="inlineStr"/>
+      <c r="I734" t="inlineStr">
+        <is>
+          <t>BV1i1C3BYEKh</t>
+        </is>
+      </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr"/>
@@ -27221,7 +27433,7 @@
       </c>
       <c r="E760" t="inlineStr">
         <is>
-          <t>2025/12/11，2025/12/12，2025/12/17，2026/1/2，2026/1/5</t>
+          <t>2025/12/11，2025/12/12，2025/12/17，2026/1/2，2026/1/5，2026/1/17</t>
         </is>
       </c>
       <c r="F760" t="inlineStr"/>
@@ -27232,10 +27444,14 @@
       </c>
       <c r="H760" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I760" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I760" t="inlineStr">
+        <is>
+          <t>BV1FekxB5Etj</t>
+        </is>
+      </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr"/>
@@ -27615,7 +27831,11 @@
           <t>5</t>
         </is>
       </c>
-      <c r="I772" t="inlineStr"/>
+      <c r="I772" t="inlineStr">
+        <is>
+          <t>BV1GiicB5EFK</t>
+        </is>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr"/>
@@ -27712,7 +27932,11 @@
           <t>4</t>
         </is>
       </c>
-      <c r="I775" t="inlineStr"/>
+      <c r="I775" t="inlineStr">
+        <is>
+          <t>BV1mNBfBBEkr</t>
+        </is>
+      </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr"/>

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -22632,7 +22632,7 @@
       <c r="F619" t="inlineStr"/>
       <c r="G619" t="inlineStr">
         <is>
-          <t>日语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H619" t="inlineStr">
@@ -22706,7 +22706,7 @@
       <c r="F621" t="inlineStr"/>
       <c r="G621" t="inlineStr">
         <is>
-          <t>日语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H621" t="inlineStr">

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I788"/>
+  <dimension ref="A1:I789"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,7 +979,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025/03/04，2025/03/19，2025/04/14，2025/04/22，2025/05/01，2025/05/13，2025/05/19，2025/05/27，2025/06/03，2025/06/12，2025/06/19，2025/06/27，2025/07/08，2025/07/14，2025/07/18，2025/07/20，2025/08/02，2025/08/08，2025/08/12，2025/09/02，2025/09/18，2025/10/01，2025/10/03，2025/10/11，2025/10/24，2025/11/13，2025/11/14，2025/11/28，2025/12/7，2025/12/17，2026/1/19</t>
+          <t>2025/03/04，2025/03/19，2025/04/14，2025/04/22，2025/05/01，2025/05/13，2025/05/19，2025/05/27，2025/06/03，2025/06/12，2025/06/19，2025/06/27，2025/07/08，2025/07/14，2025/07/18，2025/07/20，2025/08/02，2025/08/08，2025/08/12，2025/09/02，2025/09/18，2025/10/01，2025/10/03，2025/10/11，2025/10/24，2025/11/13，2025/11/14，2025/11/28，2025/12/7，2025/12/17，2026/1/19，2026/1/28</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -990,7 +990,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025/03/04，2025/05/25</t>
+          <t>2025/03/04，2025/05/25，2026/1/28</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -1809,10 +1809,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>BV1jn6cBFEN1</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2803,7 +2807,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025/03/07，2025/03/21，2025/04/04，2025/04/18，2025/04/29，2025/05/08，2025/05/22，2025/05/25，2025/06/06，2025/06/08，2025/06/13，2025/06/13，2025/06/26，2025/07/03，2025/07/05，2025/07/11，2025/07/14，2025/07/26，2025/08/02，2025/08/12，2025/08/21，2025/09/17，2025/11/9，2025/12/4，2025/12/16，2025/12/31，2026/1/9，2026/1/15，2026/1/21，2026/1/23</t>
+          <t>2025/03/07，2025/03/21，2025/04/04，2025/04/18，2025/04/29，2025/05/08，2025/05/22，2025/05/25，2025/06/06，2025/06/08，2025/06/13，2025/06/13，2025/06/26，2025/07/03，2025/07/05，2025/07/11，2025/07/14，2025/07/26，2025/08/02，2025/08/12，2025/08/21，2025/09/17，2025/11/9，2025/12/4，2025/12/16，2025/12/31，2026/1/9，2026/1/15，2026/1/21，2026/1/23，2026/1/28</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -2814,7 +2818,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3994,7 +3998,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2025/03/13，2025/04/13，2025/04/19，2025/05/06，2025/06/03，2025/08/28，2025/09/17，2025/10/10，2025/11/17，2025/11/22，2025/12/24，2026/1/15</t>
+          <t>2025/03/13，2025/04/13，2025/04/19，2025/05/06，2025/06/03，2025/08/28，2025/09/17，2025/10/10，2025/11/17，2025/11/22，2025/12/24，2026/1/15，2026/1/28</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -4005,10 +4009,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr"/>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>BV1iRhUzZECK</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4597,7 +4605,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2025/03/14，2025/04/11，2025/04/25，2025/06/05，2025/06/15，2025/07/07，2025/09/11，2025/10/10，2025/11/14，2025/12/9</t>
+          <t>2025/03/14，2025/04/11，2025/04/25，2025/06/05，2025/06/15，2025/07/07，2025/09/11，2025/10/10，2025/11/14，2025/12/9，2026/1/28</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -4608,10 +4616,14 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr"/>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>BV1bZvxBGEiJ</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5192,7 +5204,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2025/03/17，2025/03/28，2025/04/15，2025/04/19，2025/04/25，2025/05/01，2025/05/18，2025/05/25，2025/05/29，2025/06/05，2025/06/12，2025/06/22，2025/07/03，2025/07/11，2025/07/18，2025/07/22，2025/07/31，2025/08/01，2025/08/02，2025/08/03，2025/08/12，2025/09/03，2025/09/11，2025/09/18，2025/09/26，2025/10/03，2025/10/09，2025/10/20，2025/11/12，2025/12/7，2025/12/23，2026/1/5，2026/1/21</t>
+          <t>2025/03/17，2025/03/28，2025/04/15，2025/04/19，2025/04/25，2025/05/01，2025/05/18，2025/05/25，2025/05/29，2025/06/05，2025/06/12，2025/06/22，2025/07/03，2025/07/11，2025/07/18，2025/07/22，2025/07/31，2025/08/01，2025/08/02，2025/08/03，2025/08/12，2025/09/03，2025/09/11，2025/09/18，2025/09/26，2025/10/03，2025/10/09，2025/10/20，2025/11/12，2025/12/7，2025/12/23，2026/1/5，2026/1/21，2026/1/28</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -5203,7 +5215,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -5480,7 +5492,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2025/03/17，2025/06/05，2025/06/05，2025/06/23，2025/08/12，2025/09/12，2025/09/02，2025/11/9，2025/12/4，2026/1/1</t>
+          <t>2025/03/17，2025/06/05，2025/06/05，2025/06/23，2025/08/12，2025/09/12，2025/09/02，2025/11/9，2025/12/4，2026/1/1，2026/1/28</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
@@ -5491,10 +5503,14 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr"/>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>BV1CF2LBhEi1</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6107,7 +6123,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2025/03/20，2025/05/23，2025/07/21，2025/08/08，2025/09/05</t>
+          <t>2025/03/20，2025/05/23，2025/07/21，2025/08/08，2025/09/05，2026/1/28</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
@@ -6118,10 +6134,14 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>BV14fJwzJEZQ</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -7134,7 +7154,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>2025/03/22，2025/04/05，2025/04/17，2025/04/21，2025/04/22，2025/04/25，2025/05/08，2025/05/15，2025/05/25，2025/05/29，2025/06/03，2025/06/13，2025/06/23，2025/07/06，2025/07/15，2025/08/03，2025/08/16，2025/09/03，2025/09/10，2025/09/30，2025/10/16，2025/10/22，2025/10/30，2025/11/18，2025/12/2，2025/12/5，2025/12/30，2026/1/23</t>
+          <t>2025/03/22，2025/04/05，2025/04/17，2025/04/21，2025/04/22，2025/04/25，2025/05/08，2025/05/15，2025/05/25，2025/05/29，2025/06/03，2025/06/13，2025/06/23，2025/07/06，2025/07/15，2025/08/03，2025/08/16，2025/09/03，2025/09/10，2025/09/30，2025/10/16，2025/10/22，2025/10/30，2025/11/18，2025/12/2，2025/12/5，2025/12/30，2026/1/23，2026/1/28</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -7145,7 +7165,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -7278,7 +7298,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>2025/03/23，2025/03/28，2025/04/06，2025/05/15，2025/05/22，2025/05/29，2025/06/07，2025/06/09，2025/07/06，2025/07/15，2025/09/06，2025/09/14，2025/09/30，2025/11/13</t>
+          <t>2025/03/23，2025/03/28，2025/04/06，2025/05/15，2025/05/22，2025/05/29，2025/06/07，2025/06/09，2025/07/06，2025/07/15，2025/09/06，2025/09/14，2025/09/30，2025/11/13，2026/1/28</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
@@ -7289,7 +7309,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -8593,7 +8613,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>2025/03/28，2025/05/05，2025/05/08，2025/05/15，2025/05/30，2025/06/13，2025/06/23，2025/07/10，2025/07/24，2025/08/04，2025/09/03，2025/09/21，2025/11/9，2025/11/26，2026/1/16</t>
+          <t>2025/03/28，2025/05/05，2025/05/08，2025/05/15，2025/05/30，2025/06/13，2025/06/23，2025/07/10，2025/07/24，2025/08/04，2025/09/03，2025/09/21，2025/11/9，2025/11/26，2026/1/16，2026/1/28</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
@@ -8604,10 +8624,14 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I224" t="inlineStr"/>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>BV1ZtE2zsEfw</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -10480,7 +10504,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>2025/04/03，2025/04/15，2025/05/22，2025/05/29，2025/06/02，2025/06/07，2025/06/12，2025/06/21，2025/06/23，2025/07/08，2025/07/13，2025/07/21，2025/08/01，2025/08/03，2025/09/02，2025/09/19，2025/10/10，2025/11/12，2025/11/26，2025/12/6，2026/1/9</t>
+          <t>2025/04/03，2025/04/15，2025/05/22，2025/05/29，2025/06/02，2025/06/07，2025/06/12，2025/06/21，2025/06/23，2025/07/08，2025/07/13，2025/07/21，2025/08/01，2025/08/03，2025/09/02，2025/09/19，2025/10/10，2025/11/12，2025/11/26，2025/12/6，2026/1/9，2026/1/28</t>
         </is>
       </c>
       <c r="F277" t="inlineStr"/>
@@ -10491,7 +10515,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -10694,7 +10718,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>2025/04/04</t>
+          <t>2025/04/04，2026/1/28</t>
         </is>
       </c>
       <c r="F283" t="inlineStr"/>
@@ -10705,7 +10729,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I283" t="inlineStr"/>
@@ -11429,7 +11453,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>2025/04/07，2025/04/24，2025/05/03，2025/05/23，2025/06/07，2025/06/12，2025/06/23，2025/06/29，2025/07/15，2025/07/25，2025/09/24，2025/10/18，2025/11/12，2025/11/24，2025/12/23</t>
+          <t>2025/04/07，2025/04/24，2025/05/03，2025/05/23，2025/06/07，2025/06/12，2025/06/23，2025/06/29，2025/07/15，2025/07/25，2025/09/24，2025/10/18，2025/11/12，2025/11/24，2025/12/23，2026/1/28</t>
         </is>
       </c>
       <c r="F304" t="inlineStr"/>
@@ -11440,7 +11464,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -12079,7 +12103,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>2025/04/11，2025/05/25，2025/05/29，2025/06/28，2025/07/03，2025/08/13，2025/08/25，2025/09/12，2025/09/11，2025/09/28，2025/10/11，2025/10/30，2025/11/21</t>
+          <t>2025/04/11，2025/05/25，2025/05/29，2025/06/28，2025/07/03，2025/08/13，2025/08/25，2025/09/12，2025/09/11，2025/09/28，2025/10/11，2025/10/30，2025/11/21，2026/1/28</t>
         </is>
       </c>
       <c r="F322" t="inlineStr"/>
@@ -12090,10 +12114,14 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="I322" t="inlineStr"/>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>BV1TP7LzmEnU</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -13838,7 +13866,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>2025/04/20，2025/04/27，2025/05/05，2025/05/09，2025/05/18，2025/06/07，2025/06/13，2025/06/21，2025/07/05，2025/07/15，2025/07/25，2025/08/08，2025/08/26，2025/08/28，2025/09/14，2025/09/30，2025/10/03，2025/10/24，2025/10/31，2025/11/9，2025/11/26，2025/12/5，2025/12/6，2026/1/1</t>
+          <t>2025/04/20，2025/04/27，2025/05/05，2025/05/09，2025/05/18，2025/06/07，2025/06/13，2025/06/21，2025/07/05，2025/07/15，2025/07/25，2025/08/08，2025/08/26，2025/08/28，2025/09/14，2025/09/30，2025/10/03，2025/10/24，2025/10/31，2025/11/9，2025/11/26，2025/12/5，2025/12/6，2026/1/1，2026/1/28</t>
         </is>
       </c>
       <c r="F371" t="inlineStr"/>
@@ -13849,7 +13877,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -14908,7 +14936,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>2025/04/27，2025/05/04，2025/05/26，2025/06/08，2025/08/28，2025/10/18，2025/11/18，2025/12/24</t>
+          <t>2025/04/27，2025/05/04，2025/05/26，2025/06/08，2025/08/28，2025/10/18，2025/11/18，2025/12/24，2026/1/28</t>
         </is>
       </c>
       <c r="F401" t="inlineStr"/>
@@ -14919,10 +14947,14 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I401" t="inlineStr"/>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>BV196BQBhEf1</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -22739,7 +22771,7 @@
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>2025/08/26，2025/08/16，2025/11/13，2025/12/9</t>
+          <t>2025/08/26，2025/08/16，2025/11/13，2025/12/9，2026/1/28</t>
         </is>
       </c>
       <c r="F622" t="inlineStr"/>
@@ -22750,10 +22782,14 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I622" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>BV1LYvKzmEyV</t>
+        </is>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -25482,7 +25518,7 @@
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>2025/10/17，2025/10/24，2025/10/30，2025/11/14，2025/11/28，2025/12/12，2025/12/26</t>
+          <t>2025/10/17，2025/10/24，2025/10/30，2025/11/14，2025/11/28，2025/12/12，2025/12/26，2026/1/28</t>
         </is>
       </c>
       <c r="F699" t="inlineStr"/>
@@ -25493,7 +25529,7 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I699" t="inlineStr"/>
@@ -27583,7 +27619,7 @@
       </c>
       <c r="E758" t="inlineStr">
         <is>
-          <t>2025/12/11，2025/12/12，2025/12/17，2026/1/2，2026/1/5，2026/1/11，2026/1/17</t>
+          <t>2025/12/11，2025/12/12，2025/12/17，2026/1/2，2026/1/5，2026/1/11，2026/1/17，2026/1/28</t>
         </is>
       </c>
       <c r="F758" t="inlineStr"/>
@@ -27594,7 +27630,7 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
@@ -27867,7 +27903,7 @@
       </c>
       <c r="E766" t="inlineStr">
         <is>
-          <t>2025/12/19，2025/12/24，2025/12/26，2026/1/2，2026/1/9，2026/1/23</t>
+          <t>2025/12/19，2025/12/24，2025/12/26，2026/1/2，2026/1/9，2026/1/23，2026/1/28</t>
         </is>
       </c>
       <c r="F766" t="inlineStr"/>
@@ -27878,7 +27914,7 @@
       </c>
       <c r="H766" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I766" t="inlineStr">
@@ -28315,7 +28351,7 @@
       </c>
       <c r="E778" t="inlineStr">
         <is>
-          <t>2026/1/15</t>
+          <t>2026/1/15，2026/1/28</t>
         </is>
       </c>
       <c r="F778" t="inlineStr"/>
@@ -28326,7 +28362,7 @@
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
@@ -28692,6 +28728,41 @@
         </is>
       </c>
       <c r="I788" t="inlineStr"/>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr"/>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>爱要坦荡荡(R&amp;B版)</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr"/>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>顾叮当</t>
+        </is>
+      </c>
+      <c r="E789" t="inlineStr">
+        <is>
+          <t>2026/1/28</t>
+        </is>
+      </c>
+      <c r="F789" t="inlineStr"/>
+      <c r="G789" t="inlineStr">
+        <is>
+          <t>华语</t>
+        </is>
+      </c>
+      <c r="H789" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I789" t="inlineStr">
+        <is>
+          <t>BV1Xx6cBRE14</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -979,7 +979,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025/03/04，2025/03/19，2025/04/14，2025/04/22，2025/05/01，2025/05/13，2025/05/19，2025/05/27，2025/06/03，2025/06/12，2025/06/19，2025/06/27，2025/07/08，2025/07/14，2025/07/18，2025/07/20，2025/08/02，2025/08/08，2025/08/12，2025/09/02，2025/09/18，2025/10/01，2025/10/03，2025/10/11，2025/10/24，2025/11/13，2025/11/14，2025/11/28，2025/12/7，2025/12/17，2026/1/19，2026/1/28</t>
+          <t>2025/03/04，2025/03/19，2025/04/14，2025/04/22，2025/05/01，2025/05/13，2025/05/19，2025/05/27，2025/06/03，2025/06/12，2025/06/19，2025/06/27，2025/07/08，2025/07/14，2025/07/18，2025/07/20，2025/08/02，2025/08/08，2025/08/12，2025/09/02，2025/09/18，2025/10/01，2025/10/03，2025/10/11，2025/10/24，2025/11/13，2025/11/14，2025/11/28，2025/12/7，2025/12/17，2026/1/19，2026/1/29</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025/03/04，2025/05/25，2026/1/28</t>
+          <t>2025/03/04，2025/05/25，2026/1/29</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025/03/07，2025/03/21，2025/04/04，2025/04/18，2025/04/29，2025/05/08，2025/05/22，2025/05/25，2025/06/06，2025/06/08，2025/06/13，2025/06/13，2025/06/26，2025/07/03，2025/07/05，2025/07/11，2025/07/14，2025/07/26，2025/08/02，2025/08/12，2025/08/21，2025/09/17，2025/11/9，2025/12/4，2025/12/16，2025/12/31，2026/1/9，2026/1/15，2026/1/21，2026/1/23，2026/1/28</t>
+          <t>2025/03/07，2025/03/21，2025/04/04，2025/04/18，2025/04/29，2025/05/08，2025/05/22，2025/05/25，2025/06/06，2025/06/08，2025/06/13，2025/06/13，2025/06/26，2025/07/03，2025/07/05，2025/07/11，2025/07/14，2025/07/26，2025/08/02，2025/08/12，2025/08/21，2025/09/17，2025/11/9，2025/12/4，2025/12/16，2025/12/31，2026/1/9，2026/1/15，2026/1/21，2026/1/23，2026/1/29</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2025/03/13，2025/04/13，2025/04/19，2025/05/06，2025/06/03，2025/08/28，2025/09/17，2025/10/10，2025/11/17，2025/11/22，2025/12/24，2026/1/15，2026/1/28</t>
+          <t>2025/03/13，2025/04/13，2025/04/19，2025/05/06，2025/06/03，2025/08/28，2025/09/17，2025/10/10，2025/11/17，2025/11/22，2025/12/24，2026/1/15，2026/1/29</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2025/03/14，2025/04/11，2025/04/25，2025/06/05，2025/06/15，2025/07/07，2025/09/11，2025/10/10，2025/11/14，2025/12/9，2026/1/28</t>
+          <t>2025/03/14，2025/04/11，2025/04/25，2025/06/05，2025/06/15，2025/07/07，2025/09/11，2025/10/10，2025/11/14，2025/12/9</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -4616,7 +4616,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2025/03/17，2025/03/28，2025/04/15，2025/04/19，2025/04/25，2025/05/01，2025/05/18，2025/05/25，2025/05/29，2025/06/05，2025/06/12，2025/06/22，2025/07/03，2025/07/11，2025/07/18，2025/07/22，2025/07/31，2025/08/01，2025/08/02，2025/08/03，2025/08/12，2025/09/03，2025/09/11，2025/09/18，2025/09/26，2025/10/03，2025/10/09，2025/10/20，2025/11/12，2025/12/7，2025/12/23，2026/1/5，2026/1/21，2026/1/28</t>
+          <t>2025/03/17，2025/03/28，2025/04/15，2025/04/19，2025/04/25，2025/05/01，2025/05/18，2025/05/25，2025/05/29，2025/06/05，2025/06/12，2025/06/22，2025/07/03，2025/07/11，2025/07/18，2025/07/22，2025/07/31，2025/08/01，2025/08/02，2025/08/03，2025/08/12，2025/09/03，2025/09/11，2025/09/18，2025/09/26，2025/10/03，2025/10/09，2025/10/20，2025/11/12，2025/12/7，2025/12/23，2026/1/5，2026/1/21，2026/1/29</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2025/03/17，2025/06/05，2025/06/05，2025/06/23，2025/08/12，2025/09/12，2025/09/02，2025/11/9，2025/12/4，2026/1/1，2026/1/28</t>
+          <t>2025/03/17，2025/06/05，2025/06/05，2025/06/23，2025/08/12，2025/09/12，2025/09/02，2025/11/9，2025/12/4，2026/1/1，2026/1/29</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
@@ -6123,7 +6123,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2025/03/20，2025/05/23，2025/07/21，2025/08/08，2025/09/05，2026/1/28</t>
+          <t>2025/03/20，2025/05/23，2025/07/21，2025/08/08，2025/09/05，2026/1/29</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
@@ -7154,7 +7154,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>2025/03/22，2025/04/05，2025/04/17，2025/04/21，2025/04/22，2025/04/25，2025/05/08，2025/05/15，2025/05/25，2025/05/29，2025/06/03，2025/06/13，2025/06/23，2025/07/06，2025/07/15，2025/08/03，2025/08/16，2025/09/03，2025/09/10，2025/09/30，2025/10/16，2025/10/22，2025/10/30，2025/11/18，2025/12/2，2025/12/5，2025/12/30，2026/1/23，2026/1/28</t>
+          <t>2025/03/22，2025/04/05，2025/04/17，2025/04/21，2025/04/22，2025/04/25，2025/05/08，2025/05/15，2025/05/25，2025/05/29，2025/06/03，2025/06/13，2025/06/23，2025/07/06，2025/07/15，2025/08/03，2025/08/16，2025/09/03，2025/09/10，2025/09/30，2025/10/16，2025/10/22，2025/10/30，2025/11/18，2025/12/2，2025/12/5，2025/12/30，2026/1/23，2026/1/29</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -7298,7 +7298,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>2025/03/23，2025/03/28，2025/04/06，2025/05/15，2025/05/22，2025/05/29，2025/06/07，2025/06/09，2025/07/06，2025/07/15，2025/09/06，2025/09/14，2025/09/30，2025/11/13，2026/1/28</t>
+          <t>2025/03/23，2025/03/28，2025/04/06，2025/05/15，2025/05/22，2025/05/29，2025/06/07，2025/06/09，2025/07/06，2025/07/15，2025/09/06，2025/09/14，2025/09/30，2025/11/13，2026/1/29</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>2025/03/28，2025/05/05，2025/05/08，2025/05/15，2025/05/30，2025/06/13，2025/06/23，2025/07/10，2025/07/24，2025/08/04，2025/09/03，2025/09/21，2025/11/9，2025/11/26，2026/1/16，2026/1/28</t>
+          <t>2025/03/28，2025/05/05，2025/05/08，2025/05/15，2025/05/30，2025/06/13，2025/06/23，2025/07/10，2025/07/24，2025/08/04，2025/09/03，2025/09/21，2025/11/9，2025/11/26，2026/1/16，2026/1/29</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
@@ -10504,7 +10504,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>2025/04/03，2025/04/15，2025/05/22，2025/05/29，2025/06/02，2025/06/07，2025/06/12，2025/06/21，2025/06/23，2025/07/08，2025/07/13，2025/07/21，2025/08/01，2025/08/03，2025/09/02，2025/09/19，2025/10/10，2025/11/12，2025/11/26，2025/12/6，2026/1/9，2026/1/28</t>
+          <t>2025/04/03，2025/04/15，2025/05/22，2025/05/29，2025/06/02，2025/06/07，2025/06/12，2025/06/21，2025/06/23，2025/07/08，2025/07/13，2025/07/21，2025/08/01，2025/08/03，2025/09/02，2025/09/19，2025/10/10，2025/11/12，2025/11/26，2025/12/6，2026/1/9，2026/1/29</t>
         </is>
       </c>
       <c r="F277" t="inlineStr"/>
@@ -10718,7 +10718,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>2025/04/04，2026/1/28</t>
+          <t>2025/04/04，2026/1/29</t>
         </is>
       </c>
       <c r="F283" t="inlineStr"/>
@@ -11453,7 +11453,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>2025/04/07，2025/04/24，2025/05/03，2025/05/23，2025/06/07，2025/06/12，2025/06/23，2025/06/29，2025/07/15，2025/07/25，2025/09/24，2025/10/18，2025/11/12，2025/11/24，2025/12/23，2026/1/28</t>
+          <t>2025/04/07，2025/04/24，2025/05/03，2025/05/23，2025/06/07，2025/06/12，2025/06/23，2025/06/29，2025/07/15，2025/07/25，2025/09/24，2025/10/18，2025/11/12，2025/11/24，2025/12/23，2026/1/29</t>
         </is>
       </c>
       <c r="F304" t="inlineStr"/>
@@ -12103,7 +12103,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>2025/04/11，2025/05/25，2025/05/29，2025/06/28，2025/07/03，2025/08/13，2025/08/25，2025/09/12，2025/09/11，2025/09/28，2025/10/11，2025/10/30，2025/11/21，2026/1/28</t>
+          <t>2025/04/11，2025/05/25，2025/05/29，2025/06/28，2025/07/03，2025/08/13，2025/08/25，2025/09/12，2025/09/11，2025/09/28，2025/10/11，2025/10/30，2025/11/21，2026/1/29</t>
         </is>
       </c>
       <c r="F322" t="inlineStr"/>
@@ -13866,7 +13866,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>2025/04/20，2025/04/27，2025/05/05，2025/05/09，2025/05/18，2025/06/07，2025/06/13，2025/06/21，2025/07/05，2025/07/15，2025/07/25，2025/08/08，2025/08/26，2025/08/28，2025/09/14，2025/09/30，2025/10/03，2025/10/24，2025/10/31，2025/11/9，2025/11/26，2025/12/5，2025/12/6，2026/1/1，2026/1/28</t>
+          <t>2025/04/20，2025/04/27，2025/05/05，2025/05/09，2025/05/18，2025/06/07，2025/06/13，2025/06/21，2025/07/05，2025/07/15，2025/07/25，2025/08/08，2025/08/26，2025/08/28，2025/09/14，2025/09/30，2025/10/03，2025/10/24，2025/10/31，2025/11/9，2025/11/26，2025/12/5，2025/12/6，2026/1/1，2026/1/29</t>
         </is>
       </c>
       <c r="F371" t="inlineStr"/>
@@ -14936,7 +14936,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>2025/04/27，2025/05/04，2025/05/26，2025/06/08，2025/08/28，2025/10/18，2025/11/18，2025/12/24，2026/1/28</t>
+          <t>2025/04/27，2025/05/04，2025/05/26，2025/06/08，2025/08/28，2025/10/18，2025/11/18，2025/12/24，2026/1/29</t>
         </is>
       </c>
       <c r="F401" t="inlineStr"/>
@@ -22771,7 +22771,7 @@
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>2025/08/26，2025/08/16，2025/11/13，2025/12/9，2026/1/28</t>
+          <t>2025/08/26，2025/08/16，2025/11/13，2025/12/9，2026/1/29</t>
         </is>
       </c>
       <c r="F622" t="inlineStr"/>
@@ -25518,7 +25518,7 @@
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>2025/10/17，2025/10/24，2025/10/30，2025/11/14，2025/11/28，2025/12/12，2025/12/26，2026/1/28</t>
+          <t>2025/10/17，2025/10/24，2025/10/30，2025/11/14，2025/11/28，2025/12/12，2025/12/26，2026/1/29</t>
         </is>
       </c>
       <c r="F699" t="inlineStr"/>
@@ -27619,7 +27619,7 @@
       </c>
       <c r="E758" t="inlineStr">
         <is>
-          <t>2025/12/11，2025/12/12，2025/12/17，2026/1/2，2026/1/5，2026/1/11，2026/1/17，2026/1/28</t>
+          <t>2025/12/11，2025/12/12，2025/12/17，2026/1/2，2026/1/5，2026/1/11，2026/1/17，2026/1/29</t>
         </is>
       </c>
       <c r="F758" t="inlineStr"/>
@@ -27903,7 +27903,7 @@
       </c>
       <c r="E766" t="inlineStr">
         <is>
-          <t>2025/12/19，2025/12/24，2025/12/26，2026/1/2，2026/1/9，2026/1/23，2026/1/28</t>
+          <t>2025/12/19，2025/12/24，2025/12/26，2026/1/2，2026/1/9，2026/1/23，2026/1/29</t>
         </is>
       </c>
       <c r="F766" t="inlineStr"/>
@@ -28351,7 +28351,7 @@
       </c>
       <c r="E778" t="inlineStr">
         <is>
-          <t>2026/1/15，2026/1/28</t>
+          <t>2026/1/15，2026/1/29</t>
         </is>
       </c>
       <c r="F778" t="inlineStr"/>
@@ -28744,7 +28744,7 @@
       </c>
       <c r="E789" t="inlineStr">
         <is>
-          <t>2026/1/28</t>
+          <t>2026/1/29</t>
         </is>
       </c>
       <c r="F789" t="inlineStr"/>

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I789"/>
+  <dimension ref="A1:I790"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,7 +538,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025/03/01，2025/03/15，2025/04/01，2025/04/15，2025/04/26，2025/05/09，2025/05/30，2025/06/08，2025/07/05，2025/07/11，2025/08/13，2025/09/17，2025/09/02，2025/09/07，2025/09/19，2025/10/01，2025/10/09，2025/10/16，2025/10/24，2025/10/30，2025/11/9，2025/11/14，2025/12/24，2025/12/26，2026/1/16，2026/1/24，2026/1/28</t>
+          <t>2025/03/01，2025/03/15，2025/04/01，2025/04/15，2025/04/26，2025/05/09，2025/05/30，2025/06/08，2025/07/05，2025/07/11，2025/08/13，2025/09/17，2025/09/02，2025/09/07，2025/09/19，2025/10/01，2025/10/09，2025/10/16，2025/10/24，2025/10/30，2025/11/9，2025/11/14，2025/12/24，2025/12/26，2026/1/16，2026/1/24，2026/1/28，2026/1/30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -549,7 +549,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025/03/04，2025/04/07，2025/05/29，2025/06/06，2025/06/19，2025/06/26，2025/07/10，2025/07/11，2025/07/14，2025/08/02，2025/09/03，2025/09/26，2025/10/03，2025/11/9，2025/11/24，2025/11/26，2026/1/5</t>
+          <t>2025/03/04，2025/04/07，2025/05/29，2025/06/06，2025/06/19，2025/06/26，2025/07/10，2025/07/11，2025/07/14，2025/08/02，2025/09/03，2025/09/26，2025/10/03，2025/11/9，2025/11/24，2025/11/26，2026/1/5，2026/1/30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025/03/07，2025/05/01，2025/05/09，2025/05/26，2025/06/17，2025/06/20，2025/07/13，2025/09/12，2025/09/26，2025/10/11，2026/1/12</t>
+          <t>2025/03/07，2025/05/01，2025/05/09，2025/05/26，2025/06/17，2025/06/20，2025/07/13，2025/09/12，2025/09/26，2025/10/11，2026/1/12，2026/1/30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -2931,10 +2931,14 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>BV1MQKPzdEA5</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4784,7 +4788,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2025/03/14，2025/03/28，2025/04/18，2025/09/20，2025/10/12，2025/10/22，2026/1/2</t>
+          <t>2025/03/14，2025/03/28，2025/04/18，2025/09/20，2025/10/12，2025/10/22，2026/1/2，2026/1/30</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
@@ -4795,10 +4799,14 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>BV1sv4gzWELe</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5605,7 +5613,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2025/03/19，2025/04/07，2025/04/21，2025/05/01，2025/05/10，2025/05/27，2025/06/09，2025/06/23，2025/06/26，2025/07/03，2025/09/15，2025/09/28，2025/10/01，2025/10/17，2026/1/3，2026/1/5</t>
+          <t>2025/03/19，2025/04/07，2025/04/21，2025/05/01，2025/05/10，2025/05/27，2025/06/09，2025/06/23，2025/06/26，2025/07/03，2025/09/15，2025/09/28，2025/10/01，2025/10/17，2026/1/3，2026/1/5，2026/1/30</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
@@ -5616,7 +5624,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10648,7 +10656,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>2025/04/04，2025/05/12，2025/05/18，2025/06/20，2025/07/05，2025/07/14，2025/12/23</t>
+          <t>2025/04/04，2025/05/12，2025/05/18，2025/06/20，2025/07/05，2025/07/14，2025/12/23，2026/1/30</t>
         </is>
       </c>
       <c r="F281" t="inlineStr"/>
@@ -10659,10 +10667,14 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I281" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>BV1zgKNzkEV1</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -16173,7 +16185,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>2025/05/12，2025/05/22，2025/05/25，2025/07/20，2025/09/12，2026/1/15，2026/1/24</t>
+          <t>2025/05/12，2025/05/22，2025/05/25，2025/07/20，2025/09/12，2026/1/15，2026/1/24，2026/1/30</t>
         </is>
       </c>
       <c r="F436" t="inlineStr"/>
@@ -16184,10 +16196,14 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I436" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>BV12U6zBWEfw</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -20997,7 +21013,7 @@
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>2025/07/07，2025/07/31，2025/09/11，2025/10/11，2025/11/7，2025/11/12，2025/12/9，2026/1/14</t>
+          <t>2025/07/07，2025/07/31，2025/09/11，2025/10/11，2025/11/7，2025/11/12，2025/12/9，2026/1/14，2026/1/30</t>
         </is>
       </c>
       <c r="F572" t="inlineStr"/>
@@ -21008,10 +21024,14 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I572" t="inlineStr"/>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I572" t="inlineStr">
+        <is>
+          <t>BV1FCrWBiE7J</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -22055,7 +22075,7 @@
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>2025/07/26，2025/09/24，2025/10/28，2025/11/12，2025/12/16，2026/1/14</t>
+          <t>2025/07/26，2025/09/24，2025/10/28，2025/11/12，2025/12/16，2026/1/14，2026/1/30</t>
         </is>
       </c>
       <c r="F602" t="inlineStr"/>
@@ -22066,10 +22086,14 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I602" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>BV146rrBaERP</t>
+        </is>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -26693,7 +26717,7 @@
       </c>
       <c r="E732" t="inlineStr">
         <is>
-          <t>2025/11/12，2025/11/14，2025/11/24，2025/12/6，2025/12/12，2025/12/26，2026/1/5</t>
+          <t>2025/11/12，2025/11/14，2025/11/24，2025/12/6，2025/12/12，2025/12/26，2026/1/5，2026/1/30</t>
         </is>
       </c>
       <c r="F732" t="inlineStr"/>
@@ -26704,7 +26728,7 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
@@ -28713,7 +28737,7 @@
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t>2026/1/25</t>
+          <t>2026/1/25，2026/1/30</t>
         </is>
       </c>
       <c r="F788" t="inlineStr"/>
@@ -28724,7 +28748,7 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I788" t="inlineStr"/>
@@ -28763,6 +28787,37 @@
           <t>BV1Xx6cBRE14</t>
         </is>
       </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr"/>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Long Live</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr"/>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>Taylor Swift</t>
+        </is>
+      </c>
+      <c r="E790" t="inlineStr">
+        <is>
+          <t>2026/1/30</t>
+        </is>
+      </c>
+      <c r="F790" t="inlineStr"/>
+      <c r="G790" t="inlineStr">
+        <is>
+          <t>英语</t>
+        </is>
+      </c>
+      <c r="H790" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I790" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -13220,7 +13220,11 @@
           <t>扉をあけて</t>
         </is>
       </c>
-      <c r="C353" t="inlineStr"/>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>打开心扉/魔法少女小樱</t>
+        </is>
+      </c>
       <c r="D353" t="inlineStr">
         <is>
           <t>ANZA</t>
@@ -13242,7 +13246,11 @@
           <t>3</t>
         </is>
       </c>
-      <c r="I353" t="inlineStr"/>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>BV1t87rzREqq</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -13255,11 +13263,7 @@
           <t>安静了</t>
         </is>
       </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>打开心扉/魔法少女小樱</t>
-        </is>
-      </c>
+      <c r="C354" t="inlineStr"/>
       <c r="D354" t="inlineStr">
         <is>
           <t>S.H.E</t>

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -8341,7 +8341,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>2025/03/28，2025/04/22，2025/05/20，2025/06/27，2025/09/12，2025/11/9，2025/11/14，2025/12/9</t>
+          <t>2025/03/28，2025/04/22，2025/05/20，2025/06/27，2025/09/12，2025/11/9，2025/11/14，2025/12/9，2026/1/31</t>
         </is>
       </c>
       <c r="F216" t="inlineStr"/>
@@ -8352,10 +8352,14 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr"/>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>BV1AzJhzdE3s</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -28192,7 +28196,7 @@
       </c>
       <c r="E773" t="inlineStr">
         <is>
-          <t>2025/12/26，2026/1/10，2026/1/22，2026/1/23</t>
+          <t>2025/12/26，2026/1/10，2026/1/22，2026/1/23，2026/1/31</t>
         </is>
       </c>
       <c r="F773" t="inlineStr"/>
@@ -28203,7 +28207,7 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I790"/>
+  <dimension ref="A1:I791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,7 +698,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025/03/02，2025/03/14，2025/03/28，2025/04/17，2025/04/25，2025/05/12，2025/05/12，2025/05/18，2025/05/29，2025/06/02，2025/06/05，2025/06/12，2025/06/27，2025/07/10，2025/08/04，2025/08/08，2025/08/21，2025/08/28，2025/09/10，2025/09/22，2025/09/30，2025/10/12，2025/11/17，2025/12/2，2025/12/31</t>
+          <t>2025/03/02，2025/03/14，2025/03/28，2025/04/17，2025/04/25，2025/05/12，2025/05/12，2025/05/18，2025/05/29，2025/06/02，2025/06/05，2025/06/12，2025/06/27，2025/07/10，2025/08/04，2025/08/08，2025/08/21，2025/08/28，2025/09/10，2025/09/22，2025/09/30，2025/10/12，2025/11/17，2025/12/2，2025/12/31，2026/2/2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -709,7 +709,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025/03/04，2025/05/01，2025/05/08，2025/05/26，2025/06/05，2025/06/23，2025/06/26，2025/07/03，2025/07/20，2025/07/26，2025/08/03，2025/08/12，2025/08/30，2025/09/21，2025/09/29，2025/11/9，2025/11/12，2025/11/27，2025/12/4，2025/12/28，2026/1/22</t>
+          <t>2025/03/04，2025/05/01，2025/05/08，2025/05/26，2025/06/05，2025/06/23，2025/06/26，2025/07/03，2025/07/20，2025/07/26，2025/08/03，2025/08/12，2025/08/30，2025/09/21，2025/09/29，2025/11/9，2025/11/12，2025/11/27，2025/12/4，2025/12/28，2026/1/22，2026/2/2</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025/03/07，2025/03/21，2025/04/04，2025/04/18，2025/04/29，2025/05/08，2025/05/22，2025/05/25，2025/06/06，2025/06/08，2025/06/13，2025/06/13，2025/06/26，2025/07/03，2025/07/05，2025/07/11，2025/07/14，2025/07/26，2025/08/02，2025/08/12，2025/08/21，2025/09/17，2025/11/9，2025/12/4，2025/12/16，2025/12/31，2026/1/9，2026/1/15，2026/1/21，2026/1/23，2026/1/29</t>
+          <t>2025/03/07，2025/03/21，2025/04/04，2025/04/18，2025/04/29，2025/05/08，2025/05/22，2025/05/25，2025/06/06，2025/06/08，2025/06/13，2025/06/13，2025/06/26，2025/07/03，2025/07/05，2025/07/11，2025/07/14，2025/07/26，2025/08/02，2025/08/12，2025/08/21，2025/09/17，2025/11/9，2025/12/4，2025/12/16，2025/12/31，2026/1/9，2026/1/15，2026/1/21，2026/1/23，2026/1/29，2026/2/2</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025/03/09，2025/03/24，2025/04/06，2025/04/21，2025/04/28，2025/05/08，2025/05/20，2025/06/08，2025/07/08，2025/07/28，2025/09/24，2025/09/30，2025/11/18，2025/12/24</t>
+          <t>2025/03/09，2025/03/24，2025/04/06，2025/04/21，2025/04/28，2025/05/08，2025/05/20，2025/06/08，2025/07/08，2025/07/28，2025/09/24，2025/09/30，2025/11/18，2025/12/24，2026/2/2</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -3040,10 +3040,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>BV1Qky3BbEbV</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3138,7 +3142,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025/03/09，2025/03/14，2025/04/07，2025/04/15，2025/04/27，2025/05/12，2025/05/27，2025/06/05，2025/06/08，2025/07/20，2025/08/01，2025/09/21，2025/09/28，2025/10/07，2025/10/18，2025/10/24，2025/11/10，2025/12/1，2026/1/16</t>
+          <t>2025/03/09，2025/03/14，2025/04/07，2025/04/15，2025/04/27，2025/05/12，2025/05/27，2025/06/05，2025/06/08，2025/07/20，2025/08/01，2025/09/21，2025/09/28，2025/10/07，2025/10/18，2025/10/24，2025/11/10，2025/12/1，2026/1/16，2026/2/2</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -3149,10 +3153,14 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr"/>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>BV1bVqVBkEJz</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4286,7 +4294,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2025/03/14，2025/04/02，2025/05/12，2025/05/23，2025/06/26，2025/07/08，2025/07/31，2025/08/22，2025/09/02，2025/09/15，2025/10/10，2025/11/3</t>
+          <t>2025/03/14，2025/04/02，2025/05/12，2025/05/23，2025/06/26，2025/07/08，2025/07/31，2025/08/22，2025/09/02，2025/09/15，2025/10/10，2025/11/3，2026/2/2</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
@@ -4297,10 +4305,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr"/>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>BV1KaauzNE4s</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5539,7 +5551,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2025/03/18，2025/03/25，2025/04/02，2025/04/17，2025/05/01，2025/05/08，2025/05/10，2025/05/24，2025/05/29，2025/06/23，2025/06/27，2025/07/08，2025/07/28，2025/08/03，2025/09/08，2025/09/22，2025/10/03，2025/10/11，2025/10/16，2025/10/24，2025/11/18，2025/12/2，2025/12/17，2026/1/9，2026/1/15</t>
+          <t>2025/03/18，2025/03/25，2025/04/02，2025/04/17，2025/05/01，2025/05/08，2025/05/10，2025/05/24，2025/05/29，2025/06/23，2025/06/27，2025/07/08，2025/07/28，2025/08/03，2025/09/08，2025/09/22，2025/10/03，2025/10/11，2025/10/16，2025/10/24，2025/11/18，2025/12/2，2025/12/17，2026/1/9，2026/1/15，2026/2/2</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
@@ -5550,7 +5562,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -5761,7 +5773,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2025/03/19，2025/04/08，2025/04/18，2025/05/12，2025/05/23，2025/06/27，2025/07/24，2025/08/28，2025/10/11，2025/10/31，2025/11/24，2025/12/19</t>
+          <t>2025/03/19，2025/04/08，2025/04/18，2025/05/12，2025/05/23，2025/06/27，2025/07/24，2025/08/28，2025/10/11，2025/10/31，2025/11/24，2025/12/19，2026/2/2</t>
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
@@ -5772,10 +5784,14 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr"/>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>BV1GTK6zaEPD</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6057,7 +6073,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2025/03/20，2025/05/19，2025/06/12，2025/06/19，2025/06/23，2025/07/11，2025/08/03，2025/08/12，2025/08/21，2025/09/15，2025/10/07，2025/12/2，2026/1/16</t>
+          <t>2025/03/20，2025/05/19，2025/06/12，2025/06/19，2025/06/23，2025/07/11，2025/08/03，2025/08/12，2025/08/21，2025/09/15，2025/10/07，2025/12/2，2026/1/16，2026/2/2</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -6068,10 +6084,14 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr"/>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>BV1gHpBzAEnJ</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8306,7 +8326,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>2025/03/27，2025/05/06，2025/05/16，2025/06/10，2025/07/03，2025/07/13，2025/08/22，2025/10/05，2025/10/23，2025/11/10，2026/1/16</t>
+          <t>2025/03/27，2025/05/06，2025/05/16，2025/06/10，2025/07/03，2025/07/13，2025/08/22，2025/10/05，2025/10/23，2025/11/10，2026/1/16，2026/2/2</t>
         </is>
       </c>
       <c r="F215" t="inlineStr"/>
@@ -8317,10 +8337,14 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="I215" t="inlineStr"/>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>BV1yYMVz2E5E</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -9882,7 +9906,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>2025/04/01，2025/10/17，2025/10/22，2025/10/25，2025/11/21，2025/12/11，2026/1/2，2026/1/5</t>
+          <t>2025/04/01，2025/10/17，2025/10/22，2025/10/25，2025/11/21，2025/12/11，2026/1/2，2026/1/5，2026/2/2</t>
         </is>
       </c>
       <c r="F259" t="inlineStr"/>
@@ -9893,10 +9917,14 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I259" t="inlineStr"/>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>BV1QbqABDEAJ</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -13999,7 +14027,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>2025/04/20</t>
+          <t>2025/04/20，2026/2/2</t>
         </is>
       </c>
       <c r="F374" t="inlineStr"/>
@@ -14010,10 +14038,14 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I374" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>BV1jkEuznE5L</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -14886,7 +14918,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>2025/04/26，2025/05/02，2025/07/23，2025/09/19，2025/11/21</t>
+          <t>2025/04/26，2025/05/02，2025/07/23，2025/09/19，2025/11/21，2026/2/2</t>
         </is>
       </c>
       <c r="F399" t="inlineStr"/>
@@ -14897,10 +14929,14 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I399" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>BV1LzU7B8EJn</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -15060,12 +15096,12 @@
       <c r="C404" t="inlineStr"/>
       <c r="D404" t="inlineStr">
         <is>
-          <t>汪苏泷/单依纯</t>
+          <t>戚薇</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>2025/04/27，2025/07/13，2025/09/12，2025/10/09，2026/1/22</t>
+          <t>2025/04/27，2025/07/13，2025/09/12，2025/10/09，2026/1/22，2026/2/2</t>
         </is>
       </c>
       <c r="F404" t="inlineStr"/>
@@ -15076,10 +15112,14 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I404" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>BV1K9zcBCE5z</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -16302,7 +16342,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>2025/05/15，2025/06/13，2025/06/23，2025/07/18，2025/08/02，2025/09/04，2025/09/15，2025/10/03，2025/10/28，2025/11/9，2025/11/14，2025/12/5</t>
+          <t>2025/05/15，2025/06/13，2025/06/23，2025/07/18，2025/08/02，2025/09/04，2025/09/15，2025/10/03，2025/10/28，2025/11/9，2025/11/14，2025/12/5，2026/2/2</t>
         </is>
       </c>
       <c r="F439" t="inlineStr"/>
@@ -16313,10 +16353,14 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I439" t="inlineStr"/>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>BV1LXE1zJEVV</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -17002,7 +17046,11 @@
           <t>たばこ</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr"/>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>烟草</t>
+        </is>
+      </c>
       <c r="D459" t="inlineStr">
         <is>
           <t>コレサワ</t>
@@ -17010,7 +17058,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>2025/05/22，2025/05/25，2025/05/31，2025/06/03，2025/06/10，2025/06/13，2025/06/23，2025/07/23，2025/07/24，2025/07/27，2025/08/22，2025/09/06，2025/10/28，2025/10/30</t>
+          <t>2025/05/22，2025/05/25，2025/05/31，2025/06/03，2025/06/10，2025/06/13，2025/06/23，2025/07/23，2025/07/24，2025/07/27，2025/08/22，2025/09/06，2025/10/28，2025/10/30，2026/2/2</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
@@ -17021,10 +17069,14 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="I459" t="inlineStr"/>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>BV1RDMVzNEXV</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -18360,7 +18412,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>2025/06/01，2026/1/23</t>
+          <t>2025/06/01，2026/1/23，2026/2/2</t>
         </is>
       </c>
       <c r="F497" t="inlineStr"/>
@@ -18371,10 +18423,14 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I497" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>BV1VuzuB1EQf</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -18819,7 +18875,7 @@
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>2025/06/08，2025/06/13，2025/06/16，2025/06/28，2025/07/18，2025/07/29，2025/08/18，2025/09/03，2025/09/11，2025/09/30，2025/10/05，2025/10/30，2025/11/17，2025/12/24</t>
+          <t>2025/06/08，2025/06/13，2025/06/16，2025/06/28，2025/07/18，2025/07/29，2025/08/18，2025/09/03，2025/09/11，2025/09/30，2025/10/05，2025/10/30，2025/11/17，2025/12/24，2026/2/2</t>
         </is>
       </c>
       <c r="F510" t="inlineStr"/>
@@ -18830,10 +18886,14 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="I510" t="inlineStr"/>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>BV1ArTRzbEkx</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -19558,7 +19618,7 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>2025/06/19，2025/07/14，2025/07/17，2025/07/28，2025/08/03，2025/08/08，2025/08/22，2025/09/17，2025/09/26，2025/09/30，2025/10/12，2025/10/16，2025/11/7，2025/11/21，2025/12/2，2025/12/17，2026/1/1，2026/1/5，2026/1/14，2026/1/22，2026/1/24</t>
+          <t>2025/06/19，2025/07/14，2025/07/17，2025/07/28，2025/08/03，2025/08/08，2025/08/22，2025/09/17，2025/09/26，2025/09/30，2025/10/12，2025/10/16，2025/11/7，2025/11/21，2025/12/2，2025/12/17，2026/1/1，2026/1/5，2026/1/14，2026/1/22，2026/1/24，2026/2/2</t>
         </is>
       </c>
       <c r="F531" t="inlineStr"/>
@@ -19569,7 +19629,7 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
@@ -22472,7 +22532,7 @@
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>2025/08/09，2025/08/10，2025/08/13，2025/08/22，2025/08/25，2025/09/03，2025/09/05，2025/09/20，2025/09/29，2025/10/05，2025/10/22，2025/11/14，2025/12/2，2025/12/17，2026/1/14</t>
+          <t>2025/08/09，2025/08/10，2025/08/13，2025/08/22，2025/08/25，2025/09/03，2025/09/05，2025/09/20，2025/09/29，2025/10/05，2025/10/22，2025/11/14，2025/12/2，2025/12/17，2026/1/14，2026/2/2</t>
         </is>
       </c>
       <c r="F613" t="inlineStr"/>
@@ -22483,7 +22543,7 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
@@ -22624,7 +22684,7 @@
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>2025/08/21，2026/1/16</t>
+          <t>2025/08/21，2026/1/16，2026/2/2</t>
         </is>
       </c>
       <c r="F617" t="inlineStr"/>
@@ -22635,7 +22695,7 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I617" t="inlineStr"/>
@@ -27577,7 +27637,7 @@
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t>2025/12/9</t>
+          <t>2025/12/9，2026/2/2</t>
         </is>
       </c>
       <c r="F756" t="inlineStr"/>
@@ -27588,7 +27648,7 @@
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I756" t="inlineStr"/>
@@ -28597,7 +28657,7 @@
       </c>
       <c r="E784" t="inlineStr">
         <is>
-          <t>2026/1/24，2026/1/25，2026/1/26</t>
+          <t>2026/1/24，2026/1/25，2026/1/26，2026/2/2</t>
         </is>
       </c>
       <c r="F784" t="inlineStr"/>
@@ -28608,7 +28668,7 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
@@ -28745,7 +28805,7 @@
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t>2026/1/25，2026/1/30</t>
+          <t>2026/1/25，2026/1/30，2026/2/2</t>
         </is>
       </c>
       <c r="F788" t="inlineStr"/>
@@ -28756,10 +28816,14 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I788" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I788" t="inlineStr">
+        <is>
+          <t>BV1Dv6qBsEXr</t>
+        </is>
+      </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr"/>
@@ -28826,6 +28890,41 @@
         </is>
       </c>
       <c r="I790" t="inlineStr"/>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr"/>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>身不由己</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr"/>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>大都会乐团</t>
+        </is>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>2026/2/2</t>
+        </is>
+      </c>
+      <c r="F791" t="inlineStr"/>
+      <c r="G791" t="inlineStr">
+        <is>
+          <t>华语</t>
+        </is>
+      </c>
+      <c r="H791" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I791" t="inlineStr">
+        <is>
+          <t>BV1fxFMzqEDd</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -2328,7 +2328,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025/03/06，2025/04/13，2025/05/01，2025/06/15，2025/07/24，2025/08/30，2025/09/05，2025/10/09，2025/11/3，2025/12/12</t>
+          <t>2025/03/06，2025/04/13，2025/05/01，2025/06/15，2025/07/24，2025/08/30，2025/09/05，2025/10/09，2025/11/3，2025/12/12，2026/2/4</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -3680,10 +3680,14 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>주세요 (Give Me Your)</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
+          <t>주세요</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Give Me Your</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>(G)I-DLE</t>
@@ -3691,7 +3695,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025/03/12，2025/04/13，2025/05/01，2025/05/06，2025/05/24，2025/06/09，2025/06/24，2025/07/08，2025/08/19，2025/08/16，2025/09/08，2025/10/07，2025/10/28，2025/11/18，2025/12/11，2026/1/14</t>
+          <t>2025/03/12，2025/04/13，2025/05/01，2025/05/06，2025/05/24，2025/06/09，2025/06/24，2025/07/08，2025/08/19，2025/08/16，2025/09/08，2025/10/07，2025/10/28，2025/11/18，2025/12/11，2026/1/14，2026/2/4</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -3702,7 +3706,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -11610,7 +11614,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>2025/04/07，2025/04/17，2025/05/08，2025/05/20，2025/05/30，2025/06/16，2025/08/29，2025/09/12，2025/10/09，2025/10/16，2025/11/18</t>
+          <t>2025/04/07，2025/04/17，2025/05/08，2025/05/20，2025/05/30，2025/06/16，2025/08/29，2025/09/12，2025/10/09，2025/10/16，2025/11/18，2026/2/4</t>
         </is>
       </c>
       <c r="F307" t="inlineStr"/>
@@ -11621,7 +11625,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I307" t="inlineStr"/>

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -2342,7 +2342,11 @@
           <t>11</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>BV1wtmoB7ERp</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3709,7 +3713,11 @@
           <t>17</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>BV1EpmjBbEte</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6412,7 +6420,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>2025/03/20，2025/03/29，2025/05/09，2025/05/18，2025/05/22，2025/05/26，2025/06/13，2025/06/23，2025/07/07，2025/07/14，2025/07/18，2025/08/07，2025/08/19，2025/08/28，2025/09/12，2025/09/28，2025/10/09，2025/12/26，2026/1/5，2026/1/24</t>
+          <t>2025/03/20，2025/03/29，2025/05/09，2025/05/18，2025/05/22，2025/05/26，2025/06/13，2025/06/23，2025/07/07，2025/07/14，2025/07/18，2025/08/07，2025/08/19，2025/08/28，2025/09/12，2025/09/28，2025/10/09，2025/12/26，2026/1/5，2026/1/24，2026/2/5</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
@@ -6423,7 +6431,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11628,7 +11636,11 @@
           <t>12</t>
         </is>
       </c>
-      <c r="I307" t="inlineStr"/>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>BV1BYyVBVELL</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -23155,7 +23167,7 @@
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>2025/09/10，2025/09/22，2025/09/24，2025/10/23，2025/12/6，2026/1/24</t>
+          <t>2025/09/10，2025/09/22，2025/09/24，2025/10/23，2025/12/6，2026/1/24，2026/2/5</t>
         </is>
       </c>
       <c r="F630" t="inlineStr"/>
@@ -23166,7 +23178,7 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
@@ -24648,12 +24660,12 @@
       <c r="C672" t="inlineStr"/>
       <c r="D672" t="inlineStr">
         <is>
-          <t>J.Sheon/街巷</t>
+          <t>J.Sheon</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>2025/09/24，2025/09/26，2025/09/28，2025/09/29，2025/10/01，2025/10/07，2025/10/10，2025/10/11，2025/10/17，2025/10/23，2025/10/28，2025/12/26</t>
+          <t>2025/09/24，2025/09/26，2025/09/28，2025/09/29，2025/10/01，2025/10/07，2025/10/10，2025/10/11，2025/10/17，2025/10/23，2025/10/28，2025/12/26，2026/2/5</t>
         </is>
       </c>
       <c r="F672" t="inlineStr"/>
@@ -24664,10 +24676,14 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I672" t="inlineStr"/>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I672" t="inlineStr">
+        <is>
+          <t>BV1szBrBHEVt</t>
+        </is>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
@@ -27676,7 +27692,7 @@
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>2025/12/9，2025/12/17，2026/1/14，2026/1/23</t>
+          <t>2025/12/9，2025/12/17，2026/1/14，2026/1/23，2026/2/5</t>
         </is>
       </c>
       <c r="F757" t="inlineStr"/>
@@ -27687,7 +27703,7 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I757" t="inlineStr">
@@ -28591,7 +28607,7 @@
       </c>
       <c r="E782" t="inlineStr">
         <is>
-          <t>2026/1/23，2026/1/25</t>
+          <t>2026/1/23，2026/1/25，2026/2/5</t>
         </is>
       </c>
       <c r="F782" t="inlineStr"/>
@@ -28602,7 +28618,7 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I782" t="inlineStr"/>

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I793"/>
+  <dimension ref="A1:I796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2025/03/14，2025/04/17，2025/04/25，2025/06/23，2025/08/30，2025/09/12，2025/09/15，2025/11/19</t>
+          <t>2025/03/14，2025/04/17，2025/04/25，2025/06/23，2025/08/30，2025/09/12，2025/09/15，2025/11/19，2026/2/8</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
@@ -4395,10 +4395,14 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr"/>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>BV14uypBDERJ</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -9915,7 +9919,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>2025/04/01，2025/04/24，2025/05/12，2025/05/26，2025/06/23，2025/06/27，2025/07/20，2025/08/30，2025/09/15，2025/09/22，2025/10/07，2025/10/28，2025/11/26，2025/12/28</t>
+          <t>2025/04/01，2025/04/24，2025/05/12，2025/05/26，2025/06/23，2025/06/27，2025/07/20，2025/08/30，2025/09/15，2025/09/22，2025/10/07，2025/10/28，2025/11/26，2025/12/28，2026/2/8</t>
         </is>
       </c>
       <c r="F258" t="inlineStr"/>
@@ -9926,7 +9930,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -12666,7 +12670,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>2025/04/13，2025/05/26，2025/06/07，2025/06/21，2025/07/05，2025/08/21，2025/09/15，2025/10/23，2025/11/24，2025/12/23，2026/1/9</t>
+          <t>2025/04/13，2025/05/26，2025/06/07，2025/06/21，2025/07/05，2025/08/21，2025/09/15，2025/10/23，2025/11/24，2025/12/23，2026/1/9，2026/2/8</t>
         </is>
       </c>
       <c r="F335" t="inlineStr"/>
@@ -12677,10 +12681,14 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="I335" t="inlineStr"/>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>BV1jEBuB1EAY</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -26390,7 +26398,7 @@
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>2025/10/28，2025/11/12，2025/12/19</t>
+          <t>2025/10/28，2025/11/12，2025/12/19，2026/2/8</t>
         </is>
       </c>
       <c r="F719" t="inlineStr"/>
@@ -26401,10 +26409,14 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I719" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I719" t="inlineStr">
+        <is>
+          <t>BV1bscPz1EEj</t>
+        </is>
+      </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
@@ -28106,7 +28118,7 @@
       </c>
       <c r="E767" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/19，2026/2/8</t>
         </is>
       </c>
       <c r="F767" t="inlineStr"/>
@@ -28117,10 +28129,14 @@
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I767" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I767" t="inlineStr">
+        <is>
+          <t>BV1WVqrBLEc2</t>
+        </is>
+      </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
@@ -28768,7 +28784,7 @@
       </c>
       <c r="E785" t="inlineStr">
         <is>
-          <t>2026/1/24</t>
+          <t>2026/1/24，2026/2/8</t>
         </is>
       </c>
       <c r="F785" t="inlineStr"/>
@@ -28779,10 +28795,14 @@
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I785" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I785" t="inlineStr">
+        <is>
+          <t>BV1zPz1BRExW</t>
+        </is>
+      </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
@@ -28877,7 +28897,7 @@
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t>2026/1/25，2026/1/30，2026/2/2</t>
+          <t>2026/1/25，2026/1/30，2026/2/2，2026/2/8</t>
         </is>
       </c>
       <c r="F788" t="inlineStr"/>
@@ -28888,7 +28908,7 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
@@ -29063,6 +29083,103 @@
           <t>BV1wGF4zFEBM</t>
         </is>
       </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr"/>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>相亲相爱</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr"/>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>陈慧琳/张惠妹/孙楠/古淖文</t>
+        </is>
+      </c>
+      <c r="E794" t="inlineStr">
+        <is>
+          <t>2026/2/8</t>
+        </is>
+      </c>
+      <c r="F794" t="inlineStr"/>
+      <c r="G794" t="inlineStr">
+        <is>
+          <t>华语</t>
+        </is>
+      </c>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I794" t="inlineStr"/>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr"/>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>混入人类计划</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr"/>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>ChiliChill</t>
+        </is>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>2026/2/8</t>
+        </is>
+      </c>
+      <c r="F795" t="inlineStr"/>
+      <c r="G795" t="inlineStr">
+        <is>
+          <t>华语</t>
+        </is>
+      </c>
+      <c r="H795" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I795" t="inlineStr">
+        <is>
+          <t>BV1JncczQEuJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr"/>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>纸飞机</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr"/>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>鸣潮先约电台/飞行雪绒</t>
+        </is>
+      </c>
+      <c r="E796" t="inlineStr">
+        <is>
+          <t>2026/2/8</t>
+        </is>
+      </c>
+      <c r="F796" t="inlineStr"/>
+      <c r="G796" t="inlineStr">
+        <is>
+          <t>英语</t>
+        </is>
+      </c>
+      <c r="H796" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I796" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I796"/>
+  <dimension ref="A1:I797"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025/03/02，2025/03/25，2025/03/28，2025/04/17，2025/05/03，2025/05/09，2025/05/16，2025/05/30，2025/06/14，2025/06/19，2025/07/05，2025/07/18，2025/08/21，2025/08/25，2025/09/05，2025/09/22，2025/09/26，2026/1/19，2026/1/21</t>
+          <t>2025/03/02，2025/03/25，2025/03/28，2025/04/17，2025/05/03，2025/05/09，2025/05/16，2025/05/30，2025/06/14，2025/06/19，2025/07/05，2025/07/18，2025/08/21，2025/08/25，2025/09/05，2025/09/22，2025/09/26，2026/1/19，2026/1/21，2026/2/9</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -631,7 +631,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025/03/04，2025/05/25，2026/1/29</t>
+          <t>2025/03/04，2025/05/25，2026/1/29，2026/2/9</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025/03/09，2025/04/04，2025/04/28，2025/07/08，2025/07/21，2025/08/18</t>
+          <t>2025/03/09，2025/04/04，2025/04/28，2025/07/08，2025/07/21，2025/08/18，2026/2/9</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -3301,10 +3301,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>BV1GUGwzrE6o</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3539,7 +3543,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025/03/12，2025/04/11，2025/05/04，2025/05/18，2025/06/06，2025/06/27，2025/07/15，2025/08/16，2025/09/11，2025/09/18，2025/10/05，2025/12/2</t>
+          <t>2025/03/12，2025/04/11，2025/05/04，2025/05/18，2025/06/06，2025/06/27，2025/07/15，2025/08/16，2025/09/11，2025/09/18，2025/10/05，2025/12/2，2026/2/9</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -3550,10 +3554,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr"/>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>BV12BWNzNE2b</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5252,7 +5260,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2025/03/17，2025/03/28，2025/04/15，2025/04/19，2025/04/25，2025/05/01，2025/05/18，2025/05/25，2025/05/29，2025/06/05，2025/06/12，2025/06/22，2025/07/03，2025/07/11，2025/07/18，2025/07/22，2025/07/31，2025/08/01，2025/08/02，2025/08/03，2025/08/12，2025/09/03，2025/09/11，2025/09/18，2025/09/26，2025/10/03，2025/10/09，2025/10/20，2025/11/12，2025/12/7，2025/12/23，2026/1/5，2026/1/21，2026/1/29</t>
+          <t>2025/03/17，2025/03/28，2025/04/15，2025/04/19，2025/04/25，2025/05/01，2025/05/18，2025/05/25，2025/05/29，2025/06/05，2025/06/12，2025/06/22，2025/07/03，2025/07/11，2025/07/18，2025/07/22，2025/07/31，2025/08/01，2025/08/02，2025/08/03，2025/08/12，2025/09/03，2025/09/11，2025/09/18，2025/09/26，2025/10/03，2025/10/09，2025/10/20，2025/11/12，2025/12/7，2025/12/23，2026/1/5，2026/1/21，2026/1/29，2026/2/9</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -5263,7 +5271,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -6623,7 +6631,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2025/03/21，2025/05/19，2025/06/13，2025/07/22，2025/07/23，2025/08/25，2025/09/12，2025/10/26，2025/12/17</t>
+          <t>2025/03/21，2025/05/19，2025/06/13，2025/07/22，2025/07/23，2025/08/25，2025/09/12，2025/10/26，2025/12/17，2026/2/9</t>
         </is>
       </c>
       <c r="F166" t="inlineStr"/>
@@ -6634,10 +6642,14 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>BV13AXCYLEaV</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7366,7 +7378,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>2025/03/23，2025/03/28，2025/04/06，2025/05/15，2025/05/22，2025/05/29，2025/06/07，2025/06/09，2025/07/06，2025/07/15，2025/09/06，2025/09/14，2025/09/30，2025/11/13，2026/1/29</t>
+          <t>2025/03/23，2025/03/28，2025/04/06，2025/05/15，2025/05/22，2025/05/29，2025/06/07，2025/06/09，2025/07/06，2025/07/15，2025/09/06，2025/09/14，2025/09/30，2025/11/13，2026/1/29，2026/2/9</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
@@ -7377,7 +7389,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -9020,7 +9032,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>2025/03/29，2025/05/29，2025/06/17，2025/07/24，2025/08/16，2025/09/21，2025/10/30</t>
+          <t>2025/03/29，2025/05/29，2025/06/17，2025/07/24，2025/08/16，2025/09/21，2025/10/30，2026/2/9</t>
         </is>
       </c>
       <c r="F233" t="inlineStr"/>
@@ -9031,10 +9043,14 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I233" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>BV18bWAzeEFa</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -9168,7 +9184,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>2025/03/29，2025/08/22，2025/09/21，2025/10/20，2025/12/2</t>
+          <t>2025/03/29，2025/08/22，2025/09/21，2025/10/20，2025/12/2，2026/2/9</t>
         </is>
       </c>
       <c r="F237" t="inlineStr"/>
@@ -9179,10 +9195,14 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I237" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>BV1WFWAzWEug</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -9207,7 +9227,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>2025/03/29，2025/08/12，2025/10/20，2025/11/14，2025/12/2，2026/1/10</t>
+          <t>2025/03/29，2025/08/12，2025/10/20，2025/11/14，2025/12/2，2026/1/10，2026/2/9</t>
         </is>
       </c>
       <c r="F238" t="inlineStr"/>
@@ -9218,10 +9238,14 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I238" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>BV1KVWmzpEhZ</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -9382,7 +9406,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>2025/03/30，2025/04/24，2025/05/15，2025/05/29，2025/09/21，2025/09/27，2025/10/24，2026/1/5</t>
+          <t>2025/03/30，2025/04/24，2025/05/15，2025/05/29，2025/09/21，2025/09/27，2025/10/24，2026/1/5，2026/2/9</t>
         </is>
       </c>
       <c r="F243" t="inlineStr"/>
@@ -9393,10 +9417,14 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I243" t="inlineStr"/>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>BV1a7E1zVEhr</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -9958,7 +9986,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>2025/04/01，2025/10/17，2025/10/22，2025/10/25，2025/11/21，2025/12/11，2026/1/2，2026/1/5，2026/2/2</t>
+          <t>2025/04/01，2025/10/17，2025/10/22，2025/10/25，2025/11/21，2025/12/11，2026/1/2，2026/1/5，2026/2/2，2026/2/9</t>
         </is>
       </c>
       <c r="F259" t="inlineStr"/>
@@ -9969,7 +9997,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -17593,7 +17621,7 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>2025/05/27，2025/05/29，2025/05/30，2025/05/31，2025/06/02，2025/06/03，2025/06/06，2025/06/08，2025/06/13，2025/06/13，2025/06/26，2025/07/03，2025/07/11，2025/07/22，2025/08/21，2025/09/10，2025/09/26，2025/10/03，2025/10/11，2025/10/26，2025/11/7，2025/12/7，2025/12/23，2026/1/9，2026/1/24</t>
+          <t>2025/05/27，2025/05/29，2025/05/30，2025/05/31，2025/06/02，2025/06/03，2025/06/06，2025/06/08，2025/06/13，2025/06/13，2025/06/26，2025/07/03，2025/07/11，2025/07/22，2025/08/21，2025/09/10，2025/09/26，2025/10/03，2025/10/11，2025/10/26，2025/11/7，2025/12/7，2025/12/23，2026/1/9，2026/1/24，2026/2/9</t>
         </is>
       </c>
       <c r="F472" t="inlineStr"/>
@@ -17604,7 +17632,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -20297,10 +20325,14 @@
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>2025/06/27，2025/09/08，2025/10/13，2025/10/16，2026/1/24</t>
-        </is>
-      </c>
-      <c r="F548" t="inlineStr"/>
+          <t>2025/06/27，2025/09/08，2025/10/13，2025/10/16，2026/1/24，2026/2/9</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>点歌大概率不唱</t>
+        </is>
+      </c>
       <c r="G548" t="inlineStr">
         <is>
           <t>华语</t>
@@ -20308,7 +20340,7 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I548" t="inlineStr">
@@ -22499,7 +22531,7 @@
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>2025/08/02，2025/10/12，2025/12/4，2026/1/9</t>
+          <t>2025/08/02，2025/10/12，2025/12/4，2026/1/9，2026/2/9</t>
         </is>
       </c>
       <c r="F610" t="inlineStr"/>
@@ -22510,10 +22542,14 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I610" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>BV1BV2LBXEVh</t>
+        </is>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -25690,7 +25726,7 @@
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>2025/10/17，2025/10/24，2025/10/30，2025/11/14，2025/11/28，2025/12/12，2025/12/26，2026/1/29</t>
+          <t>2025/10/17，2025/10/24，2025/10/30，2025/11/14，2025/11/28，2025/12/12，2025/12/26，2026/1/29，2026/2/9</t>
         </is>
       </c>
       <c r="F699" t="inlineStr"/>
@@ -25701,7 +25737,7 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I699" t="inlineStr"/>
@@ -26869,7 +26905,7 @@
       </c>
       <c r="E732" t="inlineStr">
         <is>
-          <t>2025/11/12，2025/11/14，2025/11/24，2025/12/6，2025/12/12，2025/12/26，2026/1/5，2026/1/30</t>
+          <t>2025/11/12，2025/11/14，2025/11/24，2025/12/6，2025/12/12，2025/12/26，2026/1/5，2026/1/30，2026/2/9</t>
         </is>
       </c>
       <c r="F732" t="inlineStr"/>
@@ -26880,7 +26916,7 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
@@ -27795,7 +27831,7 @@
       </c>
       <c r="E758" t="inlineStr">
         <is>
-          <t>2025/12/11，2025/12/12，2025/12/17，2026/1/2，2026/1/5，2026/1/11，2026/1/17，2026/1/29</t>
+          <t>2025/12/11，2025/12/12，2025/12/17，2026/1/2，2026/1/5，2026/1/11，2026/1/17，2026/1/29，2026/2/9</t>
         </is>
       </c>
       <c r="F758" t="inlineStr"/>
@@ -27806,7 +27842,7 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
@@ -28192,7 +28228,7 @@
       </c>
       <c r="E769" t="inlineStr">
         <is>
-          <t>2025/12/19，2025/12/23，2025/12/26，2026/1/2，2026/1/5，2026/1/11，2026/1/25</t>
+          <t>2025/12/19，2025/12/23，2025/12/26，2026/1/2，2026/1/5，2026/1/11，2026/1/25，2026/2/9</t>
         </is>
       </c>
       <c r="F769" t="inlineStr"/>
@@ -28203,7 +28239,7 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
@@ -28309,7 +28345,7 @@
       </c>
       <c r="E772" t="inlineStr">
         <is>
-          <t>2025/12/26，2026/1/19</t>
+          <t>2025/12/26，2026/1/19，2026/2/9</t>
         </is>
       </c>
       <c r="F772" t="inlineStr"/>
@@ -28320,10 +28356,14 @@
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I772" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I772" t="inlineStr">
+        <is>
+          <t>BV1VUcuzvEaU</t>
+        </is>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
@@ -28453,7 +28493,7 @@
       </c>
       <c r="E776" t="inlineStr">
         <is>
-          <t>2025/12/27，2026/1/5，2026/1/6，2026/1/14，2026/1/23</t>
+          <t>2025/12/27，2026/1/5，2026/1/6，2026/1/14，2026/1/23，2026/2/9</t>
         </is>
       </c>
       <c r="F776" t="inlineStr"/>
@@ -28464,7 +28504,7 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
@@ -28675,7 +28715,7 @@
       </c>
       <c r="E782" t="inlineStr">
         <is>
-          <t>2026/1/23，2026/1/25，2026/2/5</t>
+          <t>2026/1/23，2026/1/25，2026/2/5，2026/2/9</t>
         </is>
       </c>
       <c r="F782" t="inlineStr"/>
@@ -28686,7 +28726,7 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I782" t="inlineStr"/>
@@ -28998,7 +29038,7 @@
       </c>
       <c r="E791" t="inlineStr">
         <is>
-          <t>2026/2/2，2026/2/5</t>
+          <t>2026/2/2，2026/2/5，2026/2/9</t>
         </is>
       </c>
       <c r="F791" t="inlineStr"/>
@@ -29009,7 +29049,7 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
@@ -29113,7 +29153,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="I794" t="inlineStr"/>
+      <c r="I794" t="inlineStr">
+        <is>
+          <t>BV1U9cTzpEjm</t>
+        </is>
+      </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr"/>
@@ -29130,7 +29174,7 @@
       </c>
       <c r="E795" t="inlineStr">
         <is>
-          <t>2026/2/8</t>
+          <t>2026/2/8，2026/2/9</t>
         </is>
       </c>
       <c r="F795" t="inlineStr"/>
@@ -29141,7 +29185,7 @@
       </c>
       <c r="H795" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I795" t="inlineStr">
@@ -29165,7 +29209,7 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>2026/2/8</t>
+          <t>2026/2/8，2026/2/9</t>
         </is>
       </c>
       <c r="F796" t="inlineStr"/>
@@ -29176,10 +29220,45 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I796" t="inlineStr">
+        <is>
+          <t>BV1W4cuzSE8Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr"/>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>刻在我心底的名字</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr"/>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>卢广仲</t>
+        </is>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>2026/2/9</t>
+        </is>
+      </c>
+      <c r="F797" t="inlineStr"/>
+      <c r="G797" t="inlineStr">
+        <is>
+          <t>华语</t>
+        </is>
+      </c>
+      <c r="H797" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I796" t="inlineStr"/>
+      <c r="I797" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025/03/02，2025/03/25，2025/03/28，2025/04/17，2025/05/03，2025/05/09，2025/05/16，2025/05/30，2025/06/14，2025/06/19，2025/07/05，2025/07/18，2025/08/21，2025/08/25，2025/09/05，2025/09/22，2025/09/26，2026/1/19，2026/1/21，2026/2/9</t>
+          <t>2025/03/02，2025/03/25，2025/03/28，2025/04/17，2025/05/03，2025/05/09，2025/05/16，2025/05/30，2025/06/14，2025/06/19，2025/07/05，2025/07/18，2025/08/21，2025/08/25，2025/09/05，2025/09/22，2025/09/26，2026/1/19，2026/1/21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -631,7 +631,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025/03/06，2025/03/28，2025/04/19，2025/04/24，2025/05/03，2025/05/15，2025/05/16，2025/05/22，2025/05/30，2025/06/14，2025/06/19，2025/06/26，2025/07/18，2025/08/04，2025/09/10，2025/09/18，2025/10/03，2026/2/7</t>
+          <t>2025/03/06，2025/03/28，2025/04/19，2025/04/24，2025/05/03，2025/05/15，2025/05/16，2025/05/22，2025/05/30，2025/06/14，2025/06/19，2025/06/26，2025/07/18，2025/08/04，2025/09/10，2025/09/18，2025/10/03，2026/2/7，2026/2/9</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -22362,7 +22362,7 @@
       <c r="F605" t="inlineStr"/>
       <c r="G605" t="inlineStr">
         <is>
-          <t>粤语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H605" t="inlineStr">

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -538,7 +538,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025/03/01，2025/03/15，2025/04/01，2025/04/15，2025/04/26，2025/05/09，2025/05/30，2025/06/08，2025/07/05，2025/07/11，2025/08/13，2025/09/17，2025/09/02，2025/09/07，2025/09/19，2025/10/01，2025/10/09，2025/10/16，2025/10/24，2025/10/30，2025/11/9，2025/11/14，2025/12/24，2025/12/26，2026/1/16，2026/1/24，2026/1/28，2026/1/30</t>
+          <t>2025/03/01，2025/03/15，2025/04/01，2025/04/15，2025/04/26，2025/05/09，2025/05/30，2025/06/08，2025/07/05，2025/07/11，2025/08/13，2025/09/17，2025/09/02，2025/09/07，2025/09/19，2025/10/01，2025/10/09，2025/10/16，2025/10/24，2025/10/30，2025/11/9，2025/11/14，2025/12/24，2025/12/26，2026/1/16，2026/1/24，2026/1/28，2026/1/30，2026/2/10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -549,7 +549,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025/03/03，2025/03/21，2025/04/17，2025/04/21，2025/05/12，2025/05/26，2025/05/30，2025/06/26，2025/07/07，2025/07/13，2025/07/26，2025/08/12，2025/08/22，2025/09/19，2025/10/03，2025/10/28，2025/11/9，2025/11/19，2025/12/16，2026/1/16，2026/1/28，2026/2/7</t>
+          <t>2025/03/03，2025/03/21，2025/04/17，2025/04/21，2025/05/12，2025/05/26，2025/05/30，2025/06/26，2025/07/07，2025/07/13，2025/07/26，2025/08/12，2025/08/22，2025/09/19，2025/10/03，2025/10/28，2025/11/9，2025/11/19，2025/12/16，2026/1/16，2026/1/28，2026/2/7，2026/2/10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -752,7 +752,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025/03/04，2025/03/19，2025/04/14，2025/04/22，2025/05/01，2025/05/13，2025/05/19，2025/05/27，2025/06/03，2025/06/12，2025/06/19，2025/06/27，2025/07/08，2025/07/14，2025/07/18，2025/07/20，2025/08/02，2025/08/08，2025/08/12，2025/09/02，2025/09/18，2025/10/01，2025/10/03，2025/10/11，2025/10/24，2025/11/13，2025/11/14，2025/11/28，2025/12/7，2025/12/17，2026/1/19，2026/1/29</t>
+          <t>2025/03/04，2025/03/19，2025/04/14，2025/04/22，2025/05/01，2025/05/13，2025/05/19，2025/05/27，2025/06/03，2025/06/12，2025/06/19，2025/06/27，2025/07/08，2025/07/14，2025/07/18，2025/07/20，2025/08/02，2025/08/08，2025/08/12，2025/09/02，2025/09/18，2025/10/01，2025/10/03，2025/10/11，2025/10/24，2025/11/13，2025/11/14，2025/11/28，2025/12/7，2025/12/17，2026/1/19，2026/1/29，2026/2/10</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -990,7 +990,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025/03/04，2025/03/25，2025/04/29，2025/05/13，2025/05/22，2025/05/26，2025/05/30，2025/06/08，2025/06/13，2025/06/20，2025/07/05，2025/07/14，2025/07/20，2025/08/01，2025/08/30，2025/09/12，2025/09/17，2025/09/02，2025/09/22，2025/09/24，2025/10/03，2025/10/12，2025/11/14，2025/11/21，2025/11/28，2025/12/17，2026/1/10，2026/1/22</t>
+          <t>2025/03/04，2025/03/25，2025/04/29，2025/05/13，2025/05/22，2025/05/26，2025/05/30，2025/06/08，2025/06/13，2025/06/20，2025/07/05，2025/07/14，2025/07/20，2025/08/01，2025/08/30，2025/09/12，2025/09/17，2025/09/02，2025/09/22，2025/09/24，2025/10/03，2025/10/12，2025/11/14，2025/11/21，2025/11/28，2025/12/17，2026/1/10，2026/1/22，2026/2/10</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025/03/07，2025/04/04，2025/04/12，2025/04/18，2025/04/24，2025/06/17，2025/06/19，2025/07/11，2025/07/18，2025/08/28，2025/09/05，2025/09/08，2025/09/27，2025/10/03，2025/12/11，2025/12/30，2026/1/21，2026/1/25</t>
+          <t>2025/03/07，2025/04/04，2025/04/12，2025/04/18，2025/04/24，2025/06/17，2025/06/19，2025/07/11，2025/07/18，2025/08/28，2025/09/05，2025/09/08，2025/09/27，2025/10/03，2025/12/11，2025/12/30，2026/1/21，2026/1/25，2026/2/10</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025/03/07，2025/03/21，2025/04/04，2025/04/18，2025/04/29，2025/05/08，2025/05/22，2025/05/25，2025/06/06，2025/06/08，2025/06/13，2025/06/13，2025/06/26，2025/07/03，2025/07/05，2025/07/11，2025/07/14，2025/07/26，2025/08/02，2025/08/12，2025/08/21，2025/09/17，2025/11/9，2025/12/4，2025/12/16，2025/12/31，2026/1/9，2026/1/15，2026/1/21，2026/1/23，2026/1/29，2026/2/2，2026/2/7</t>
+          <t>2025/03/07，2025/03/21，2025/04/04，2025/04/18，2025/04/29，2025/05/08，2025/05/22，2025/05/25，2025/06/06，2025/06/08，2025/06/13，2025/06/13，2025/06/26，2025/07/03，2025/07/05，2025/07/11，2025/07/14，2025/07/26，2025/08/02，2025/08/12，2025/08/21，2025/09/17，2025/11/9，2025/12/4，2025/12/16，2025/12/31，2026/1/9，2026/1/15，2026/1/21，2026/1/23，2026/1/29，2026/2/2，2026/2/7，2026/2/10</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2025/03/13，2025/03/14，2025/03/29，2025/04/19，2025/04/26，2025/05/09，2025/05/19，2025/05/22，2025/05/25，2025/07/03，2025/07/05，2025/07/28，2025/08/04，2025/08/21，2025/09/30，2025/11/14，2025/11/17</t>
+          <t>2025/03/13，2025/03/14，2025/03/29，2025/04/19，2025/04/26，2025/05/09，2025/05/19，2025/05/22，2025/05/25，2025/07/03，2025/07/05，2025/07/28，2025/08/04，2025/08/21，2025/09/30，2025/11/14，2025/11/17，2026/2/10</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -4119,10 +4119,14 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr"/>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>BV1zdrTBpETM</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5891,7 +5895,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2025/03/19，2025/04/07，2025/04/17，2025/04/22，2025/05/22，2025/06/23，2025/07/09，2025/08/26，2025/09/28，2025/11/21，2025/12/4，2026/1/3</t>
+          <t>2025/03/19，2025/04/07，2025/04/17，2025/04/22，2025/05/22，2025/06/23，2025/07/09，2025/08/26，2025/09/28，2025/11/21，2025/12/4，2026/1/3，2026/2/10</t>
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
@@ -5902,7 +5906,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -6269,7 +6273,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>2025/03/20，2025/04/04，2025/05/03，2025/05/22，2025/06/05，2025/07/25，2025/08/26，2025/08/16，2025/09/21，2025/10/03，2025/11/12，2026/1/23，2026/1/26，2026/2/7</t>
+          <t>2025/03/20，2025/04/04，2025/05/03，2025/05/22，2025/06/05，2025/07/25，2025/08/26，2025/08/16，2025/09/21，2025/10/03，2025/11/12，2026/1/23，2026/1/26，2026/2/7，2026/2/10</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
@@ -6280,7 +6284,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -11881,7 +11885,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>2025/04/08，2025/04/13，2025/04/22，2025/05/01，2025/05/22，2025/06/08，2025/06/29，2025/08/30，2025/09/15，2025/10/10，2025/11/9，2025/12/5，2025/12/19，2025/12/26，2026/1/10，2026/1/19</t>
+          <t>2025/04/08，2025/04/13，2025/04/22，2025/05/01，2025/05/22，2025/06/08，2025/06/29，2025/08/30，2025/09/15，2025/10/10，2025/11/9，2025/12/5，2025/12/19，2025/12/26，2026/1/10，2026/1/19，2026/2/10</t>
         </is>
       </c>
       <c r="F312" t="inlineStr"/>
@@ -11892,7 +11896,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -12235,7 +12239,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>2025/04/11，2025/05/25，2025/05/29，2025/06/28，2025/07/03，2025/08/13，2025/08/25，2025/09/12，2025/09/11，2025/09/28，2025/10/11，2025/10/30，2025/11/21，2026/1/29</t>
+          <t>2025/04/11，2025/05/25，2025/05/29，2025/06/28，2025/07/03，2025/08/13，2025/08/25，2025/09/12，2025/09/11，2025/09/28，2025/10/11，2025/10/30，2025/11/21，2026/1/29，2026/2/10</t>
         </is>
       </c>
       <c r="F322" t="inlineStr"/>
@@ -12246,7 +12250,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -13753,7 +13757,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>2025/04/18，2025/05/18，2025/06/19，2025/07/15，2025/08/01，2025/09/17，2025/10/28，2025/11/13，2025/11/14</t>
+          <t>2025/04/18，2025/05/18，2025/06/19，2025/07/15，2025/08/01，2025/09/17，2025/10/28，2025/11/13，2025/11/14，2026/2/10</t>
         </is>
       </c>
       <c r="F364" t="inlineStr"/>
@@ -13764,10 +13768,14 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I364" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>BV1UgF9zLEPz</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -16512,7 +16520,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>2025/05/17，2025/05/31，2025/06/15，2025/07/23，2025/09/11，2026/1/1</t>
+          <t>2025/05/17，2025/05/31，2025/06/15，2025/07/23，2025/09/11，2026/1/1，2026/2/10</t>
         </is>
       </c>
       <c r="F441" t="inlineStr"/>
@@ -16523,10 +16531,14 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I441" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>BV1J67NzGEDg</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -18796,7 +18808,7 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>2025/06/03，2025/09/20，2025/09/21，2025/09/24，2025/09/29，2025/10/10</t>
+          <t>2025/06/03，2025/09/20，2025/09/21，2025/09/24，2025/09/29，2025/10/10，2026/2/10</t>
         </is>
       </c>
       <c r="F505" t="inlineStr"/>
@@ -18807,10 +18819,14 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I505" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>BV18bJdzzEvN</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -19858,7 +19874,7 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>2025/06/20，2025/06/23，2025/09/29，2026/1/9</t>
+          <t>2025/06/20，2025/06/23，2025/09/29，2026/1/9，2026/2/10</t>
         </is>
       </c>
       <c r="F535" t="inlineStr"/>
@@ -19869,10 +19885,14 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I535" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I535" t="inlineStr">
+        <is>
+          <t>BV1523azhEv6</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -21784,7 +21804,7 @@
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>2025/07/15，2026/1/5，2026/1/10，2026/1/25</t>
+          <t>2025/07/15，2026/1/5，2026/1/10，2026/1/25，2026/2/10</t>
         </is>
       </c>
       <c r="F589" t="inlineStr"/>
@@ -21795,10 +21815,14 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I589" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>BV1yM6UBkE2q</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -24364,7 +24388,7 @@
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>2025/09/21，2025/09/21，2025/09/22，2025/09/22，2025/09/24，2025/09/27，2025/09/29，2025/10/03，2025/10/05，2025/10/09，2025/10/18，2025/10/22，2025/10/26，2025/11/9，2025/11/19，2025/11/22，2025/11/28，2025/12/22，2026/1/5，2026/1/14，2026/1/22，2026/2/7</t>
+          <t>2025/09/21，2025/09/21，2025/09/22，2025/09/22，2025/09/24，2025/09/27，2025/09/29，2025/10/03，2025/10/05，2025/10/09，2025/10/18，2025/10/22，2025/10/26，2025/11/9，2025/11/19，2025/11/22，2025/11/28，2025/12/22，2026/1/5，2026/1/14，2026/1/22，2026/2/7，2026/2/10</t>
         </is>
       </c>
       <c r="F661" t="inlineStr"/>
@@ -24375,7 +24399,7 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
@@ -26434,7 +26458,7 @@
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>2025/10/28，2025/11/12，2025/12/19，2026/2/8</t>
+          <t>2025/10/28，2025/11/12，2025/12/19，2026/2/8，2026/2/10</t>
         </is>
       </c>
       <c r="F719" t="inlineStr"/>
@@ -26445,7 +26469,7 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I719" t="inlineStr">
@@ -27792,7 +27816,7 @@
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>2025/12/9，2025/12/17，2026/1/14，2026/1/23，2026/2/5</t>
+          <t>2025/12/9，2025/12/17，2026/1/14，2026/1/23，2026/2/5，2026/2/10</t>
         </is>
       </c>
       <c r="F757" t="inlineStr"/>
@@ -27803,7 +27827,7 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I757" t="inlineStr">
@@ -28384,7 +28408,7 @@
       </c>
       <c r="E773" t="inlineStr">
         <is>
-          <t>2025/12/26，2026/1/10，2026/1/22，2026/1/23，2026/1/31</t>
+          <t>2025/12/26，2026/1/10，2026/1/22，2026/1/23，2026/1/31，2026/2/10</t>
         </is>
       </c>
       <c r="F773" t="inlineStr"/>
@@ -28395,7 +28419,7 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
@@ -28785,7 +28809,7 @@
       </c>
       <c r="E784" t="inlineStr">
         <is>
-          <t>2026/1/24，2026/1/25，2026/1/26，2026/2/2，2026/2/7</t>
+          <t>2026/1/24，2026/1/25，2026/1/26，2026/2/2，2026/2/7，2026/2/10</t>
         </is>
       </c>
       <c r="F784" t="inlineStr"/>
@@ -28796,7 +28820,7 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
@@ -28902,7 +28926,7 @@
       </c>
       <c r="E787" t="inlineStr">
         <is>
-          <t>2026/1/25</t>
+          <t>2026/1/25，2026/2/10</t>
         </is>
       </c>
       <c r="F787" t="inlineStr"/>
@@ -28913,7 +28937,7 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I787" t="inlineStr"/>

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I797"/>
+  <dimension ref="A1:I798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,7 +659,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025/03/02，2025/03/29，2025/04/11，2025/04/17，2025/04/26，2025/05/04，2025/05/09，2025/05/17，2025/05/24，2025/06/02，2025/06/20，2025/06/27，2025/07/11，2025/07/21，2025/07/26，2025/08/08，2025/08/29，2025/09/02，2025/10/03，2025/10/09，2025/10/22，2025/11/9，2025/12/11，2026/1/15</t>
+          <t>2025/03/02，2025/03/29，2025/04/11，2025/04/17，2025/04/26，2025/05/04，2025/05/09，2025/05/17，2025/05/24，2025/06/02，2025/06/20，2025/06/27，2025/07/11，2025/07/21，2025/07/26，2025/08/08，2025/08/29，2025/09/02，2025/10/03，2025/10/09，2025/10/22，2025/11/9，2025/12/11，2026/1/15，2026/2/12</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -670,7 +670,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025/03/04，2025/03/19，2025/04/14，2025/04/22，2025/05/01，2025/05/13，2025/05/19，2025/05/27，2025/06/03，2025/06/12，2025/06/19，2025/06/27，2025/07/08，2025/07/14，2025/07/18，2025/07/20，2025/08/02，2025/08/08，2025/08/12，2025/09/02，2025/09/18，2025/10/01，2025/10/03，2025/10/11，2025/10/24，2025/11/13，2025/11/14，2025/11/28，2025/12/7，2025/12/17，2026/1/19，2026/1/29，2026/2/10</t>
+          <t>2025/03/04，2025/03/19，2025/04/14，2025/04/22，2025/05/01，2025/05/13，2025/05/19，2025/05/27，2025/06/03，2025/06/12，2025/06/19，2025/06/27，2025/07/08，2025/07/14，2025/07/18，2025/07/20，2025/08/02，2025/08/08，2025/08/12，2025/09/02，2025/09/18，2025/10/01，2025/10/03，2025/10/11，2025/10/24，2025/11/13，2025/11/14，2025/11/28，2025/12/7，2025/12/17，2026/1/19，2026/1/29，2026/2/10，2026/2/12</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -990,7 +990,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025/03/04，2025/04/02，2025/04/17，2025/04/29，2025/05/12，2025/05/27，2025/06/10，2025/07/05，2025/08/10，2025/08/28，2025/09/05，2025/09/18，2025/11/12，2025/11/28，2026/1/9</t>
+          <t>2025/03/04，2025/04/02，2025/04/17，2025/04/29，2025/05/12，2025/05/27，2025/06/10，2025/07/05，2025/08/10，2025/08/28，2025/09/05，2025/09/18，2025/11/12，2025/11/28，2026/1/9，2026/2/12</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025/03/06，2025/04/03，2025/04/14，2025/05/05，2025/05/15，2025/05/29，2025/06/20，2025/06/27，2025/08/07，2025/08/24，2025/09/17，2025/10/16，2025/11/10，2025/12/9，2025/12/17，2026/1/21</t>
+          <t>2025/03/06，2025/04/03，2025/04/14，2025/05/05，2025/05/15，2025/05/29，2025/06/20，2025/06/27，2025/08/07，2025/08/24，2025/09/17，2025/10/16，2025/11/10，2025/12/9，2025/12/17，2026/1/21，2026/2/12</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2140,10 +2140,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>BV15u75zsEE6</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3033,7 +3037,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025/03/09，2025/03/24，2025/04/06，2025/04/21，2025/04/28，2025/05/08，2025/05/20，2025/06/08，2025/07/08，2025/07/28，2025/09/24，2025/09/30，2025/11/18，2025/12/24，2026/2/2</t>
+          <t>2025/03/09，2025/03/24，2025/04/06，2025/04/21，2025/04/28，2025/05/08，2025/05/20，2025/06/08，2025/07/08，2025/07/28，2025/09/24，2025/09/30，2025/11/18，2025/12/24，2026/2/2，2026/2/12</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -3044,7 +3048,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -9702,7 +9706,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>2025/04/01，2025/04/11，2025/04/18，2025/04/29，2025/05/08，2025/07/22，2025/07/29，2025/08/04，2025/08/21，2025/09/06，2025/10/09，2025/12/12</t>
+          <t>2025/04/01，2025/04/11，2025/04/18，2025/04/29，2025/05/08，2025/07/22，2025/07/29，2025/08/04，2025/08/21，2025/09/06，2025/10/09，2025/12/12，2026/2/12</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
@@ -9713,10 +9717,14 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I251" t="inlineStr"/>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>BV19G5TztEGW</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -12745,7 +12753,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>2025/04/13，2025/04/21，2025/04/22，2025/04/25，2025/04/26，2025/04/29，2025/05/08，2025/05/12，2025/05/22，2025/05/30，2025/06/06，2025/06/08，2025/06/28，2025/07/13，2025/08/12，2025/08/24，2025/09/07，2025/09/30，2025/10/05，2025/11/21，2025/12/17，2026/1/14，2026/1/23</t>
+          <t>2025/04/13，2025/04/21，2025/04/22，2025/04/25，2025/04/26，2025/04/29，2025/05/08，2025/05/12，2025/05/22，2025/05/30，2025/06/06，2025/06/08，2025/06/28，2025/07/13，2025/08/12，2025/08/24，2025/09/07，2025/09/30，2025/10/05，2025/11/21，2025/12/17，2026/1/14，2026/1/23，2026/2/12</t>
         </is>
       </c>
       <c r="F336" t="inlineStr"/>
@@ -12756,7 +12764,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -15283,7 +15291,7 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>2025/04/28，2025/05/06，2025/07/27，2025/09/17，2025/10/16，2025/11/9</t>
+          <t>2025/04/28，2025/05/06，2025/07/27，2025/09/17，2025/10/16，2025/11/9，2026/2/12</t>
         </is>
       </c>
       <c r="F406" t="inlineStr"/>
@@ -15294,10 +15302,14 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I406" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>BV1BMcBzsEnM</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -19026,7 +19038,7 @@
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>2025/06/09，2025/08/26，2025/09/17，2025/10/11</t>
+          <t>2025/06/09，2025/08/26，2025/09/17，2025/10/11，2026/2/12</t>
         </is>
       </c>
       <c r="F511" t="inlineStr"/>
@@ -19037,10 +19049,14 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I511" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I511" t="inlineStr">
+        <is>
+          <t>BV1EMcBzxEwJ</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -20131,7 +20147,7 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>2025/06/23，2025/12/4，2025/12/5</t>
+          <t>2025/06/23，2025/12/4，2025/12/5，2026/2/12</t>
         </is>
       </c>
       <c r="F542" t="inlineStr"/>
@@ -20142,10 +20158,14 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I542" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I542" t="inlineStr">
+        <is>
+          <t>BV1d52iBrEwq</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -20987,7 +21007,7 @@
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>2025/07/03，2025/07/07，2025/07/26，2025/08/28，2025/09/14，2025/10/11，2025/11/26，2025/12/9，2026/1/9，2026/1/23</t>
+          <t>2025/07/03，2025/07/07，2025/07/26，2025/08/28，2025/09/14，2025/10/11，2025/11/26，2025/12/9，2026/1/9，2026/1/23，2026/2/12</t>
         </is>
       </c>
       <c r="F566" t="inlineStr"/>
@@ -20998,7 +21018,7 @@
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
@@ -21485,7 +21505,7 @@
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>2025/07/11，2025/09/30，2025/10/31，2025/12/4，2026/1/23</t>
+          <t>2025/07/11，2025/09/30，2025/10/31，2025/12/4，2026/1/23，2026/2/12</t>
         </is>
       </c>
       <c r="F580" t="inlineStr"/>
@@ -21496,10 +21516,14 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I580" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I580" t="inlineStr">
+        <is>
+          <t>BV16AcBzZE4S</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -22415,7 +22439,7 @@
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>2025/07/31，2025/08/01，2025/08/04，2025/08/09，2025/08/13，2025/08/21，2025/08/29，2025/09/10，2025/09/30，2025/10/30，2025/11/14，2025/12/24，2026/1/19</t>
+          <t>2025/07/31，2025/08/01，2025/08/04，2025/08/09，2025/08/13，2025/08/21，2025/08/29，2025/09/10，2025/09/30，2025/10/30，2025/11/14，2025/12/24，2026/1/19，2026/2/12</t>
         </is>
       </c>
       <c r="F606" t="inlineStr"/>
@@ -22426,10 +22450,14 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="I606" t="inlineStr"/>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>BV1kfcqzhEv6</t>
+        </is>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -24209,7 +24237,7 @@
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>2025/09/19，2025/09/26，2025/10/16，2025/11/26</t>
+          <t>2025/09/19，2025/09/26，2025/10/16，2025/11/26，2026/2/12</t>
         </is>
       </c>
       <c r="F656" t="inlineStr"/>
@@ -24220,10 +24248,14 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I656" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>BV1B4cqzWEhs</t>
+        </is>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -28940,7 +28972,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="I787" t="inlineStr"/>
+      <c r="I787" t="inlineStr">
+        <is>
+          <t>BV1Gnc4zmEjA</t>
+        </is>
+      </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
@@ -29233,7 +29269,7 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>2026/2/8，2026/2/9</t>
+          <t>2026/2/8，2026/2/9，2026/2/12</t>
         </is>
       </c>
       <c r="F796" t="inlineStr"/>
@@ -29244,7 +29280,7 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
@@ -29282,7 +29318,46 @@
           <t>1</t>
         </is>
       </c>
-      <c r="I797" t="inlineStr"/>
+      <c r="I797" t="inlineStr">
+        <is>
+          <t>BV1EkcszREeP</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr"/>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>词不达意</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr"/>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>林忆莲</t>
+        </is>
+      </c>
+      <c r="E798" t="inlineStr">
+        <is>
+          <t>2026/2/12</t>
+        </is>
+      </c>
+      <c r="F798" t="inlineStr"/>
+      <c r="G798" t="inlineStr">
+        <is>
+          <t>华语</t>
+        </is>
+      </c>
+      <c r="H798" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I798" t="inlineStr">
+        <is>
+          <t>BV1BNcBz4ECH</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I800"/>
+  <dimension ref="A1:I802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025/03/07，2025/04/04，2025/04/19，2025/06/02，2025/06/17，2025/06/23，2025/07/20，2025/09/24，2025/10/09</t>
+          <t>2025/03/07，2025/04/04，2025/04/19，2025/06/02，2025/06/17，2025/06/23，2025/07/20，2025/09/24，2025/10/09，2026/2/17</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -2390,10 +2390,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>BV1UtJ9zaEWY</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3602,7 +3606,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025/03/12，2025/03/21，2025/04/04，2025/05/03，2025/06/21，2025/09/30，2025/10/22</t>
+          <t>2025/03/12，2025/03/21，2025/04/04，2025/05/03，2025/06/21，2025/09/30，2025/10/22，2026/2/17</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -3616,7 +3620,11 @@
           <t>7</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>BV1JvZ1BuEc1</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -12669,7 +12677,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>2025/04/11，2025/06/02，2025/06/12，2025/09/27，2025/11/9，2025/12/19，2026/1/1</t>
+          <t>2025/04/11，2025/06/02，2025/06/12，2025/09/27，2025/11/9，2025/12/19，2026/1/1，2026/2/17</t>
         </is>
       </c>
       <c r="F332" t="inlineStr"/>
@@ -12680,10 +12688,14 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I332" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>BV1EvZ1BuEcQ</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -18297,7 +18309,7 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>2025/06/01，2025/11/9，2025/11/28</t>
+          <t>2025/06/01，2025/11/9，2025/11/28，2026/2/17</t>
         </is>
       </c>
       <c r="F488" t="inlineStr"/>
@@ -18308,10 +18320,14 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I488" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>BV1zYZ1B6EL6</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -22010,7 +22026,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Stronger Than You Response (ver. Frisk)</t>
+          <t>Stronger Than You(Frisk Parody)</t>
         </is>
       </c>
       <c r="C592" t="inlineStr"/>
@@ -22021,7 +22037,7 @@
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>2025/07/17，2025/09/06</t>
+          <t>2025/07/17，2025/09/06，2026/2/17</t>
         </is>
       </c>
       <c r="F592" t="inlineStr"/>
@@ -22032,7 +22048,7 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I592" t="inlineStr"/>
@@ -29516,6 +29532,72 @@
           <t>BV14GZEBgErZ</t>
         </is>
       </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr"/>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>发财发福中国年</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr"/>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>中国娃娃</t>
+        </is>
+      </c>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>2026/2/17</t>
+        </is>
+      </c>
+      <c r="F801" t="inlineStr"/>
+      <c r="G801" t="inlineStr">
+        <is>
+          <t>华语</t>
+        </is>
+      </c>
+      <c r="H801" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I801" t="inlineStr">
+        <is>
+          <t>BV1EYZ1B6ECT</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr"/>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>恭喜发财</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr"/>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>刘德华</t>
+        </is>
+      </c>
+      <c r="E802" t="inlineStr">
+        <is>
+          <t>2026/2/17</t>
+        </is>
+      </c>
+      <c r="F802" t="inlineStr"/>
+      <c r="G802" t="inlineStr">
+        <is>
+          <t>华语</t>
+        </is>
+      </c>
+      <c r="H802" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I802" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -3617,7 +3617,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -4966,7 +4966,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>爱你（徐俊雅）</t>
+          <t>爱你</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>爱你（王心凌）</t>
+          <t>爱你</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -8643,7 +8643,11 @@
           <t>10</t>
         </is>
       </c>
-      <c r="I220" t="inlineStr"/>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>BV1PzBrBHEmL</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -9223,7 +9227,11 @@
           <t>11</t>
         </is>
       </c>
-      <c r="I236" t="inlineStr"/>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>BV1XWWNzyE2d</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -10527,7 +10535,7 @@
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>粤语</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -10535,7 +10543,11 @@
           <t>9</t>
         </is>
       </c>
-      <c r="I272" t="inlineStr"/>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>BV1pNuUz2EEC</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -12921,7 +12933,11 @@
           <t>15</t>
         </is>
       </c>
-      <c r="I338" t="inlineStr"/>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>BV1YBKmzWEb2</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -13746,7 +13762,11 @@
           <t>3</t>
         </is>
       </c>
-      <c r="I361" t="inlineStr"/>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>BV17WKozREh8</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -14685,7 +14705,7 @@
       <c r="C387" t="inlineStr"/>
       <c r="D387" t="inlineStr">
         <is>
-          <t>By2</t>
+          <t>BY2</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -18154,13 +18174,13 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>从前有个魔仙堡</t>
+          <t>巴啦啦小魔仙</t>
         </is>
       </c>
       <c r="C484" t="inlineStr"/>
       <c r="D484" t="inlineStr">
         <is>
-          <t>挽萤</t>
+          <t>A2A</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
@@ -18518,7 +18538,7 @@
       <c r="C494" t="inlineStr"/>
       <c r="D494" t="inlineStr">
         <is>
-          <t>TG4</t>
+          <t>T.G.4</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
@@ -19066,7 +19086,7 @@
       <c r="F509" t="inlineStr"/>
       <c r="G509" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H509" t="inlineStr">
@@ -22946,7 +22966,7 @@
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H617" t="inlineStr">
@@ -24246,7 +24266,11 @@
           <t>7</t>
         </is>
       </c>
-      <c r="I653" t="inlineStr"/>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>BV1TzrrBAEq9</t>
+        </is>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
@@ -24361,7 +24385,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Virtual To Live</t>
+          <t>Virtual to LIVE</t>
         </is>
       </c>
       <c r="C657" t="inlineStr"/>
@@ -25268,7 +25292,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Need you now</t>
+          <t>Need You Now</t>
         </is>
       </c>
       <c r="C682" t="inlineStr"/>
@@ -25285,7 +25309,7 @@
       <c r="F682" t="inlineStr"/>
       <c r="G682" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H682" t="inlineStr">
@@ -25303,7 +25327,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Dream a little dream of me</t>
+          <t>Dream A Little Dream Of Me</t>
         </is>
       </c>
       <c r="C683" t="inlineStr"/>
@@ -25320,7 +25344,7 @@
       <c r="F683" t="inlineStr"/>
       <c r="G683" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H683" t="inlineStr">
@@ -25931,7 +25955,11 @@
           <t>9</t>
         </is>
       </c>
-      <c r="I700" t="inlineStr"/>
+      <c r="I700" t="inlineStr">
+        <is>
+          <t>BV1RxcYzqE8B</t>
+        </is>
+      </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
@@ -26507,7 +26535,7 @@
       <c r="C717" t="inlineStr"/>
       <c r="D717" t="inlineStr">
         <is>
-          <t>郑智化</t>
+          <t>卫兰</t>
         </is>
       </c>
       <c r="E717" t="inlineStr">
@@ -26518,7 +26546,7 @@
       <c r="F717" t="inlineStr"/>
       <c r="G717" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>粤语</t>
         </is>
       </c>
       <c r="H717" t="inlineStr">

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -3844,7 +3844,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025/03/13，2025/04/12，2025/05/19，2025/05/25，2025/07/05，2025/08/12，2025/09/03，2025/09/10，2025/11/14，2025/12/31</t>
+          <t>2025/03/13，2025/04/12，2025/05/19，2025/05/25，2025/07/05，2025/08/12，2025/09/03，2025/09/10，2025/11/14，2025/12/31，2026/2/18</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -3855,10 +3855,14 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr"/>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>BV1d33ozhE7x</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4027,7 +4031,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2025/03/13，2025/03/28，2025/04/11，2025/04/25，2025/05/15，2025/05/29，2025/06/20，2025/07/13，2025/09/19，2025/10/05，2025/10/23，2025/11/9，2026/1/23</t>
+          <t>2025/03/13，2025/03/28，2025/04/11，2025/04/25，2025/05/15，2025/05/29，2025/06/20，2025/07/13，2025/09/19，2025/10/05，2025/10/23，2025/11/9，2026/1/23，2026/2/18</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -4038,10 +4042,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr"/>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>BV14jZRBVEJU</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7076,7 +7084,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>2025/03/21，2025/05/09，2025/05/30，2025/07/22，2025/09/28，2025/11/18</t>
+          <t>2025/03/21，2025/05/09，2025/05/30，2025/07/22，2025/09/28，2025/11/18，2026/2/18</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
@@ -7087,10 +7095,14 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I177" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>BV1s3nfzkEye</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10529,7 +10541,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>2025/04/02，2025/04/03，2025/04/08，2025/05/26，2025/07/18，2025/08/16，2025/09/30，2025/11/26，2026/1/23</t>
+          <t>2025/04/02，2025/04/03，2025/04/08，2025/05/26，2025/07/18，2025/08/16，2025/09/30，2025/11/26，2026/1/23，2026/2/18</t>
         </is>
       </c>
       <c r="F272" t="inlineStr"/>
@@ -10540,7 +10552,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -13608,7 +13620,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>2025/04/17，2025/04/29，2025/05/22，2025/05/25，2025/05/31，2025/08/29，2025/09/20，2025/10/09，2025/10/30，2025/12/11</t>
+          <t>2025/04/17，2025/04/29，2025/05/22，2025/05/25，2025/05/31，2025/08/29，2025/09/20，2025/10/09，2025/10/30，2025/12/11，2026/2/18</t>
         </is>
       </c>
       <c r="F357" t="inlineStr"/>
@@ -13619,10 +13631,14 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I357" t="inlineStr"/>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>BV1c5hRznES3</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -16382,7 +16398,7 @@
       <c r="C434" t="inlineStr"/>
       <c r="D434" t="inlineStr">
         <is>
-          <t>LBl利比</t>
+          <t>LBI利比</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
@@ -20084,7 +20100,7 @@
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>2025/06/20，2025/06/21，2025/07/08，2025/07/13，2025/07/18，2025/07/28，2025/08/01，2025/08/03，2025/08/04，2025/08/16，2025/09/03，2025/09/13，2025/09/19，2025/10/23，2025/10/28，2025/11/10，2025/11/13，2025/11/18，2025/12/11，2025/12/16</t>
+          <t>2025/06/20，2025/06/21，2025/07/08，2025/07/13，2025/07/18，2025/07/28，2025/08/01，2025/08/03，2025/08/04，2025/08/16，2025/09/03，2025/09/13，2025/09/19，2025/10/23，2025/10/28，2025/11/10，2025/11/13，2025/11/18，2025/12/11，2025/12/16，2026/2/18</t>
         </is>
       </c>
       <c r="F537" t="inlineStr"/>
@@ -20095,7 +20111,7 @@
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
@@ -21863,7 +21879,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Where did u go</t>
+          <t>Where Did U Go</t>
         </is>
       </c>
       <c r="C587" t="inlineStr"/>
@@ -21874,7 +21890,7 @@
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>2025/07/14，2025/07/17，2025/07/18，2025/07/24，2025/07/28，2025/08/02，2025/08/03，2025/08/21，2025/09/05，2025/09/18，2025/09/30，2025/10/19，2025/11/3，2025/11/22，2026/1/5</t>
+          <t>2025/07/14，2025/07/17，2025/07/18，2025/07/24，2025/07/28，2025/08/02，2025/08/03，2025/08/21，2025/09/05，2025/09/18，2025/09/30，2025/10/19，2025/11/3，2025/11/22，2026/1/5，2026/2/18</t>
         </is>
       </c>
       <c r="F587" t="inlineStr"/>
@@ -21885,7 +21901,7 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
@@ -22960,7 +22976,7 @@
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>2025/08/12，2025/09/05，2025/09/05，2025/09/17，2025/09/24，2025/09/28，2025/10/01，2025/10/10，2025/10/17，2025/10/23，2025/11/26，2025/12/30，2026/1/10</t>
+          <t>2025/08/12，2025/09/05，2025/09/05，2025/09/17，2025/09/24，2025/09/28，2025/10/01，2025/10/10，2025/10/17，2025/10/23，2025/11/26，2025/12/30，2026/1/10，2026/2/18</t>
         </is>
       </c>
       <c r="F617" t="inlineStr"/>
@@ -22971,7 +22987,7 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
@@ -24867,7 +24883,7 @@
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>2025/09/24，2025/09/29，2025/10/13，2025/10/17，2025/10/19，2025/10/20，2025/10/25，2025/10/28，2025/11/7，2025/11/26，2025/12/6，2025/12/12，2025/12/24，2026/1/5，2026/1/19</t>
+          <t>2025/09/24，2025/09/29，2025/10/13，2025/10/17，2025/10/19，2025/10/20，2025/10/25，2025/10/28，2025/11/7，2025/11/26，2025/12/6，2025/12/12，2025/12/24，2026/1/5，2026/1/19，2026/2/18</t>
         </is>
       </c>
       <c r="F670" t="inlineStr"/>
@@ -24878,7 +24894,7 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I802"/>
+  <dimension ref="A1:I803"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,7 +577,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025/03/02，2025/03/29，2025/05/06，2025/05/30，2025/06/28，2025/09/04，2025/09/18，2025/11/7，2026/1/14，2026/1/24</t>
+          <t>2025/03/02，2025/03/29，2025/05/06，2025/05/30，2025/06/28，2025/09/04，2025/09/18，2025/11/7，2026/1/14，2026/1/24，2026/2/19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -588,7 +588,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025/03/04，2025/03/12，2025/03/17，2025/03/28，2025/04/07，2025/04/19，2025/04/26，2025/05/06，2025/05/16，2025/05/22，2025/05/30，2025/06/21，2025/07/06，2025/08/22，2025/09/06，2025/09/21，2025/10/23，2025/11/10，2025/11/13，2025/12/4，2026/1/24，2026/1/24</t>
+          <t>2025/03/04，2025/03/12，2025/03/17，2025/03/28，2025/04/07，2025/04/19，2025/04/26，2025/05/06，2025/05/16，2025/05/22，2025/05/30，2025/06/21，2025/07/06，2025/08/22，2025/09/06，2025/09/21，2025/10/23，2025/11/10，2025/11/13，2025/12/4，2026/1/24，2026/1/24，2026/2/19</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -951,7 +951,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025/03/04，2025/05/18，2025/07/26，2025/08/12</t>
+          <t>2025/03/04，2025/05/18，2025/07/26，2025/08/12，2025/11/28，2026/2/19</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -1996,10 +1996,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>BV15A9HYfEPQ</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2059,7 +2063,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025/03/06，2025/03/20，2025/04/02，2025/04/10，2025/04/19，2025/04/27，2025/05/13，2025/05/15，2025/05/18，2025/05/26，2025/06/06，2025/06/12，2025/06/21，2025/07/05，2025/07/10，2025/07/13，2025/07/27，2025/08/29，2025/09/13，2025/09/19，2025/09/28，2025/10/23，2025/10/28，2025/12/23，2026/1/14</t>
+          <t>2025/03/06，2025/03/20，2025/04/02，2025/04/10，2025/04/19，2025/04/27，2025/05/13，2025/05/15，2025/05/18，2025/05/26，2025/06/06，2025/06/12，2025/06/21，2025/07/05，2025/07/10，2025/07/13，2025/07/27，2025/08/29，2025/09/13，2025/09/19，2025/09/28，2025/10/23，2025/10/28，2025/12/23，2026/1/14，2026/2/19</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2070,10 +2074,14 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>BV14fsGzZESX</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2558,7 +2566,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025/03/07，2025/04/20，2025/04/25，2025/05/18，2025/05/26，2025/06/02，2025/06/27，2025/07/07，2025/08/03，2025/09/14，2025/09/17，2025/10/03，2025/10/07，2025/12/7，2025/12/16，2025/12/28，2026/1/10，2026/1/15</t>
+          <t>2025/03/07，2025/04/20，2025/04/25，2025/05/18，2025/05/26，2025/06/02，2025/06/27，2025/07/07，2025/08/03，2025/09/14，2025/09/17，2025/10/03，2025/10/07，2025/12/7，2025/12/16，2025/12/28，2026/1/10，2026/1/15，2026/2/19</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -2569,7 +2577,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2827,7 +2835,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025/03/07，2025/03/21，2025/04/04，2025/04/18，2025/04/29，2025/05/08，2025/05/22，2025/05/25，2025/06/06，2025/06/08，2025/06/13，2025/06/13，2025/06/26，2025/07/03，2025/07/05，2025/07/11，2025/07/14，2025/07/26，2025/08/02，2025/08/12，2025/08/21，2025/09/17，2025/11/9，2025/12/4，2025/12/16，2025/12/31，2026/1/9，2026/1/15，2026/1/21，2026/1/23，2026/1/29，2026/2/2，2026/2/7，2026/2/10，2026/2/14</t>
+          <t>2025/03/07，2025/03/21，2025/04/04，2025/04/18，2025/04/29，2025/05/08，2025/05/22，2025/05/25，2025/06/06，2025/06/08，2025/06/13，2025/06/13，2025/06/26，2025/07/03，2025/07/05，2025/07/11，2025/07/14，2025/07/26，2025/08/02，2025/08/12，2025/08/21，2025/09/17，2025/11/9，2025/12/4，2025/12/16，2025/12/31，2026/1/9，2026/1/15，2026/1/21，2026/1/23，2026/1/29，2026/2/2，2026/2/7，2026/2/10，2026/2/14，2026/2/19</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -2838,7 +2846,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -2905,7 +2913,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025/03/07，2025/04/11，2025/04/29，2025/08/01，2025/10/26</t>
+          <t>2025/03/07，2025/04/11，2025/04/29，2025/08/01，2025/10/26，2026/2/19</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -2916,10 +2924,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>BV12ksmzxE4b</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3131,7 +3143,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025/03/09，2025/04/06，2025/05/08，2025/05/24，2025/06/06，2025/07/05，2025/07/24，2025/08/04，2025/09/08，2025/09/19，2025/10/16，2025/10/28，2025/11/13，2025/12/16，2025/12/30</t>
+          <t>2025/03/09，2025/04/06，2025/05/08，2025/05/24，2025/06/06，2025/07/05，2025/07/24，2025/08/04，2025/09/08，2025/09/19，2025/10/16，2025/10/28，2025/11/13，2025/12/16，2025/12/30，2026/2/19</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -3142,10 +3154,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>BV1way6BfE6d</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3692,7 +3708,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025/03/12，2025/04/07，2025/04/18，2025/05/10，2025/05/15，2025/05/29，2025/06/03，2025/06/16，2025/07/08，2025/07/08，2025/08/01，2025/09/04，2025/09/28，2025/10/25，2025/10/28，2025/11/3，2025/12/2，2025/12/4，2025/12/12，2026/1/5，2026/1/14</t>
+          <t>2025/03/12，2025/04/07，2025/04/18，2025/05/10，2025/05/15，2025/05/29，2025/06/03，2025/06/16，2025/07/08，2025/07/08，2025/08/01，2025/09/04，2025/09/28，2025/10/25，2025/10/28，2025/11/3，2025/12/2，2025/12/4，2025/12/12，2026/1/5，2026/1/14，2026/2/19</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -3703,7 +3719,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4613,7 +4629,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>名为你的诗</t>
+          <t>All about you / 名为你的诗</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4623,7 +4639,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2025/03/14，2025/05/19，2025/07/21，2025/10/20</t>
+          <t>2025/03/14，2025/05/19，2025/07/21，2025/10/20，2026/1/14，2026/2/19</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
@@ -4634,10 +4650,14 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>BV1eqzWBXE55</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4771,7 +4791,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2025/03/14，2025/04/02，2025/05/10，2025/05/18，2025/05/23，2025/06/05，2025/06/08，2025/06/27，2025/09/03，2025/09/21，2025/10/30，2025/11/22，2025/12/9，2026/1/15</t>
+          <t>2025/03/14，2025/04/02，2025/05/10，2025/05/18，2025/05/23，2025/06/05，2025/06/08，2025/06/27，2025/09/03，2025/09/21，2025/10/30，2025/11/22，2025/12/9，2026/1/15，2026/2/19</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
@@ -4782,10 +4802,14 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr"/>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>BV1b1KmzUE9y</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5795,7 +5819,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2025/03/19，2025/07/07，2025/08/12，2025/08/26，2025/09/13，2025/09/17，2025/10/10，2025/11/21，2025/12/11，2026/1/2，2026/1/15，2026/1/28</t>
+          <t>2025/03/19，2025/07/07，2025/08/12，2025/08/26，2025/09/13，2025/09/17，2025/10/10，2025/11/21，2025/12/11，2026/1/2，2026/1/15，2026/1/28，2026/2/19</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
@@ -5806,7 +5830,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -6243,7 +6267,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2025/03/20，2025/04/04，2025/05/19，2025/06/08，2025/06/12，2025/07/13，2025/08/28，2025/09/26，2025/10/25，2025/11/19，2025/11/27，2026/1/22，2026/1/25</t>
+          <t>2025/03/20，2025/04/04，2025/05/19，2025/06/08，2025/06/12，2025/07/13，2025/08/28，2025/09/26，2025/10/25，2025/11/19，2025/11/27，2026/1/22，2026/1/25，2026/2/19</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
@@ -6254,7 +6278,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -7014,7 +7038,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>2025/03/21，2025/04/06，2025/04/18，2025/04/25，2025/05/27，2025/07/11，2025/07/24，2025/08/09，2025/09/15，2025/09/21，2025/10/11，2025/10/24，2025/11/3，2025/11/22，2026/1/22</t>
+          <t>2025/03/21，2025/04/06，2025/04/18，2025/04/25，2025/05/27，2025/07/11，2025/07/24，2025/08/09，2025/09/15，2025/09/21，2025/10/11，2025/10/24，2025/11/3，2025/11/22，2026/1/22，2026/2/19</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -7025,10 +7049,14 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr"/>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>BV1v84TzcEMv</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -8022,7 +8050,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>2025/03/25，2025/04/18，2025/06/02</t>
+          <t>2025/03/25，2025/04/18，2025/06/02，2026/2/19</t>
         </is>
       </c>
       <c r="F203" t="inlineStr"/>
@@ -8033,10 +8061,14 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I203" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>BV1oK5EzwExE</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -8275,7 +8307,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>2025/03/27，2025/04/03，2025/04/15，2025/04/28，2025/04/29，2025/05/12，2025/06/06，2025/06/16，2025/07/24，2025/08/01，2025/09/05，2025/09/26，2025/10/28，2025/12/5，2026/1/9</t>
+          <t>2025/03/27，2025/04/03，2025/04/15，2025/04/28，2025/04/29，2025/05/12，2025/06/06，2025/06/16，2025/07/24，2025/08/01，2025/09/05，2025/09/26，2025/10/28，2025/12/5，2026/1/9，2026/2/19</t>
         </is>
       </c>
       <c r="F210" t="inlineStr"/>
@@ -8286,10 +8318,14 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I210" t="inlineStr"/>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>BV1FCa8zEEue</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -8750,7 +8786,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>2025/03/28，2025/06/07，2025/06/13，2025/06/23，2025/07/20，2025/10/24，2025/11/9，2026/1/9</t>
+          <t>2025/03/28，2025/06/07，2025/06/13，2025/06/23，2025/07/20，2025/10/24，2025/11/9，2026/1/9，2026/2/19</t>
         </is>
       </c>
       <c r="F223" t="inlineStr"/>
@@ -8761,10 +8797,14 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I223" t="inlineStr"/>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>BV14HKhzcET9</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -10113,7 +10153,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>2025/04/01，2025/10/17，2025/10/22，2025/10/25，2025/11/21，2025/12/11，2026/1/2，2026/1/5，2026/2/2，2026/2/9</t>
+          <t>2025/04/01，2025/10/17，2025/10/22，2025/10/25，2025/11/21，2025/12/11，2026/1/2，2026/1/5，2026/2/2，2026/2/9，2026/2/19</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -10124,7 +10164,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -13546,7 +13586,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>2025/04/17，2025/05/01，2025/05/26，2025/07/03，2025/07/27，2025/09/18，2025/10/17，2025/11/21，2026/1/12，2026/1/24</t>
+          <t>2025/04/17，2025/05/01，2025/05/26，2025/07/03，2025/07/27，2025/09/18，2025/10/17，2025/11/21，2026/1/12，2026/1/24，2026/2/19</t>
         </is>
       </c>
       <c r="F355" t="inlineStr"/>
@@ -13557,7 +13597,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -15734,7 +15774,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>2025/05/02，2025/05/15，2025/06/14</t>
+          <t>2025/05/02，2025/05/15，2025/06/14，2026/2/19</t>
         </is>
       </c>
       <c r="F415" t="inlineStr"/>
@@ -15745,10 +15785,14 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I415" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>BV1cvEnzREJb</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -19730,7 +19774,11 @@
           <t>색안경 (STEREOTYPE)</t>
         </is>
       </c>
-      <c r="C527" t="inlineStr"/>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>有色眼镜</t>
+        </is>
+      </c>
       <c r="D527" t="inlineStr">
         <is>
           <t>STAYC</t>
@@ -20462,7 +20510,7 @@
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>2025/06/26，2025/06/27，2025/07/14，2025/07/17，2025/08/23，2025/09/21，2025/10/28，2025/11/10，2026/1/14，2026/1/22</t>
+          <t>2025/06/26，2025/06/27，2025/07/14，2025/07/17，2025/08/23，2025/09/21，2025/10/28，2025/11/10，2026/1/14，2026/1/22，2026/2/19</t>
         </is>
       </c>
       <c r="F547" t="inlineStr"/>
@@ -20473,10 +20521,14 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I547" t="inlineStr"/>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I547" t="inlineStr">
+        <is>
+          <t>BV1iLJdzEEWk</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -22108,7 +22160,7 @@
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>2025/07/17，2025/07/24，2025/07/28，2025/08/01，2025/08/04，2025/08/09，2025/08/13，2025/08/26，2025/08/29，2025/09/19，2025/09/29，2025/10/11，2025/10/22，2025/10/28，2025/11/10，2025/11/28，2025/12/16</t>
+          <t>2025/07/17，2025/07/24，2025/07/28，2025/08/01，2025/08/04，2025/08/09，2025/08/13，2025/08/26，2025/08/29，2025/09/19，2025/09/29，2025/10/11，2025/10/22，2025/10/28，2025/11/10，2025/11/28，2025/12/16，2026/2/19</t>
         </is>
       </c>
       <c r="F593" t="inlineStr"/>
@@ -22119,7 +22171,7 @@
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I593" t="inlineStr">
@@ -22388,7 +22440,11 @@
           <t>One Spot</t>
         </is>
       </c>
-      <c r="C601" t="inlineStr"/>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>美美桑内</t>
+        </is>
+      </c>
       <c r="D601" t="inlineStr">
         <is>
           <t>沈佳润</t>
@@ -22396,7 +22452,7 @@
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>2025/07/26，2025/07/28，2025/08/26，2025/09/10</t>
+          <t>2025/07/26，2025/07/28，2025/08/26，2025/09/10，2026/2/19</t>
         </is>
       </c>
       <c r="F601" t="inlineStr"/>
@@ -22407,10 +22463,14 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I601" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>BV14L8nzZEcB</t>
+        </is>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -23194,7 +23254,7 @@
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>2025/08/26，2025/08/16，2025/11/13，2025/12/9，2026/1/29</t>
+          <t>2025/08/26，2025/08/16，2025/11/13，2025/12/9，2026/1/29，2026/2/19</t>
         </is>
       </c>
       <c r="F623" t="inlineStr"/>
@@ -23205,7 +23265,7 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
@@ -25785,7 +25845,11 @@
           <t>2025/10/13</t>
         </is>
       </c>
-      <c r="F695" t="inlineStr"/>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>点歌大概率不唱</t>
+        </is>
+      </c>
       <c r="G695" t="inlineStr">
         <is>
           <t>华语</t>
@@ -27762,18 +27826,18 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>751</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>千千阙歌</t>
+          <t>九张机</t>
         </is>
       </c>
       <c r="C751" t="inlineStr"/>
       <c r="D751" t="inlineStr">
         <is>
-          <t>陈慧娴</t>
+          <t>叶炫清</t>
         </is>
       </c>
       <c r="E751" t="inlineStr">
@@ -27797,29 +27861,29 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>752</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>九张机</t>
+          <t>Hey Jude</t>
         </is>
       </c>
       <c r="C752" t="inlineStr"/>
       <c r="D752" t="inlineStr">
         <is>
-          <t>叶炫清</t>
+          <t>The Beatles</t>
         </is>
       </c>
       <c r="E752" t="inlineStr">
         <is>
-          <t>2025/11/28</t>
+          <t>2025/12/2</t>
         </is>
       </c>
       <c r="F752" t="inlineStr"/>
       <c r="G752" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H752" t="inlineStr">
@@ -27832,23 +27896,23 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>753</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>Hey Jude</t>
+          <t>Loves Me Not</t>
         </is>
       </c>
       <c r="C753" t="inlineStr"/>
       <c r="D753" t="inlineStr">
         <is>
-          <t>The Beatles</t>
+          <t>t.A.T.u.</t>
         </is>
       </c>
       <c r="E753" t="inlineStr">
         <is>
-          <t>2025/12/2</t>
+          <t>2025/12/4</t>
         </is>
       </c>
       <c r="F753" t="inlineStr"/>
@@ -27867,18 +27931,18 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>754</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>Loves Me Not</t>
+          <t>不怕不怕</t>
         </is>
       </c>
       <c r="C754" t="inlineStr"/>
       <c r="D754" t="inlineStr">
         <is>
-          <t>t.A.T.u.</t>
+          <t>美美jocie</t>
         </is>
       </c>
       <c r="E754" t="inlineStr">
@@ -27889,7 +27953,7 @@
       <c r="F754" t="inlineStr"/>
       <c r="G754" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H754" t="inlineStr">
@@ -27902,23 +27966,23 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>754</t>
+          <t>755</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>不怕不怕</t>
+          <t>卜卦</t>
         </is>
       </c>
       <c r="C755" t="inlineStr"/>
       <c r="D755" t="inlineStr">
         <is>
-          <t>美美jocie</t>
+          <t>崔子格</t>
         </is>
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t>2025/12/4</t>
+          <t>2025/12/5</t>
         </is>
       </c>
       <c r="F755" t="inlineStr"/>
@@ -27937,34 +28001,38 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>756</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>卜卦</t>
-        </is>
-      </c>
-      <c r="C756" t="inlineStr"/>
+          <t>届かない恋</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>无法传达的恋爱</t>
+        </is>
+      </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>崔子格</t>
+          <t>上原玲奈</t>
         </is>
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t>2025/12/5</t>
+          <t>2025/12/9，2026/2/2</t>
         </is>
       </c>
       <c r="F756" t="inlineStr"/>
       <c r="G756" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>日语</t>
         </is>
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I756" t="inlineStr"/>
@@ -27972,62 +28040,62 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>757</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>届かない恋</t>
-        </is>
-      </c>
-      <c r="C757" t="inlineStr">
-        <is>
-          <t>无法传达的恋爱</t>
-        </is>
-      </c>
+          <t>听见</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr"/>
       <c r="D757" t="inlineStr">
         <is>
-          <t>上原玲奈</t>
+          <t>方雅贤</t>
         </is>
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>2025/12/9，2026/2/2</t>
+          <t>2025/12/9，2025/12/17，2026/1/14，2026/1/23，2026/2/5，2026/2/10</t>
         </is>
       </c>
       <c r="F757" t="inlineStr"/>
       <c r="G757" t="inlineStr">
         <is>
-          <t>日语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I757" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I757" t="inlineStr">
+        <is>
+          <t>BV1cWmnB5Etm</t>
+        </is>
+      </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>758</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>听见</t>
+          <t>神探</t>
         </is>
       </c>
       <c r="C758" t="inlineStr"/>
       <c r="D758" t="inlineStr">
         <is>
-          <t>方雅贤</t>
+          <t>丁世光</t>
         </is>
       </c>
       <c r="E758" t="inlineStr">
         <is>
-          <t>2025/12/9，2025/12/17，2026/1/14，2026/1/23，2026/2/5，2026/2/10</t>
+          <t>2025/12/11，2025/12/12，2025/12/17，2026/1/2，2026/1/5，2026/1/11，2026/1/17，2026/1/29，2026/2/9</t>
         </is>
       </c>
       <c r="F758" t="inlineStr"/>
@@ -28038,35 +28106,35 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>BV1cWmnB5Etm</t>
+          <t>BV1FekxB5Etj</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>759</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>神探</t>
+          <t>我的天坑</t>
         </is>
       </c>
       <c r="C759" t="inlineStr"/>
       <c r="D759" t="inlineStr">
         <is>
-          <t>丁世光</t>
+          <t>南征北战NZBZ</t>
         </is>
       </c>
       <c r="E759" t="inlineStr">
         <is>
-          <t>2025/12/11，2025/12/12，2025/12/17，2026/1/2，2026/1/5，2026/1/11，2026/1/17，2026/1/29，2026/2/9</t>
+          <t>2025/12/12</t>
         </is>
       </c>
       <c r="F759" t="inlineStr"/>
@@ -28077,30 +28145,26 @@
       </c>
       <c r="H759" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I759" t="inlineStr">
-        <is>
-          <t>BV1FekxB5Etj</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I759" t="inlineStr"/>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>760</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>我的天坑</t>
+          <t>同桌的你</t>
         </is>
       </c>
       <c r="C760" t="inlineStr"/>
       <c r="D760" t="inlineStr">
         <is>
-          <t>南征北战NZBZ</t>
+          <t>老狼</t>
         </is>
       </c>
       <c r="E760" t="inlineStr">
@@ -28124,18 +28188,18 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>761</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>同桌的你</t>
+          <t>北京东路的日子</t>
         </is>
       </c>
       <c r="C761" t="inlineStr"/>
       <c r="D761" t="inlineStr">
         <is>
-          <t>老狼</t>
+          <t>群星</t>
         </is>
       </c>
       <c r="E761" t="inlineStr">
@@ -28159,18 +28223,18 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>762</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>北京东路的日子</t>
+          <t>倔强</t>
         </is>
       </c>
       <c r="C762" t="inlineStr"/>
       <c r="D762" t="inlineStr">
         <is>
-          <t>群星</t>
+          <t>五月天</t>
         </is>
       </c>
       <c r="E762" t="inlineStr">
@@ -28194,18 +28258,18 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>763</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>倔强</t>
+          <t>Brand new me</t>
         </is>
       </c>
       <c r="C763" t="inlineStr"/>
       <c r="D763" t="inlineStr">
         <is>
-          <t>五月天</t>
+          <t>Alicia Keys</t>
         </is>
       </c>
       <c r="E763" t="inlineStr">
@@ -28216,7 +28280,7 @@
       <c r="F763" t="inlineStr"/>
       <c r="G763" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H763" t="inlineStr">
@@ -28229,29 +28293,29 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>764</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>Brand new me</t>
+          <t>太难唱了</t>
         </is>
       </c>
       <c r="C764" t="inlineStr"/>
       <c r="D764" t="inlineStr">
         <is>
-          <t>Alicia Keys</t>
+          <t>彭佳慧</t>
         </is>
       </c>
       <c r="E764" t="inlineStr">
         <is>
-          <t>2025/12/12</t>
+          <t>2025/12/16</t>
         </is>
       </c>
       <c r="F764" t="inlineStr"/>
       <c r="G764" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H764" t="inlineStr">
@@ -28264,23 +28328,23 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>765</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>太难唱了</t>
+          <t>他一定很爱你</t>
         </is>
       </c>
       <c r="C765" t="inlineStr"/>
       <c r="D765" t="inlineStr">
         <is>
-          <t>彭佳慧</t>
+          <t>阿杜</t>
         </is>
       </c>
       <c r="E765" t="inlineStr">
         <is>
-          <t>2025/12/16</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="F765" t="inlineStr"/>
@@ -28299,97 +28363,101 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>766</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>他一定很爱你</t>
+          <t>Please Please Please</t>
         </is>
       </c>
       <c r="C766" t="inlineStr"/>
       <c r="D766" t="inlineStr">
         <is>
-          <t>阿杜</t>
+          <t>Sabrina Carpenter</t>
         </is>
       </c>
       <c r="E766" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2025/12/19，2025/12/24，2025/12/26，2026/1/2，2026/1/9，2026/1/23，2026/1/29</t>
         </is>
       </c>
       <c r="F766" t="inlineStr"/>
       <c r="G766" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H766" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I766" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I766" t="inlineStr">
+        <is>
+          <t>BV1K8isBiExx</t>
+        </is>
+      </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>767</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>Please Please Please</t>
+          <t>流浪者之歌</t>
         </is>
       </c>
       <c r="C767" t="inlineStr"/>
       <c r="D767" t="inlineStr">
         <is>
-          <t>Sabrina Carpenter</t>
+          <t>F.I.R.飞儿乐团</t>
         </is>
       </c>
       <c r="E767" t="inlineStr">
         <is>
-          <t>2025/12/19，2025/12/24，2025/12/26，2026/1/2，2026/1/9，2026/1/23，2026/1/29</t>
+          <t>2025/12/19，2026/2/8</t>
         </is>
       </c>
       <c r="F767" t="inlineStr"/>
       <c r="G767" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>BV1K8isBiExx</t>
+          <t>BV1WVqrBLEc2</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>768</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>流浪者之歌</t>
+          <t>气球</t>
         </is>
       </c>
       <c r="C768" t="inlineStr"/>
       <c r="D768" t="inlineStr">
         <is>
-          <t>F.I.R.飞儿乐团</t>
+          <t>许哲珮</t>
         </is>
       </c>
       <c r="E768" t="inlineStr">
         <is>
-          <t>2025/12/19，2026/2/8</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="F768" t="inlineStr"/>
@@ -28400,35 +28468,31 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I768" t="inlineStr">
-        <is>
-          <t>BV1WVqrBLEc2</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I768" t="inlineStr"/>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>769</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>气球</t>
+          <t>一样的月光</t>
         </is>
       </c>
       <c r="C769" t="inlineStr"/>
       <c r="D769" t="inlineStr">
         <is>
-          <t>许哲珮</t>
+          <t>徐佳莹</t>
         </is>
       </c>
       <c r="E769" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/19，2025/12/23，2025/12/26，2026/1/2，2026/1/5，2026/1/11，2026/1/25，2026/2/9</t>
         </is>
       </c>
       <c r="F769" t="inlineStr"/>
@@ -28439,70 +28503,74 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I769" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I769" t="inlineStr">
+        <is>
+          <t>BV1oKiwBXE1L</t>
+        </is>
+      </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>770</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>一样的月光</t>
+          <t>BIRDS OF A FEATHER</t>
         </is>
       </c>
       <c r="C770" t="inlineStr"/>
       <c r="D770" t="inlineStr">
         <is>
-          <t>徐佳莹</t>
+          <t>Billie Eilish</t>
         </is>
       </c>
       <c r="E770" t="inlineStr">
         <is>
-          <t>2025/12/19，2025/12/23，2025/12/26，2026/1/2，2026/1/5，2026/1/11，2026/1/25，2026/2/9</t>
+          <t>2025/12/24，2025/12/24，2025/12/26，2026/1/2，2026/1/10</t>
         </is>
       </c>
       <c r="F770" t="inlineStr"/>
       <c r="G770" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H770" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>BV1oKiwBXE1L</t>
+          <t>BV1GiicB5EFK</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>771</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>BIRDS OF A FEATHER</t>
+          <t>Catch Me If You Can</t>
         </is>
       </c>
       <c r="C771" t="inlineStr"/>
       <c r="D771" t="inlineStr">
         <is>
-          <t>Billie Eilish</t>
+          <t>鸣潮先约电台</t>
         </is>
       </c>
       <c r="E771" t="inlineStr">
         <is>
-          <t>2025/12/24，2025/12/24，2025/12/26，2026/1/2，2026/1/10</t>
+          <t>2025/12/26，2026/1/5，2026/1/19，2026/1/21，2026/1/22，2026/1/24，2026/2/7，2026/2/19</t>
         </is>
       </c>
       <c r="F771" t="inlineStr"/>
@@ -28513,74 +28581,74 @@
       </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>BV1GiicB5EFK</t>
+          <t>BV1pfzcBgERV</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>Catch Me If You Can</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C772" t="inlineStr"/>
       <c r="D772" t="inlineStr">
         <is>
-          <t>鸣潮先约电台</t>
+          <t>队长/黄礼格</t>
         </is>
       </c>
       <c r="E772" t="inlineStr">
         <is>
-          <t>2025/12/26，2026/1/5，2026/1/19，2026/1/21，2026/1/22，2026/1/24，2026/2/7</t>
+          <t>2025/12/26，2026/1/19，2026/2/9</t>
         </is>
       </c>
       <c r="F772" t="inlineStr"/>
       <c r="G772" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>BV1pfzcBgERV</t>
+          <t>BV1VUcuzvEaU</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>773</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>鱼仔</t>
         </is>
       </c>
       <c r="C773" t="inlineStr"/>
       <c r="D773" t="inlineStr">
         <is>
-          <t>队长/黄礼格</t>
+          <t>卢广仲</t>
         </is>
       </c>
       <c r="E773" t="inlineStr">
         <is>
-          <t>2025/12/26，2026/1/19，2026/2/9</t>
+          <t>2025/12/26，2026/1/10，2026/1/22，2026/1/23，2026/1/31，2026/2/10</t>
         </is>
       </c>
       <c r="F773" t="inlineStr"/>
@@ -28591,35 +28659,35 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>BV1VUcuzvEaU</t>
+          <t>BV1mNBfBBEkr</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>774</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>鱼仔</t>
+          <t>Always Online</t>
         </is>
       </c>
       <c r="C774" t="inlineStr"/>
       <c r="D774" t="inlineStr">
         <is>
-          <t>卢广仲</t>
+          <t>林俊杰</t>
         </is>
       </c>
       <c r="E774" t="inlineStr">
         <is>
-          <t>2025/12/26，2026/1/10，2026/1/22，2026/1/23，2026/1/31，2026/2/10</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="F774" t="inlineStr"/>
@@ -28630,35 +28698,31 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I774" t="inlineStr">
-        <is>
-          <t>BV1mNBfBBEkr</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I774" t="inlineStr"/>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>Always Online</t>
+          <t>如愿</t>
         </is>
       </c>
       <c r="C775" t="inlineStr"/>
       <c r="D775" t="inlineStr">
         <is>
-          <t>林俊杰</t>
+          <t>王菲</t>
         </is>
       </c>
       <c r="E775" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2026/1/5</t>
         </is>
       </c>
       <c r="F775" t="inlineStr"/>
@@ -28677,97 +28741,101 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>776</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>如愿</t>
+          <t>NOT CUTE ANYMORE</t>
         </is>
       </c>
       <c r="C776" t="inlineStr"/>
       <c r="D776" t="inlineStr">
         <is>
-          <t>王菲</t>
+          <t>ILLIT</t>
         </is>
       </c>
       <c r="E776" t="inlineStr">
         <is>
-          <t>2026/1/5</t>
+          <t>2025/12/27，2026/1/5，2026/1/6，2026/1/14，2026/1/23，2026/2/9</t>
         </is>
       </c>
       <c r="F776" t="inlineStr"/>
       <c r="G776" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>韩语</t>
         </is>
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I776" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I776" t="inlineStr">
+        <is>
+          <t>BV1NrqABkEk4</t>
+        </is>
+      </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>777</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>NOT CUTE ANYMORE</t>
+          <t>莫名其妙爱上你</t>
         </is>
       </c>
       <c r="C777" t="inlineStr"/>
       <c r="D777" t="inlineStr">
         <is>
-          <t>ILLIT</t>
+          <t>朱主爱</t>
         </is>
       </c>
       <c r="E777" t="inlineStr">
         <is>
-          <t>2025/12/27，2026/1/5，2026/1/6，2026/1/14，2026/1/23，2026/2/9</t>
+          <t>2026/1/14</t>
         </is>
       </c>
       <c r="F777" t="inlineStr"/>
       <c r="G777" t="inlineStr">
         <is>
-          <t>韩语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H777" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>BV1NrqABkEk4</t>
+          <t>BV1c6rWBBEyT</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>778</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>莫名其妙爱上你</t>
+          <t>三理之歌</t>
         </is>
       </c>
       <c r="C778" t="inlineStr"/>
       <c r="D778" t="inlineStr">
         <is>
-          <t>朱主爱</t>
+          <t>库里之歌</t>
         </is>
       </c>
       <c r="E778" t="inlineStr">
         <is>
-          <t>2026/1/14</t>
+          <t>2026/1/15，2026/1/29</t>
         </is>
       </c>
       <c r="F778" t="inlineStr"/>
@@ -28778,35 +28846,35 @@
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>BV1c6rWBBEyT</t>
+          <t>BV1kwkFBgEVE</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>779</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>三理之歌</t>
+          <t>坏女孩</t>
         </is>
       </c>
       <c r="C779" t="inlineStr"/>
       <c r="D779" t="inlineStr">
         <is>
-          <t>库里之歌</t>
+          <t>徐良</t>
         </is>
       </c>
       <c r="E779" t="inlineStr">
         <is>
-          <t>2026/1/15，2026/1/29</t>
+          <t>2026/1/19</t>
         </is>
       </c>
       <c r="F779" t="inlineStr"/>
@@ -28817,35 +28885,31 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I779" t="inlineStr">
-        <is>
-          <t>BV1kwkFBgEVE</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I779" t="inlineStr"/>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>780</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>坏女孩</t>
+          <t>分手快乐</t>
         </is>
       </c>
       <c r="C780" t="inlineStr"/>
       <c r="D780" t="inlineStr">
         <is>
-          <t>徐良</t>
+          <t>梁静茹</t>
         </is>
       </c>
       <c r="E780" t="inlineStr">
         <is>
-          <t>2026/1/19</t>
+          <t>2026/1/21</t>
         </is>
       </c>
       <c r="F780" t="inlineStr"/>
@@ -28864,23 +28928,23 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>781</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>分手快乐</t>
+          <t>我只在乎你</t>
         </is>
       </c>
       <c r="C781" t="inlineStr"/>
       <c r="D781" t="inlineStr">
         <is>
-          <t>梁静茹</t>
+          <t>邓丽君</t>
         </is>
       </c>
       <c r="E781" t="inlineStr">
         <is>
-          <t>2026/1/21</t>
+          <t>2026/1/23</t>
         </is>
       </c>
       <c r="F781" t="inlineStr"/>
@@ -28899,34 +28963,34 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>782</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>我只在乎你</t>
+          <t>死别</t>
         </is>
       </c>
       <c r="C782" t="inlineStr"/>
       <c r="D782" t="inlineStr">
         <is>
-          <t>邓丽君</t>
+          <t>シャノン</t>
         </is>
       </c>
       <c r="E782" t="inlineStr">
         <is>
-          <t>2026/1/23</t>
+          <t>2026/1/23，2026/1/25，2026/2/5，2026/2/9</t>
         </is>
       </c>
       <c r="F782" t="inlineStr"/>
       <c r="G782" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>日语</t>
         </is>
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I782" t="inlineStr"/>
@@ -28934,34 +28998,34 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>783</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>死别</t>
+          <t>情歌</t>
         </is>
       </c>
       <c r="C783" t="inlineStr"/>
       <c r="D783" t="inlineStr">
         <is>
-          <t>シャノン</t>
+          <t>梁静茹</t>
         </is>
       </c>
       <c r="E783" t="inlineStr">
         <is>
-          <t>2026/1/23，2026/1/25，2026/2/5，2026/2/9</t>
+          <t>2026/1/23</t>
         </is>
       </c>
       <c r="F783" t="inlineStr"/>
       <c r="G783" t="inlineStr">
         <is>
-          <t>日语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I783" t="inlineStr"/>
@@ -28969,23 +29033,23 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>784</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>情歌</t>
+          <t>几分之几</t>
         </is>
       </c>
       <c r="C784" t="inlineStr"/>
       <c r="D784" t="inlineStr">
         <is>
-          <t>梁静茹</t>
+          <t>卢广仲</t>
         </is>
       </c>
       <c r="E784" t="inlineStr">
         <is>
-          <t>2026/1/23</t>
+          <t>2026/1/24，2026/1/25，2026/1/26，2026/2/2，2026/2/7，2026/2/10，2026/2/14，2026/2/19</t>
         </is>
       </c>
       <c r="F784" t="inlineStr"/>
@@ -28996,31 +29060,35 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I784" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I784" t="inlineStr">
+        <is>
+          <t>BV1sEzxBCEua</t>
+        </is>
+      </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>785</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>几分之几</t>
+          <t>爱不单行</t>
         </is>
       </c>
       <c r="C785" t="inlineStr"/>
       <c r="D785" t="inlineStr">
         <is>
-          <t>卢广仲</t>
+          <t>罗志祥</t>
         </is>
       </c>
       <c r="E785" t="inlineStr">
         <is>
-          <t>2026/1/24，2026/1/25，2026/1/26，2026/2/2，2026/2/7，2026/2/10，2026/2/14</t>
+          <t>2026/1/24，2026/2/8</t>
         </is>
       </c>
       <c r="F785" t="inlineStr"/>
@@ -29031,168 +29099,164 @@
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>BV1sEzxBCEua</t>
+          <t>BV1zPz1BRExW</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>爱不单行</t>
-        </is>
-      </c>
-      <c r="C786" t="inlineStr"/>
+          <t>STAR WALKIN'</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>逐星</t>
+        </is>
+      </c>
       <c r="D786" t="inlineStr">
         <is>
-          <t>罗志祥</t>
+          <t>Lil Nas X</t>
         </is>
       </c>
       <c r="E786" t="inlineStr">
         <is>
-          <t>2026/1/24，2026/2/8</t>
+          <t>2026/1/25</t>
         </is>
       </c>
       <c r="F786" t="inlineStr"/>
       <c r="G786" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I786" t="inlineStr">
-        <is>
-          <t>BV1zPz1BRExW</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I786" t="inlineStr"/>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>787</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>STAR WALKIN'</t>
-        </is>
-      </c>
-      <c r="C787" t="inlineStr">
-        <is>
-          <t>逐星</t>
-        </is>
-      </c>
+          <t>阳光彩虹小白马</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr"/>
       <c r="D787" t="inlineStr">
         <is>
-          <t>Lil Nas X</t>
+          <t>大张伟</t>
         </is>
       </c>
       <c r="E787" t="inlineStr">
         <is>
-          <t>2026/1/25</t>
+          <t>2026/1/25，2026/2/10</t>
         </is>
       </c>
       <c r="F787" t="inlineStr"/>
       <c r="G787" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I787" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I787" t="inlineStr">
+        <is>
+          <t>BV1Gnc4zmEjA</t>
+        </is>
+      </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>788</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>阳光彩虹小白马</t>
+          <t>Lulala! Lululala!</t>
         </is>
       </c>
       <c r="C788" t="inlineStr"/>
       <c r="D788" t="inlineStr">
         <is>
-          <t>大张伟</t>
+          <t>鸣潮先约电台</t>
         </is>
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t>2026/1/25，2026/2/10</t>
+          <t>2026/1/25，2026/1/30，2026/2/2，2026/2/8，2026/2/19</t>
         </is>
       </c>
       <c r="F788" t="inlineStr"/>
       <c r="G788" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>BV1Gnc4zmEjA</t>
+          <t>BV1Dv6qBsEXr</t>
         </is>
       </c>
     </row>
     <row r="789">
-      <c r="A789" t="inlineStr">
-        <is>
-          <t>788</t>
-        </is>
-      </c>
+      <c r="A789" t="inlineStr"/>
       <c r="B789" t="inlineStr">
         <is>
-          <t>Lulala! Lululala!</t>
+          <t>爱要坦荡荡(R&amp;B版)</t>
         </is>
       </c>
       <c r="C789" t="inlineStr"/>
       <c r="D789" t="inlineStr">
         <is>
-          <t>鸣潮先约电台</t>
+          <t>顾叮当</t>
         </is>
       </c>
       <c r="E789" t="inlineStr">
         <is>
-          <t>2026/1/25，2026/1/30，2026/2/2，2026/2/8</t>
+          <t>2026/1/29</t>
         </is>
       </c>
       <c r="F789" t="inlineStr"/>
       <c r="G789" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>BV1Dv6qBsEXr</t>
+          <t>BV1Xx6cBRE14</t>
         </is>
       </c>
     </row>
@@ -29200,24 +29264,24 @@
       <c r="A790" t="inlineStr"/>
       <c r="B790" t="inlineStr">
         <is>
-          <t>爱要坦荡荡(R&amp;B版)</t>
+          <t>Long Live</t>
         </is>
       </c>
       <c r="C790" t="inlineStr"/>
       <c r="D790" t="inlineStr">
         <is>
-          <t>顾叮当</t>
+          <t>Taylor Swift</t>
         </is>
       </c>
       <c r="E790" t="inlineStr">
         <is>
-          <t>2026/1/29</t>
+          <t>2026/1/30</t>
         </is>
       </c>
       <c r="F790" t="inlineStr"/>
       <c r="G790" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H790" t="inlineStr">
@@ -29225,59 +29289,59 @@
           <t>1</t>
         </is>
       </c>
-      <c r="I790" t="inlineStr">
-        <is>
-          <t>BV1Xx6cBRE14</t>
-        </is>
-      </c>
+      <c r="I790" t="inlineStr"/>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr"/>
       <c r="B791" t="inlineStr">
         <is>
-          <t>Long Live</t>
+          <t>身不由己</t>
         </is>
       </c>
       <c r="C791" t="inlineStr"/>
       <c r="D791" t="inlineStr">
         <is>
-          <t>Taylor Swift</t>
+          <t>大都会乐团</t>
         </is>
       </c>
       <c r="E791" t="inlineStr">
         <is>
-          <t>2026/1/30</t>
+          <t>2026/2/2，2026/2/5，2026/2/9</t>
         </is>
       </c>
       <c r="F791" t="inlineStr"/>
       <c r="G791" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I791" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I791" t="inlineStr">
+        <is>
+          <t>BV1fxFMzqEDd</t>
+        </is>
+      </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr"/>
       <c r="B792" t="inlineStr">
         <is>
-          <t>身不由己</t>
+          <t>乐鸣东方</t>
         </is>
       </c>
       <c r="C792" t="inlineStr"/>
       <c r="D792" t="inlineStr">
         <is>
-          <t>大都会乐团</t>
+          <t>洛天依</t>
         </is>
       </c>
       <c r="E792" t="inlineStr">
         <is>
-          <t>2026/2/2，2026/2/5，2026/2/9</t>
+          <t>2026/2/7</t>
         </is>
       </c>
       <c r="F792" t="inlineStr"/>
@@ -29288,26 +29352,22 @@
       </c>
       <c r="H792" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I792" t="inlineStr">
-        <is>
-          <t>BV1fxFMzqEDd</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I792" t="inlineStr"/>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr"/>
       <c r="B793" t="inlineStr">
         <is>
-          <t>乐鸣东方</t>
+          <t>爱的飞行日记</t>
         </is>
       </c>
       <c r="C793" t="inlineStr"/>
       <c r="D793" t="inlineStr">
         <is>
-          <t>洛天依</t>
+          <t>周杰伦</t>
         </is>
       </c>
       <c r="E793" t="inlineStr">
@@ -29326,24 +29386,28 @@
           <t>1</t>
         </is>
       </c>
-      <c r="I793" t="inlineStr"/>
+      <c r="I793" t="inlineStr">
+        <is>
+          <t>BV1wGF4zFEBM</t>
+        </is>
+      </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr"/>
       <c r="B794" t="inlineStr">
         <is>
-          <t>爱的飞行日记</t>
+          <t>相亲相爱</t>
         </is>
       </c>
       <c r="C794" t="inlineStr"/>
       <c r="D794" t="inlineStr">
         <is>
-          <t>周杰伦</t>
+          <t>陈慧琳/张惠妹/孙楠/古淖文</t>
         </is>
       </c>
       <c r="E794" t="inlineStr">
         <is>
-          <t>2026/2/7</t>
+          <t>2026/2/8</t>
         </is>
       </c>
       <c r="F794" t="inlineStr"/>
@@ -29359,7 +29423,7 @@
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>BV1wGF4zFEBM</t>
+          <t>BV1U9cTzpEjm</t>
         </is>
       </c>
     </row>
@@ -29367,18 +29431,18 @@
       <c r="A795" t="inlineStr"/>
       <c r="B795" t="inlineStr">
         <is>
-          <t>相亲相爱</t>
+          <t>混入人类计划</t>
         </is>
       </c>
       <c r="C795" t="inlineStr"/>
       <c r="D795" t="inlineStr">
         <is>
-          <t>陈慧琳/张惠妹/孙楠/古淖文</t>
+          <t>ChiliChill</t>
         </is>
       </c>
       <c r="E795" t="inlineStr">
         <is>
-          <t>2026/2/8</t>
+          <t>2026/2/8，2026/2/9，2026/2/14</t>
         </is>
       </c>
       <c r="F795" t="inlineStr"/>
@@ -29389,12 +29453,12 @@
       </c>
       <c r="H795" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>BV1U9cTzpEjm</t>
+          <t>BV1JncczQEuJ</t>
         </is>
       </c>
     </row>
@@ -29402,34 +29466,34 @@
       <c r="A796" t="inlineStr"/>
       <c r="B796" t="inlineStr">
         <is>
-          <t>混入人类计划</t>
+          <t>纸飞机</t>
         </is>
       </c>
       <c r="C796" t="inlineStr"/>
       <c r="D796" t="inlineStr">
         <is>
-          <t>ChiliChill</t>
+          <t>鸣潮先约电台/飞行雪绒</t>
         </is>
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>2026/2/8，2026/2/9，2026/2/14</t>
+          <t>2026/2/8，2026/2/9，2026/2/12，2026/2/14，2026/2/19</t>
         </is>
       </c>
       <c r="F796" t="inlineStr"/>
       <c r="G796" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>BV1JncczQEuJ</t>
+          <t>BV1W4cuzSE8Y</t>
         </is>
       </c>
     </row>
@@ -29437,34 +29501,34 @@
       <c r="A797" t="inlineStr"/>
       <c r="B797" t="inlineStr">
         <is>
-          <t>纸飞机</t>
+          <t>刻在我心底的名字</t>
         </is>
       </c>
       <c r="C797" t="inlineStr"/>
       <c r="D797" t="inlineStr">
         <is>
-          <t>鸣潮先约电台/飞行雪绒</t>
+          <t>卢广仲</t>
         </is>
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t>2026/2/8，2026/2/9，2026/2/12，2026/2/14</t>
+          <t>2026/2/9</t>
         </is>
       </c>
       <c r="F797" t="inlineStr"/>
       <c r="G797" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>BV1W4cuzSE8Y</t>
+          <t>BV1EkcszREeP</t>
         </is>
       </c>
     </row>
@@ -29472,18 +29536,18 @@
       <c r="A798" t="inlineStr"/>
       <c r="B798" t="inlineStr">
         <is>
-          <t>刻在我心底的名字</t>
+          <t>词不达意</t>
         </is>
       </c>
       <c r="C798" t="inlineStr"/>
       <c r="D798" t="inlineStr">
         <is>
-          <t>卢广仲</t>
+          <t>林忆莲</t>
         </is>
       </c>
       <c r="E798" t="inlineStr">
         <is>
-          <t>2026/2/9</t>
+          <t>2026/2/12</t>
         </is>
       </c>
       <c r="F798" t="inlineStr"/>
@@ -29499,7 +29563,7 @@
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>BV1EkcszREeP</t>
+          <t>BV1BNcBz4ECH</t>
         </is>
       </c>
     </row>
@@ -29507,24 +29571,28 @@
       <c r="A799" t="inlineStr"/>
       <c r="B799" t="inlineStr">
         <is>
-          <t>词不达意</t>
-        </is>
-      </c>
-      <c r="C799" t="inlineStr"/>
+          <t>RUNNING FOR YOUR LIFE</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>无所遁藏</t>
+        </is>
+      </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>林忆莲</t>
+          <t>鸣潮先约电台/Casey Lee Williams</t>
         </is>
       </c>
       <c r="E799" t="inlineStr">
         <is>
-          <t>2026/2/12</t>
+          <t>2026/2/14</t>
         </is>
       </c>
       <c r="F799" t="inlineStr"/>
       <c r="G799" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H799" t="inlineStr">
@@ -29534,7 +29602,7 @@
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>BV1BNcBz4ECH</t>
+          <t>BV14GZEBgErZ</t>
         </is>
       </c>
     </row>
@@ -29542,38 +29610,34 @@
       <c r="A800" t="inlineStr"/>
       <c r="B800" t="inlineStr">
         <is>
-          <t>RUNNING FOR YOUR LIFE</t>
-        </is>
-      </c>
-      <c r="C800" t="inlineStr">
-        <is>
-          <t>无所遁藏</t>
-        </is>
-      </c>
+          <t>发财发福中国年</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr"/>
       <c r="D800" t="inlineStr">
         <is>
-          <t>鸣潮先约电台/Casey Lee Williams</t>
+          <t>中国娃娃</t>
         </is>
       </c>
       <c r="E800" t="inlineStr">
         <is>
-          <t>2026/2/14</t>
+          <t>2026/2/17，2026/2/19</t>
         </is>
       </c>
       <c r="F800" t="inlineStr"/>
       <c r="G800" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H800" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>BV14GZEBgErZ</t>
+          <t>BV1EYZ1B6ECT</t>
         </is>
       </c>
     </row>
@@ -29581,13 +29645,13 @@
       <c r="A801" t="inlineStr"/>
       <c r="B801" t="inlineStr">
         <is>
-          <t>发财发福中国年</t>
+          <t>恭喜发财</t>
         </is>
       </c>
       <c r="C801" t="inlineStr"/>
       <c r="D801" t="inlineStr">
         <is>
-          <t>中国娃娃</t>
+          <t>刘德华</t>
         </is>
       </c>
       <c r="E801" t="inlineStr">
@@ -29606,34 +29670,30 @@
           <t>1</t>
         </is>
       </c>
-      <c r="I801" t="inlineStr">
-        <is>
-          <t>BV1EYZ1B6ECT</t>
-        </is>
-      </c>
+      <c r="I801" t="inlineStr"/>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr"/>
       <c r="B802" t="inlineStr">
         <is>
-          <t>恭喜发财</t>
+          <t>迎春花</t>
         </is>
       </c>
       <c r="C802" t="inlineStr"/>
       <c r="D802" t="inlineStr">
         <is>
-          <t>刘德华</t>
+          <t>卓依婷</t>
         </is>
       </c>
       <c r="E802" t="inlineStr">
         <is>
-          <t>2026/2/17</t>
+          <t>2026/2/19</t>
         </is>
       </c>
       <c r="F802" t="inlineStr"/>
       <c r="G802" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>粤语</t>
         </is>
       </c>
       <c r="H802" t="inlineStr">
@@ -29641,7 +29701,46 @@
           <t>1</t>
         </is>
       </c>
-      <c r="I802" t="inlineStr"/>
+      <c r="I802" t="inlineStr">
+        <is>
+          <t>BV1gnZBBiEmr</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr"/>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>天堂</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr"/>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>腾格尔</t>
+        </is>
+      </c>
+      <c r="E803" t="inlineStr">
+        <is>
+          <t>2026/2/19</t>
+        </is>
+      </c>
+      <c r="F803" t="inlineStr"/>
+      <c r="G803" t="inlineStr">
+        <is>
+          <t>华语</t>
+        </is>
+      </c>
+      <c r="H803" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I803" t="inlineStr">
+        <is>
+          <t>BV166ZBBQEWz</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I803"/>
+  <dimension ref="A1:I805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +583,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>英语，韩语</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025/03/04，2025/03/14，2025/04/15，2025/05/03，2025/05/19，2025/07/18，2025/07/28，2025/08/28，2025/09/22，2025/10/19，2025/10/26，2025/11/9，2025/12/30</t>
+          <t>2025/03/04，2025/03/14，2025/04/15，2025/05/03，2025/05/19，2025/07/18，2025/07/28，2025/08/28，2025/09/22，2025/10/19，2025/10/26，2025/11/9，2025/12/30，2026/2/20</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2025/03/17，2025/03/28，2025/04/15，2025/04/19，2025/04/25，2025/05/01，2025/05/18，2025/05/25，2025/05/29，2025/06/05，2025/06/12，2025/06/22，2025/07/03，2025/07/11，2025/07/18，2025/07/22，2025/07/31，2025/08/01，2025/08/02，2025/08/03，2025/08/12，2025/09/03，2025/09/11，2025/09/18，2025/09/26，2025/10/03，2025/10/09，2025/10/20，2025/11/12，2025/12/7，2025/12/23，2026/1/5，2026/1/21，2026/1/29，2026/2/9</t>
+          <t>2025/03/17，2025/03/28，2025/04/15，2025/04/19，2025/04/25，2025/05/01，2025/05/18，2025/05/25，2025/05/29，2025/06/05，2025/06/12，2025/06/22，2025/07/03，2025/07/11，2025/07/18，2025/07/22，2025/07/31，2025/08/01，2025/08/02，2025/08/03，2025/08/12，2025/09/03，2025/09/11，2025/09/18，2025/09/26，2025/10/03，2025/10/09，2025/10/20，2025/11/12，2025/12/7，2025/12/23，2026/1/5，2026/1/21，2026/1/29，2026/2/9，2026/2/20</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -11515,7 +11515,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>2025/04/06，2025/04/25，2025/07/25，2025/08/28，2025/09/12</t>
+          <t>2025/04/06，2025/04/25，2025/07/25，2025/08/28，2025/09/12，2026/2/20</t>
         </is>
       </c>
       <c r="F298" t="inlineStr"/>
@@ -11526,10 +11526,14 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I298" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>BV1P3b9z2EZJ</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -13263,7 +13267,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>2025/04/15，2025/05/13，2025/07/14，2025/09/18，2026/1/1，2026/1/9</t>
+          <t>2025/04/15，2025/05/13，2025/07/14，2025/09/18，2026/1/1，2026/1/9，2026/2/20</t>
         </is>
       </c>
       <c r="F346" t="inlineStr"/>
@@ -13274,10 +13278,14 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I346" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>BV1narMBZEG9</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -29442,7 +29450,7 @@
       </c>
       <c r="E795" t="inlineStr">
         <is>
-          <t>2026/2/8，2026/2/9，2026/2/14</t>
+          <t>2026/2/8，2026/2/9，2026/2/14，2026/2/20</t>
         </is>
       </c>
       <c r="F795" t="inlineStr"/>
@@ -29453,7 +29461,7 @@
       </c>
       <c r="H795" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I795" t="inlineStr">
@@ -29739,6 +29747,72 @@
       <c r="I803" t="inlineStr">
         <is>
           <t>BV166ZBBQEWz</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr"/>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>退后</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr"/>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>周杰伦</t>
+        </is>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>2026/2/20</t>
+        </is>
+      </c>
+      <c r="F804" t="inlineStr"/>
+      <c r="G804" t="inlineStr">
+        <is>
+          <t>华语</t>
+        </is>
+      </c>
+      <c r="H804" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I804" t="inlineStr"/>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr"/>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>最近还好吗</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr"/>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>S.H.E</t>
+        </is>
+      </c>
+      <c r="E805" t="inlineStr">
+        <is>
+          <t>2026/2/20</t>
+        </is>
+      </c>
+      <c r="F805" t="inlineStr"/>
+      <c r="G805" t="inlineStr">
+        <is>
+          <t>华语</t>
+        </is>
+      </c>
+      <c r="H805" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I805" t="inlineStr">
+        <is>
+          <t>BV14Tf3BWEef</t>
         </is>
       </c>
     </row>

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -1502,7 +1502,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>BV1cG9pYkE8m</t>
+          <t>BV1cG9pYkE8m，BV1B1fGBjEvg</t>
         </is>
       </c>
     </row>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>BV19KmPBDERd</t>
+          <t>BV19KmPBDERd，BV1B1fGBjEtL</t>
         </is>
       </c>
     </row>
@@ -11531,7 +11531,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>BV1P3b9z2EZJ</t>
+          <t>BV1P3b9z2EZJ，BV1zkfGBEE1x</t>
         </is>
       </c>
     </row>
@@ -13283,7 +13283,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>BV1narMBZEG9</t>
+          <t>BV1narMBZEG9，BV1z6fGBSE1m</t>
         </is>
       </c>
     </row>
@@ -29466,7 +29466,7 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>BV1JncczQEuJ</t>
+          <t>BV1JncczQEuJ，BV1c6fGBDEG1</t>
         </is>
       </c>
     </row>
@@ -29779,7 +29779,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="I804" t="inlineStr"/>
+      <c r="I804" t="inlineStr">
+        <is>
+          <t>BV1zkfGBEELD</t>
+        </is>
+      </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr"/>

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I805"/>
+  <dimension ref="A1:I806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11624,7 +11624,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>2025/04/06，2025/04/19，2025/05/03，2025/08/01，2025/10/31</t>
+          <t>2025/04/06，2025/04/19，2025/05/03，2025/08/01，2025/10/31，2025/12/15，2026/2/22</t>
         </is>
       </c>
       <c r="F301" t="inlineStr"/>
@@ -11635,10 +11635,14 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I301" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>BV1SuqVB5EoV</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -16743,7 +16747,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>2025/05/17，2025/05/31，2025/06/15，2025/07/23，2025/09/11，2026/1/1，2026/2/10</t>
+          <t>2025/05/17，2025/05/31，2025/06/15，2025/07/23，2025/09/11，2026/1/1，2026/2/10，2026/2/22</t>
         </is>
       </c>
       <c r="F442" t="inlineStr"/>
@@ -16754,7 +16758,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -29314,7 +29318,7 @@
       </c>
       <c r="E791" t="inlineStr">
         <is>
-          <t>2026/2/2，2026/2/5，2026/2/9</t>
+          <t>2026/2/2，2026/2/5，2026/2/9，2026/2/22</t>
         </is>
       </c>
       <c r="F791" t="inlineStr"/>
@@ -29325,7 +29329,7 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
@@ -29819,6 +29823,37 @@
           <t>BV14Tf3BWEef</t>
         </is>
       </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr"/>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>持续瞬间的永恒</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr"/>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>鸣潮先约电台/jixwang/markmilian/Sophia</t>
+        </is>
+      </c>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>2026/2/22</t>
+        </is>
+      </c>
+      <c r="F806" t="inlineStr"/>
+      <c r="G806" t="inlineStr">
+        <is>
+          <t>英语</t>
+        </is>
+      </c>
+      <c r="H806" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I806" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I806"/>
+  <dimension ref="A1:I808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025/03/04，2025/05/01，2025/05/08，2025/05/26，2025/06/05，2025/06/23，2025/06/26，2025/07/03，2025/07/20，2025/07/26，2025/08/03，2025/08/12，2025/08/30，2025/09/21，2025/09/29，2025/11/9，2025/11/12，2025/11/27，2025/12/4，2025/12/28，2026/1/22，2026/2/2</t>
+          <t>2025/03/04，2025/05/01，2025/05/08，2025/05/26，2025/06/05，2025/06/23，2025/06/26，2025/07/03，2025/07/20，2025/07/26，2025/08/03，2025/08/12，2025/08/30，2025/09/21，2025/09/29，2025/11/9，2025/11/12，2025/11/27，2025/12/4，2025/12/28，2026/1/22，2026/2/2，2026/2/23</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025/03/04，2025/04/14，2025/05/09，2025/06/13，2025/06/19，2025/06/27，2025/07/10，2025/09/10，2025/09/19，2025/11/14，2025/12/31</t>
+          <t>2025/03/04，2025/04/14，2025/05/09，2025/06/13，2025/06/19，2025/06/27，2025/07/10，2025/09/10，2025/09/19，2025/11/14，2025/12/31，2026/2/23</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1380,12 +1380,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>BV1r4oLYfEjE</t>
+          <t>BV1r4oLYfEjE，BV1Asf6BvEo3</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025/03/04，2025/03/14，2025/04/15，2025/05/03，2025/05/19，2025/07/18，2025/07/28，2025/08/28，2025/09/22，2025/10/19，2025/10/26，2025/11/9，2025/12/30，2026/2/20</t>
+          <t>2025/03/04，2025/03/14，2025/04/15，2025/05/03，2025/05/19，2025/07/18，2025/07/28，2025/08/28，2025/09/22，2025/10/19，2025/10/26，2025/11/9，2025/12/30，2026/2/20，2026/2/23</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025/03/07，2025/03/17，2025/03/28，2025/03/29，2025/04/13，2025/04/15，2025/04/18，2025/04/28，2025/05/22，2025/06/02，2025/06/03，2025/06/10，2025/06/12，2025/06/20，2025/06/20，2025/06/27，2025/07/05，2025/07/09，2025/07/13，2025/08/04，2025/08/08，2025/08/12，2025/08/24，2025/09/06，2025/10/07，2025/10/24，2025/11/24，2025/12/4，2025/12/24，2026/1/15</t>
+          <t>2025/03/07，2025/03/17，2025/03/28，2025/03/29，2025/04/13，2025/04/15，2025/04/18，2025/04/28，2025/05/22，2025/06/02，2025/06/03，2025/06/10，2025/06/12，2025/06/20，2025/06/20，2025/06/27，2025/07/05，2025/07/09，2025/07/13，2025/08/04，2025/08/08，2025/08/12，2025/08/24，2025/09/06，2025/10/07，2025/10/24，2025/11/24，2025/12/4，2025/12/24，2026/1/15，2026/2/23</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025/03/07，2025/04/04，2025/04/12，2025/04/18，2025/04/24，2025/06/17，2025/06/19，2025/07/11，2025/07/18，2025/08/28，2025/09/05，2025/09/08，2025/09/27，2025/10/03，2025/12/11，2025/12/30，2026/1/21，2026/1/25，2026/2/10</t>
+          <t>2025/03/07，2025/04/04，2025/04/12，2025/04/18，2025/04/24，2025/06/17，2025/06/19，2025/07/11，2025/07/18，2025/08/28，2025/09/05，2025/09/08，2025/09/27，2025/10/03，2025/12/11，2025/12/30，2026/1/21，2026/1/25，2026/2/10，2026/2/23</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025/03/07，2025/04/11，2025/04/29，2025/08/01，2025/10/26，2026/2/19</t>
+          <t>2025/03/07，2025/04/11，2025/04/29，2025/08/01，2025/10/26，2026/2/19，2026/2/23</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025/03/09，2025/03/14，2025/04/07，2025/04/15，2025/04/27，2025/05/12，2025/05/27，2025/06/05，2025/06/08，2025/07/20，2025/08/01，2025/09/21，2025/09/28，2025/10/07，2025/10/18，2025/10/24，2025/11/10，2025/12/1，2026/1/16，2026/2/2</t>
+          <t>2025/03/09，2025/03/14，2025/04/07，2025/04/15，2025/04/27，2025/05/12，2025/05/27，2025/06/05，2025/06/08，2025/07/20，2025/08/01，2025/09/21，2025/09/28，2025/10/07，2025/10/18，2025/10/24，2025/11/10，2025/12/1，2026/1/16，2026/2/2，2026/2/23</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2025/03/17，2025/03/28，2025/04/15，2025/04/19，2025/04/25，2025/05/01，2025/05/18，2025/05/25，2025/05/29，2025/06/05，2025/06/12，2025/06/22，2025/07/03，2025/07/11，2025/07/18，2025/07/22，2025/07/31，2025/08/01，2025/08/02，2025/08/03，2025/08/12，2025/09/03，2025/09/11，2025/09/18，2025/09/26，2025/10/03，2025/10/09，2025/10/20，2025/11/12，2025/12/7，2025/12/23，2026/1/5，2026/1/21，2026/1/29，2026/2/9，2026/2/20</t>
+          <t>2025/03/17，2025/03/28，2025/04/15，2025/04/19，2025/04/25，2025/05/01，2025/05/18，2025/05/25，2025/05/29，2025/06/05，2025/06/12，2025/06/22，2025/07/03，2025/07/11，2025/07/18，2025/07/22，2025/07/31，2025/08/01，2025/08/02，2025/08/03，2025/08/12，2025/09/03，2025/09/11，2025/09/18，2025/09/26，2025/10/03，2025/10/09，2025/10/20，2025/11/12，2025/12/7，2025/12/23，2026/1/5，2026/1/21，2026/1/29，2026/2/9，2026/2/20，2026/2/23</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
@@ -5386,12 +5386,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>BV19KmPBDERd，BV1B1fGBjEtL</t>
+          <t>BV1A1fzBwEjQ，BV19KmPBDERd，BV1B1fGBjEtL</t>
         </is>
       </c>
     </row>
@@ -6228,7 +6228,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>2025/03/20，2025/05/19，2025/06/12，2025/06/19，2025/06/23，2025/07/11，2025/08/03，2025/08/12，2025/08/21，2025/09/15，2025/10/07，2025/12/2，2026/1/16，2026/2/2</t>
+          <t>2025/03/20，2025/05/19，2025/06/12，2025/06/19，2025/06/23，2025/07/11，2025/08/03，2025/08/12，2025/08/21，2025/09/15，2025/10/07，2025/12/2，2026/1/16，2026/2/2，2026/2/23</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -6239,7 +6239,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>2025/03/20，2025/04/04，2025/05/03，2025/05/22，2025/06/05，2025/07/25，2025/08/26，2025/08/16，2025/09/21，2025/10/03，2025/11/12，2026/1/23，2026/1/26，2026/2/7，2026/2/10</t>
+          <t>2025/03/20，2025/04/04，2025/05/03，2025/05/22，2025/06/05，2025/07/25，2025/08/26，2025/08/16，2025/09/21，2025/10/03，2025/11/12，2026/1/23，2026/1/26，2026/2/7，2026/2/10，2026/2/23</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -6395,7 +6395,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>2025/03/22，2025/04/05，2025/04/17，2025/04/21，2025/04/22，2025/04/25，2025/05/08，2025/05/15，2025/05/25，2025/05/29，2025/06/03，2025/06/13，2025/06/23，2025/07/06，2025/07/15，2025/08/03，2025/08/16，2025/09/03，2025/09/10，2025/09/30，2025/10/16，2025/10/22，2025/10/30，2025/11/18，2025/12/2，2025/12/5，2025/12/30，2026/1/23，2026/1/29</t>
+          <t>2025/03/22，2025/04/05，2025/04/17，2025/04/21，2025/04/22，2025/04/25，2025/05/08，2025/05/15，2025/05/25，2025/05/29，2025/06/03，2025/06/13，2025/06/23，2025/07/06，2025/07/15，2025/08/03，2025/08/16，2025/09/03，2025/09/10，2025/09/30，2025/10/16，2025/10/22，2025/10/30，2025/11/18，2025/12/2，2025/12/5，2025/12/30，2026/1/23，2026/1/29，2026/2/23</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -7376,12 +7376,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>BV1Xr2xBVEqN</t>
+          <t>BV1Xr2xBVEqN，BV1Csf6BeE7B</t>
         </is>
       </c>
     </row>
@@ -8229,7 +8229,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>2025/03/27，2025/04/03，2025/04/15，2025/04/24，2025/05/13，2025/06/02，2025/06/27，2025/07/14，2025/08/26，2025/09/02，2025/10/03，2025/10/17，2025/11/21，2026/2/14</t>
+          <t>2025/03/27，2025/04/03，2025/04/15，2025/04/24，2025/05/13，2025/06/02，2025/06/27，2025/07/14，2025/08/26，2025/09/02，2025/10/03，2025/10/17，2025/11/21，2026/2/14，2026/2/23</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -8240,12 +8240,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>BV1Z5UEBvEPF</t>
+          <t>BV1Z5UEBvEPF，BV12Ef6BBEgR</t>
         </is>
       </c>
     </row>
@@ -11624,7 +11624,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>2025/04/06，2025/04/19，2025/05/03，2025/08/01，2025/10/31，2025/12/15，2026/2/22</t>
+          <t>2025/04/06，2025/04/19，2025/05/03，2025/08/01，2025/10/31，2025/12/15，2026/2/22，2026/2/23</t>
         </is>
       </c>
       <c r="F301" t="inlineStr"/>
@@ -11635,7 +11635,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -12033,7 +12033,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>2025/04/08，2025/05/12，2025/08/22，2025/10/01，2025/10/17</t>
+          <t>2025/04/08，2025/05/12，2025/08/22，2025/10/01，2025/10/17，2026/2/23</t>
         </is>
       </c>
       <c r="F312" t="inlineStr"/>
@@ -12044,10 +12044,14 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I312" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>BV1cnWpzrEtD，BV1FSfzBbEpH</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -13057,7 +13061,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>2025/04/13，2025/07/13，2025/07/18，2025/08/02，2025/09/04，2025/09/12，2025/10/17，2025/11/28，2026/1/22</t>
+          <t>2025/04/13，2025/07/13，2025/07/18，2025/08/02，2025/09/04，2025/09/12，2025/10/17，2025/11/28，2026/1/22，2026/2/23</t>
         </is>
       </c>
       <c r="F340" t="inlineStr"/>
@@ -13068,10 +13072,14 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I340" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>BV1GBaQzcE39</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -13598,7 +13606,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>2025/04/17，2025/05/01，2025/05/26，2025/07/03，2025/07/27，2025/09/18，2025/10/17，2025/11/21，2026/1/12，2026/1/24，2026/2/19</t>
+          <t>2025/04/17，2025/05/01，2025/05/26，2025/07/03，2025/07/27，2025/09/18，2025/10/17，2025/11/21，2026/1/12，2026/1/24，2026/2/19，2026/2/23</t>
         </is>
       </c>
       <c r="F355" t="inlineStr"/>
@@ -13609,12 +13617,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>BV13E33zFES7</t>
+          <t>BV13E33zFES7，BV1Knf6BMELa</t>
         </is>
       </c>
     </row>
@@ -16763,7 +16771,7 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>BV1J67NzGEDg</t>
+          <t>BV1J67NzGEDg，BV173fNB4EZX</t>
         </is>
       </c>
     </row>
@@ -18755,7 +18763,7 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>2025/06/01，2026/1/23，2026/2/2</t>
+          <t>2025/06/01，2026/1/23，2026/2/2，2026/2/23</t>
         </is>
       </c>
       <c r="F498" t="inlineStr"/>
@@ -18766,12 +18774,12 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>BV1VuzuB1EQf</t>
+          <t>BV1w2fzBhEHL，BV1VuzuB1EQf</t>
         </is>
       </c>
     </row>
@@ -21954,7 +21962,7 @@
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>2025/07/14，2025/07/17，2025/07/18，2025/07/24，2025/07/28，2025/08/02，2025/08/03，2025/08/21，2025/09/05，2025/09/18，2025/09/30，2025/10/19，2025/11/3，2025/11/22，2026/1/5，2026/2/18</t>
+          <t>2025/07/14，2025/07/17，2025/07/18，2025/07/24，2025/07/28，2025/08/02，2025/08/03，2025/08/21，2025/09/05，2025/09/18，2025/09/30，2025/10/19，2025/11/3，2025/11/22，2026/1/5，2026/2/18，2026/2/23</t>
         </is>
       </c>
       <c r="F587" t="inlineStr"/>
@@ -21965,7 +21973,7 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
@@ -23554,7 +23562,7 @@
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>2025/09/10，2025/09/22，2025/09/24，2025/10/23，2025/12/6，2026/1/24，2026/2/5</t>
+          <t>2025/09/10，2025/09/22，2025/09/24，2025/10/23，2025/12/6，2026/1/24，2026/2/5，2026/2/23</t>
         </is>
       </c>
       <c r="F631" t="inlineStr"/>
@@ -23565,7 +23573,7 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
@@ -24235,7 +24243,7 @@
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>2025/09/17，2025/10/11，2025/10/13，2025/10/20，2025/10/25，2025/11/21，2025/12/17</t>
+          <t>2025/09/17，2025/10/11，2025/10/13，2025/10/20，2025/10/25，2025/11/21，2025/12/17，2026/2/23</t>
         </is>
       </c>
       <c r="F650" t="inlineStr"/>
@@ -24246,10 +24254,14 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I650" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>BV1aZWyzREbb，BV1mLf6B6EYy</t>
+        </is>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -26632,7 +26644,7 @@
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>2025/10/24，2025/10/25，2025/10/28，2025/11/12，2025/11/26，2026/1/2，2026/1/5，2026/1/9</t>
+          <t>2025/10/24，2025/10/25，2025/10/28，2025/11/12，2025/11/26，2026/1/2，2026/1/5，2026/1/9，2026/2/23</t>
         </is>
       </c>
       <c r="F717" t="inlineStr"/>
@@ -26643,12 +26655,12 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>BV1TBihBsEo5</t>
+          <t>BV1TBihBsEo5，BV1ksf6BeE2k</t>
         </is>
       </c>
     </row>
@@ -26710,7 +26722,7 @@
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>2025/10/25，2025/12/2</t>
+          <t>2025/10/25，2025/12/2，2026/2/23</t>
         </is>
       </c>
       <c r="F719" t="inlineStr"/>
@@ -26721,10 +26733,14 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I719" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I719" t="inlineStr">
+        <is>
+          <t>BV1oV2iBGEn4</t>
+        </is>
+      </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
@@ -28504,7 +28520,7 @@
       </c>
       <c r="E769" t="inlineStr">
         <is>
-          <t>2025/12/19，2025/12/23，2025/12/26，2026/1/2，2026/1/5，2026/1/11，2026/1/25，2026/2/9</t>
+          <t>2025/12/19，2025/12/23，2025/12/26，2026/1/2，2026/1/5，2026/1/11，2026/1/25，2026/2/9，2026/2/23</t>
         </is>
       </c>
       <c r="F769" t="inlineStr"/>
@@ -28515,12 +28531,12 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>BV1oKiwBXE1L</t>
+          <t>BV1oKiwBXE1L，BV1Csf6BeEYe</t>
         </is>
       </c>
     </row>
@@ -28660,7 +28676,7 @@
       </c>
       <c r="E773" t="inlineStr">
         <is>
-          <t>2025/12/26，2026/1/10，2026/1/22，2026/1/23，2026/1/31，2026/2/10</t>
+          <t>2025/12/26，2026/1/10，2026/1/22，2026/1/23，2026/1/31，2026/2/10，2026/2/23</t>
         </is>
       </c>
       <c r="F773" t="inlineStr"/>
@@ -28671,7 +28687,7 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
@@ -29217,7 +29233,7 @@
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t>2026/1/25，2026/1/30，2026/2/2，2026/2/8，2026/2/19</t>
+          <t>2026/1/25，2026/1/30，2026/2/2，2026/2/8，2026/2/19，2026/2/23</t>
         </is>
       </c>
       <c r="F788" t="inlineStr"/>
@@ -29228,7 +29244,7 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
@@ -29489,7 +29505,7 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>2026/2/8，2026/2/9，2026/2/12，2026/2/14，2026/2/19</t>
+          <t>2026/2/8，2026/2/9，2026/2/12，2026/2/14，2026/2/19，2026/2/23</t>
         </is>
       </c>
       <c r="F796" t="inlineStr"/>
@@ -29500,12 +29516,12 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>BV1W4cuzSE8Y</t>
+          <t>BV1W4cuzSE8Y，BV12Ef6BBE5C</t>
         </is>
       </c>
     </row>
@@ -29839,7 +29855,7 @@
       </c>
       <c r="E806" t="inlineStr">
         <is>
-          <t>2026/2/22</t>
+          <t>2026/2/22，2026/2/23</t>
         </is>
       </c>
       <c r="F806" t="inlineStr"/>
@@ -29850,10 +29866,84 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I806" t="inlineStr">
+        <is>
+          <t>BV1K7f6BgE9r</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr"/>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>安静</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr"/>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>周杰伦</t>
+        </is>
+      </c>
+      <c r="E807" t="inlineStr">
+        <is>
+          <t>2026/2/23</t>
+        </is>
+      </c>
+      <c r="F807" t="inlineStr"/>
+      <c r="G807" t="inlineStr">
+        <is>
+          <t>华语</t>
+        </is>
+      </c>
+      <c r="H807" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I806" t="inlineStr"/>
+      <c r="I807" t="inlineStr">
+        <is>
+          <t>BV11nf6BTE4b</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr"/>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>可惜没如果</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr"/>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>林俊杰</t>
+        </is>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>2026/2/23</t>
+        </is>
+      </c>
+      <c r="F808" t="inlineStr"/>
+      <c r="G808" t="inlineStr">
+        <is>
+          <t>华语</t>
+        </is>
+      </c>
+      <c r="H808" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I808" t="inlineStr">
+        <is>
+          <t>BV1w1fzBwEhj</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -2835,7 +2835,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025/03/07，2025/03/21，2025/04/04，2025/04/18，2025/04/29，2025/05/08，2025/05/22，2025/05/25，2025/06/06，2025/06/08，2025/06/13，2025/06/13，2025/06/26，2025/07/03，2025/07/05，2025/07/11，2025/07/14，2025/07/26，2025/08/02，2025/08/12，2025/08/21，2025/09/17，2025/11/9，2025/12/4，2025/12/16，2025/12/31，2026/1/9，2026/1/15，2026/1/21，2026/1/23，2026/1/29，2026/2/2，2026/2/7，2026/2/10，2026/2/14，2026/2/19</t>
+          <t>2025/03/07，2025/03/21，2025/04/04，2025/04/18，2025/04/29，2025/05/08，2025/05/22，2025/05/25，2025/06/06，2025/06/08，2025/06/13，2025/06/13，2025/06/26，2025/07/03，2025/07/05，2025/07/11，2025/07/14，2025/07/26，2025/08/02，2025/08/12，2025/08/21，2025/09/17，2025/11/9，2025/12/4，2025/12/16，2025/12/31，2026/1/9，2026/1/15，2026/1/21，2026/1/23，2026/1/29，2026/2/2，2026/2/7，2026/2/10，2026/2/14，2026/2/19，2026/2/24</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2025/03/13，2025/03/14，2025/03/29，2025/04/19，2025/04/26，2025/05/09，2025/05/19，2025/05/22，2025/05/25，2025/07/03，2025/07/05，2025/07/28，2025/08/04，2025/08/21，2025/09/30，2025/11/14，2025/11/17，2026/2/10</t>
+          <t>2025/03/13，2025/03/14，2025/03/29，2025/04/19，2025/04/26，2025/05/09，2025/05/19，2025/05/22，2025/05/25，2025/07/03，2025/07/05，2025/07/28，2025/08/04，2025/08/21，2025/09/30，2025/11/14，2025/11/17，2026/2/10，2026/2/24</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -28598,7 +28598,7 @@
       </c>
       <c r="E771" t="inlineStr">
         <is>
-          <t>2025/12/26，2026/1/5，2026/1/19，2026/1/21，2026/1/22，2026/1/24，2026/2/7，2026/2/19</t>
+          <t>2025/12/26，2026/1/5，2026/1/19，2026/1/21，2026/1/22，2026/1/24，2026/2/7，2026/2/19，2026/2/24，2026/2/24</t>
         </is>
       </c>
       <c r="F771" t="inlineStr"/>
@@ -28609,12 +28609,12 @@
       </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>BV1pfzcBgERV</t>
+          <t>BV1pfzcBgERV，BV1aff2BvEZF</t>
         </is>
       </c>
     </row>
@@ -29505,7 +29505,7 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>2026/2/8，2026/2/9，2026/2/12，2026/2/14，2026/2/19，2026/2/23</t>
+          <t>2026/2/8，2026/2/9，2026/2/12，2026/2/14，2026/2/19，2026/2/23，2026/2/24</t>
         </is>
       </c>
       <c r="F796" t="inlineStr"/>
@@ -29516,7 +29516,7 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
@@ -29614,7 +29614,7 @@
       </c>
       <c r="E799" t="inlineStr">
         <is>
-          <t>2026/2/14</t>
+          <t>2026/2/14，2026/2/24</t>
         </is>
       </c>
       <c r="F799" t="inlineStr"/>
@@ -29625,7 +29625,7 @@
       </c>
       <c r="H799" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I799" t="inlineStr">
@@ -29855,7 +29855,7 @@
       </c>
       <c r="E806" t="inlineStr">
         <is>
-          <t>2026/2/22，2026/2/23</t>
+          <t>2026/2/22，2026/2/23，2026/2/24</t>
         </is>
       </c>
       <c r="F806" t="inlineStr"/>
@@ -29866,7 +29866,7 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -940,7 +940,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025/03/04，2025/03/12，2025/03/17，2025/03/28，2025/04/07，2025/04/19，2025/04/26，2025/05/06，2025/05/16，2025/05/22，2025/05/30，2025/06/21，2025/07/06，2025/08/22，2025/09/06，2025/09/21，2025/10/23，2025/11/10，2025/11/13，2025/12/4，2026/1/24，2026/1/24，2026/2/19</t>
+          <t>2025/03/04，2025/03/12，2025/03/17，2025/03/28，2025/04/07，2025/04/19，2025/04/26，2025/05/06，2025/05/16，2025/05/22，2025/05/30，2025/06/21，2025/07/06，2025/08/22，2025/09/06，2025/09/21，2025/10/23，2025/11/10，2025/11/13，2025/12/4，2026/1/24，2026/1/24，2026/2/19，2026/2/25</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -951,7 +951,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025/03/04，2025/04/24，2025/05/25，2025/06/19，2025/06/20</t>
+          <t>2025/03/04，2025/04/24，2025/05/25，2025/06/19，2025/06/20，2025/07/14</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -1926,10 +1926,14 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>BV1VxNdzrEGV</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2024,7 +2028,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025/03/04，2025/03/17，2025/03/21，2025/04/04，2025/04/14，2025/04/19，2025/04/25，2025/05/08，2025/05/09，2025/05/19，2025/05/27，2025/05/29，2025/06/08，2025/06/09，2025/07/11，2025/07/14，2025/08/04，2025/08/08，2025/08/12，2025/09/18，2025/10/03，2025/10/10，2025/10/23，2025/11/13，2025/11/28，2025/12/13，2025/12/28，2026/1/9，2026/1/28</t>
+          <t>2025/03/04，2025/03/17，2025/03/21，2025/04/04，2025/04/14，2025/04/19，2025/04/25，2025/05/08，2025/05/09，2025/05/19，2025/05/27，2025/05/29，2025/06/08，2025/06/09，2025/07/11，2025/07/14，2025/08/04，2025/08/08，2025/08/12，2025/09/18，2025/10/03，2025/10/10，2025/10/23，2025/11/13，2025/11/28，2025/12/13，2025/12/28，2026/1/9，2026/1/28，2026/2/25</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2035,7 +2039,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2102,7 +2106,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025/03/06，2025/03/21，2025/04/19，2025/05/11，2025/06/03，2026/1/19，2026/1/25</t>
+          <t>2025/03/06，2025/03/21，2025/04/19，2025/05/11，2025/06/03，2026/1/19，2026/1/25，2026/2/25</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2113,7 +2117,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2141,7 +2145,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025/03/06，2025/04/03，2025/04/14，2025/05/05，2025/05/15，2025/05/29，2025/06/20，2025/06/27，2025/08/07，2025/08/24，2025/09/17，2025/10/16，2025/11/10，2025/12/9，2025/12/17，2026/1/21，2026/2/12</t>
+          <t>2025/03/06，2025/04/03，2025/04/14，2025/05/05，2025/05/15，2025/05/29，2025/06/20，2025/06/27，2025/08/07，2025/08/24，2025/09/17，2025/10/16，2025/11/10，2025/12/9，2025/12/17，2026/1/21，2026/2/12，2026/2/25</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2152,7 +2156,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2305,7 +2309,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025/03/06，2025/04/06，2025/04/13，2025/04/22，2025/05/08，2025/05/09，2025/05/30，2025/06/08，2025/08/04，2025/09/18，2025/10/12，2025/11/21，2026/1/24，2026/2/14</t>
+          <t>2025/03/06，2025/04/06，2025/04/13，2025/04/22，2025/05/08，2025/05/09，2025/05/30，2025/06/08，2025/08/04，2025/09/18，2025/10/12，2025/11/21，2026/1/24，2026/2/14，2026/2/25</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -2316,7 +2320,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2835,7 +2839,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025/03/07，2025/03/21，2025/04/04，2025/04/18，2025/04/29，2025/05/08，2025/05/22，2025/05/25，2025/06/06，2025/06/08，2025/06/13，2025/06/13，2025/06/26，2025/07/03，2025/07/05，2025/07/11，2025/07/14，2025/07/26，2025/08/02，2025/08/12，2025/08/21，2025/09/17，2025/11/9，2025/12/4，2025/12/16，2025/12/31，2026/1/9，2026/1/15，2026/1/21，2026/1/23，2026/1/29，2026/2/2，2026/2/7，2026/2/10，2026/2/14，2026/2/19，2026/2/24</t>
+          <t>2025/03/07，2025/03/21，2025/04/04，2025/04/18，2025/04/29，2025/05/08，2025/05/22，2025/05/25，2025/06/06，2025/06/08，2025/06/13，2025/06/13，2025/06/26，2025/07/03，2025/07/05，2025/07/11，2025/07/14，2025/07/26，2025/08/02，2025/08/12，2025/08/21，2025/09/17，2025/11/9，2025/12/4，2025/12/16，2025/12/31，2026/1/9，2026/1/15，2026/1/21，2026/1/23，2026/1/29，2026/2/2，2026/2/7，2026/2/10，2026/2/14，2026/2/19，2026/2/24，2026/2/25</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -2846,7 +2850,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -6228,7 +6232,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>2025/03/20，2025/05/19，2025/06/12，2025/06/19，2025/06/23，2025/07/11，2025/08/03，2025/08/12，2025/08/21，2025/09/15，2025/10/07，2025/12/2，2026/1/16，2026/2/2，2026/2/23</t>
+          <t>2025/03/20，2025/05/19，2025/06/12，2025/06/19，2025/06/23，2025/07/11，2025/08/03，2025/08/12，2025/08/21，2025/09/15，2025/10/07，2025/12/2，2026/1/16，2026/2/2，2026/2/23，2026/2/25</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -6239,7 +6243,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -6384,7 +6388,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>2025/03/20，2025/04/04，2025/05/03，2025/05/22，2025/06/05，2025/07/25，2025/08/26，2025/08/16，2025/09/21，2025/10/03，2025/11/12，2026/1/23，2026/1/26，2026/2/7，2026/2/10，2026/2/23</t>
+          <t>2025/03/20，2025/04/04，2025/05/03，2025/05/22，2025/06/05，2025/07/25，2025/08/26，2025/08/16，2025/09/21，2025/10/03，2025/11/12，2026/1/23，2026/1/26，2026/2/7，2026/2/10，2026/2/23，2026/2/25</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -6395,7 +6399,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -8229,7 +8233,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>2025/03/27，2025/04/03，2025/04/15，2025/04/24，2025/05/13，2025/06/02，2025/06/27，2025/07/14，2025/08/26，2025/09/02，2025/10/03，2025/10/17，2025/11/21，2026/2/14，2026/2/23</t>
+          <t>2025/03/27，2025/04/03，2025/04/15，2025/04/24，2025/05/13，2025/06/02，2025/06/27，2025/07/14，2025/08/26，2025/09/02，2025/10/03，2025/10/17，2025/11/21，2026/2/14，2026/2/23，2026/2/25</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -8240,7 +8244,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -10009,7 +10013,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>2025/04/01，2025/04/28，2025/05/22，2025/06/08，2025/06/27，2025/07/08，2025/08/01，2025/09/03，2025/09/28，2025/10/16，2025/10/23，2025/10/31，2025/12/19，2025/12/31，2026/1/21</t>
+          <t>2025/04/01，2025/04/28，2025/05/22，2025/06/08，2025/06/27，2025/07/08，2025/08/01，2025/09/03，2025/09/28，2025/10/16，2025/10/23，2025/10/31，2025/12/19，2025/12/31，2026/1/21，2026/2/25</t>
         </is>
       </c>
       <c r="F256" t="inlineStr"/>
@@ -10020,10 +10024,14 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I256" t="inlineStr"/>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>BV1ocznBSE1q</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -17008,7 +17016,7 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>2025/05/18</t>
+          <t>2025/05/18，2026/2/25</t>
         </is>
       </c>
       <c r="F449" t="inlineStr"/>
@@ -17019,10 +17027,14 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I449" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>BV1HENXzUEiK</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -17872,7 +17884,7 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>2025/05/27，2025/05/29，2025/05/30，2025/05/31，2025/06/02，2025/06/03，2025/06/06，2025/06/08，2025/06/13，2025/06/13，2025/06/26，2025/07/03，2025/07/11，2025/07/22，2025/08/21，2025/09/10，2025/09/26，2025/10/03，2025/10/11，2025/10/26，2025/11/7，2025/12/7，2025/12/23，2026/1/9，2026/1/24，2026/2/9</t>
+          <t>2025/05/27，2025/05/29，2025/05/30，2025/05/31，2025/06/02，2025/06/03，2025/06/06，2025/06/08，2025/06/13，2025/06/13，2025/06/26，2025/07/03，2025/07/11，2025/07/22，2025/08/21，2025/09/10，2025/09/26，2025/10/03，2025/10/11，2025/10/26，2025/11/7，2025/12/7，2025/12/23，2026/1/9，2026/1/24，2026/2/9，2026/2/25</t>
         </is>
       </c>
       <c r="F473" t="inlineStr"/>
@@ -17883,7 +17895,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -21246,7 +21258,7 @@
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>2025/07/03，2025/07/07，2025/07/26，2025/08/28，2025/09/14，2025/10/11，2025/11/26，2025/12/9，2026/1/9，2026/1/23，2026/2/12</t>
+          <t>2025/07/03，2025/07/07，2025/07/26，2025/08/28，2025/09/14，2025/10/11，2025/11/26，2025/12/9，2026/1/9，2026/1/23，2026/2/12，2026/2/25</t>
         </is>
       </c>
       <c r="F567" t="inlineStr"/>
@@ -21257,7 +21269,7 @@
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
@@ -21985,23 +21997,23 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>588</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>飞鸟与蝉</t>
+          <t>明天，你好</t>
         </is>
       </c>
       <c r="C588" t="inlineStr"/>
       <c r="D588" t="inlineStr">
         <is>
-          <t>任然</t>
+          <t>牛奶咖啡</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>2025/07/14</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="F588" t="inlineStr"/>
@@ -22020,23 +22032,23 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>明天，你好</t>
+          <t>绝不认输</t>
         </is>
       </c>
       <c r="C589" t="inlineStr"/>
       <c r="D589" t="inlineStr">
         <is>
-          <t>牛奶咖啡</t>
+          <t>王绎龙</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>2025/07/15</t>
+          <t>2025/07/15，2026/1/5，2026/1/10，2026/1/25，2026/2/10</t>
         </is>
       </c>
       <c r="F589" t="inlineStr"/>
@@ -22047,31 +22059,35 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I589" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>BV1yM6UBkE2q</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>绝不认输</t>
+          <t>讨厌</t>
         </is>
       </c>
       <c r="C590" t="inlineStr"/>
       <c r="D590" t="inlineStr">
         <is>
-          <t>王绎龙</t>
+          <t>Fine乐团</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>2025/07/15，2026/1/5，2026/1/10，2026/1/25，2026/2/10</t>
+          <t>2025/07/17，2025/07/18，2025/07/24，2025/07/26，2025/07/31，2025/09/26，2025/09/29，2025/10/09，2025/12/26，2026/1/9</t>
         </is>
       </c>
       <c r="F590" t="inlineStr"/>
@@ -22082,46 +22098,42 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I590" t="inlineStr">
-        <is>
-          <t>BV1yM6UBkE2q</t>
-        </is>
-      </c>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>讨厌</t>
+          <t>Stronger Than You(Frisk Parody)</t>
         </is>
       </c>
       <c r="C591" t="inlineStr"/>
       <c r="D591" t="inlineStr">
         <is>
-          <t>Fine乐团</t>
+          <t>Rachie</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>2025/07/17，2025/07/18，2025/07/24，2025/07/26，2025/07/31，2025/09/26，2025/09/29，2025/10/09，2025/12/26，2026/1/9</t>
+          <t>2025/07/17，2025/09/06，2026/2/17</t>
         </is>
       </c>
       <c r="F591" t="inlineStr"/>
       <c r="G591" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I591" t="inlineStr"/>
@@ -22129,103 +22141,103 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Stronger Than You(Frisk Parody)</t>
+          <t>夏霞</t>
         </is>
       </c>
       <c r="C592" t="inlineStr"/>
       <c r="D592" t="inlineStr">
         <is>
-          <t>Rachie</t>
+          <t>あたらよ</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>2025/07/17，2025/09/06，2026/2/17</t>
+          <t>2025/07/17，2025/07/24，2025/07/28，2025/08/01，2025/08/04，2025/08/09，2025/08/13，2025/08/26，2025/08/29，2025/09/19，2025/09/29，2025/10/11，2025/10/22，2025/10/28，2025/11/10，2025/11/28，2025/12/16，2026/2/19</t>
         </is>
       </c>
       <c r="F592" t="inlineStr"/>
       <c r="G592" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>日语</t>
         </is>
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I592" t="inlineStr"/>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I592" t="inlineStr">
+        <is>
+          <t>BV1uhbPzSE6S</t>
+        </is>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>593</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>夏霞</t>
+          <t>孤单北半球</t>
         </is>
       </c>
       <c r="C593" t="inlineStr"/>
       <c r="D593" t="inlineStr">
         <is>
-          <t>あたらよ</t>
+          <t>欧得洋</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>2025/07/17，2025/07/24，2025/07/28，2025/08/01，2025/08/04，2025/08/09，2025/08/13，2025/08/26，2025/08/29，2025/09/19，2025/09/29，2025/10/11，2025/10/22，2025/10/28，2025/11/10，2025/11/28，2025/12/16，2026/2/19</t>
+          <t>2025/07/20</t>
         </is>
       </c>
       <c r="F593" t="inlineStr"/>
       <c r="G593" t="inlineStr">
         <is>
-          <t>日语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="I593" t="inlineStr">
-        <is>
-          <t>BV1uhbPzSE6S</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>孤单北半球</t>
+          <t>Girl on Fire</t>
         </is>
       </c>
       <c r="C594" t="inlineStr"/>
       <c r="D594" t="inlineStr">
         <is>
-          <t>欧得洋</t>
+          <t>Alicia Keys</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>2025/07/20</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="F594" t="inlineStr"/>
       <c r="G594" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H594" t="inlineStr">
@@ -22238,18 +22250,18 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Girl on Fire</t>
+          <t>Haunted</t>
         </is>
       </c>
       <c r="C595" t="inlineStr"/>
       <c r="D595" t="inlineStr">
         <is>
-          <t>Alicia Keys</t>
+          <t>Taylor Swift</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -22273,12 +22285,12 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Haunted</t>
+          <t>The Story of Us</t>
         </is>
       </c>
       <c r="C596" t="inlineStr"/>
@@ -22289,7 +22301,7 @@
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>2025/07/21</t>
+          <t>2025/07/21，2025/09/08</t>
         </is>
       </c>
       <c r="F596" t="inlineStr"/>
@@ -22300,7 +22312,7 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I596" t="inlineStr"/>
@@ -22308,12 +22320,12 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>The Story of Us</t>
+          <t>Better Than Revenge</t>
         </is>
       </c>
       <c r="C597" t="inlineStr"/>
@@ -22324,7 +22336,7 @@
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>2025/07/21，2025/09/08</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="F597" t="inlineStr"/>
@@ -22335,7 +22347,7 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I597" t="inlineStr"/>
@@ -22343,58 +22355,62 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Better Than Revenge</t>
+          <t>童话</t>
         </is>
       </c>
       <c r="C598" t="inlineStr"/>
       <c r="D598" t="inlineStr">
         <is>
-          <t>Taylor Swift</t>
+          <t>光良</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>2025/07/21</t>
+          <t>2025/07/23，2025/12/12，2026/2/25</t>
         </is>
       </c>
       <c r="F598" t="inlineStr"/>
       <c r="G598" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I598" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I598" t="inlineStr">
+        <is>
+          <t>BV1opmUBmE8R</t>
+        </is>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>599</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>童话</t>
+          <t>讨厌红楼梦</t>
         </is>
       </c>
       <c r="C599" t="inlineStr"/>
       <c r="D599" t="inlineStr">
         <is>
-          <t>光良</t>
+          <t>陶喆</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>2025/07/23，2025/12/12</t>
+          <t>2025/07/24，2025/07/26，2025/07/28，2025/07/31，2025/08/04，2025/08/07，2025/08/12，2025/08/22，2025/09/17，2025/09/11，2025/10/07，2025/11/12，2026/1/14，2026/2/7</t>
         </is>
       </c>
       <c r="F599" t="inlineStr"/>
@@ -22405,113 +22421,113 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I599" t="inlineStr"/>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I599" t="inlineStr">
+        <is>
+          <t>BV1UkbkzREbu</t>
+        </is>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>600</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>讨厌红楼梦</t>
-        </is>
-      </c>
-      <c r="C600" t="inlineStr"/>
+          <t>One Spot</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>美美桑内</t>
+        </is>
+      </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>陶喆</t>
+          <t>沈佳润</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>2025/07/24，2025/07/26，2025/07/28，2025/07/31，2025/08/04，2025/08/07，2025/08/12，2025/08/22，2025/09/17，2025/09/11，2025/10/07，2025/11/12，2026/1/14，2026/2/7</t>
+          <t>2025/07/26，2025/07/28，2025/08/26，2025/09/10，2026/2/19</t>
         </is>
       </c>
       <c r="F600" t="inlineStr"/>
       <c r="G600" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>韩语</t>
         </is>
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>BV1UkbkzREbu</t>
+          <t>BV14L8nzZEcB</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>601</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>One Spot</t>
-        </is>
-      </c>
-      <c r="C601" t="inlineStr">
-        <is>
-          <t>美美桑内</t>
-        </is>
-      </c>
+          <t>有何不可</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr"/>
       <c r="D601" t="inlineStr">
         <is>
-          <t>沈佳润</t>
+          <t>许嵩</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>2025/07/26，2025/07/28，2025/08/26，2025/09/10，2026/2/19</t>
+          <t>2025/07/26</t>
         </is>
       </c>
       <c r="F601" t="inlineStr"/>
       <c r="G601" t="inlineStr">
         <is>
-          <t>韩语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I601" t="inlineStr">
-        <is>
-          <t>BV14L8nzZEcB</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>602</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>有何不可</t>
+          <t>找自己</t>
         </is>
       </c>
       <c r="C602" t="inlineStr"/>
       <c r="D602" t="inlineStr">
         <is>
-          <t>许嵩</t>
+          <t>陶喆</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>2025/07/26</t>
+          <t>2025/07/26，2025/09/24，2025/10/28，2025/11/12，2025/12/16，2026/1/14，2026/1/30</t>
         </is>
       </c>
       <c r="F602" t="inlineStr"/>
@@ -22522,81 +22538,81 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I602" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>BV146rrBaERP</t>
+        </is>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>603</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>找自己</t>
+          <t>月半小夜曲</t>
         </is>
       </c>
       <c r="C603" t="inlineStr"/>
       <c r="D603" t="inlineStr">
         <is>
-          <t>陶喆</t>
+          <t>李克勤</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
         <is>
-          <t>2025/07/26，2025/09/24，2025/10/28，2025/11/12，2025/12/16，2026/1/14，2026/1/30</t>
+          <t>2025/07/26</t>
         </is>
       </c>
       <c r="F603" t="inlineStr"/>
       <c r="G603" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>粤语</t>
         </is>
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I603" t="inlineStr">
-        <is>
-          <t>BV146rrBaERP</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>604</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>月半小夜曲</t>
+          <t>Good Time</t>
         </is>
       </c>
       <c r="C604" t="inlineStr"/>
       <c r="D604" t="inlineStr">
         <is>
-          <t>李克勤</t>
+          <t>Owl City/Carly Rae Jepsen</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>2025/07/26</t>
+          <t>2025/07/26，2025/08/08</t>
         </is>
       </c>
       <c r="F604" t="inlineStr"/>
       <c r="G604" t="inlineStr">
         <is>
-          <t>粤语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I604" t="inlineStr"/>
@@ -22604,34 +22620,34 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>605</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Good Time</t>
+          <t>痒</t>
         </is>
       </c>
       <c r="C605" t="inlineStr"/>
       <c r="D605" t="inlineStr">
         <is>
-          <t>Owl City/Carly Rae Jepsen</t>
+          <t>黄龄</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t>2025/07/26，2025/08/08</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="F605" t="inlineStr"/>
       <c r="G605" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I605" t="inlineStr"/>
@@ -22639,23 +22655,23 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>606</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>痒</t>
+          <t>恋爱告急</t>
         </is>
       </c>
       <c r="C606" t="inlineStr"/>
       <c r="D606" t="inlineStr">
         <is>
-          <t>黄龄</t>
+          <t>鞠婧祎</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>2025/07/28</t>
+          <t>2025/07/31，2025/08/01，2025/08/04，2025/08/09，2025/08/13，2025/08/21，2025/08/29，2025/09/10，2025/09/30，2025/10/30，2025/11/14，2025/12/24，2026/1/19，2026/2/12，2026/2/14</t>
         </is>
       </c>
       <c r="F606" t="inlineStr"/>
@@ -22666,31 +22682,35 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I606" t="inlineStr"/>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>BV1kfcqzhEv6</t>
+        </is>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>恋爱告急</t>
+          <t>小乌龟</t>
         </is>
       </c>
       <c r="C607" t="inlineStr"/>
       <c r="D607" t="inlineStr">
         <is>
-          <t>鞠婧祎</t>
+          <t>张栋梁</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>2025/07/31，2025/08/01，2025/08/04，2025/08/09，2025/08/13，2025/08/21，2025/08/29，2025/09/10，2025/09/30，2025/10/30，2025/11/14，2025/12/24，2026/1/19，2026/2/12，2026/2/14</t>
+          <t>2025/07/31，2025/09/12</t>
         </is>
       </c>
       <c r="F607" t="inlineStr"/>
@@ -22701,46 +22721,42 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I607" t="inlineStr">
-        <is>
-          <t>BV1kfcqzhEv6</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>小乌龟</t>
+          <t>Gone</t>
         </is>
       </c>
       <c r="C608" t="inlineStr"/>
       <c r="D608" t="inlineStr">
         <is>
-          <t>张栋梁</t>
+          <t>ROSÉ</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>2025/07/31，2025/09/12</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="F608" t="inlineStr"/>
       <c r="G608" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I608" t="inlineStr"/>
@@ -22748,34 +22764,34 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>609</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Gone</t>
+          <t>Heaven</t>
         </is>
       </c>
       <c r="C609" t="inlineStr"/>
       <c r="D609" t="inlineStr">
         <is>
-          <t>ROSÉ</t>
+          <t>Ailee</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/02，2025/12/2</t>
         </is>
       </c>
       <c r="F609" t="inlineStr"/>
       <c r="G609" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>韩语</t>
         </is>
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I609" t="inlineStr"/>
@@ -22783,23 +22799,23 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>610</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Heaven</t>
+          <t>Blueming</t>
         </is>
       </c>
       <c r="C610" t="inlineStr"/>
       <c r="D610" t="inlineStr">
         <is>
-          <t>Ailee</t>
+          <t>IU</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>2025/08/02，2025/12/2</t>
+          <t>2025/08/02，2025/10/12，2025/12/4，2026/1/9，2026/2/9</t>
         </is>
       </c>
       <c r="F610" t="inlineStr"/>
@@ -22810,70 +22826,70 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I610" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>BV1BV2LBXEVh</t>
+        </is>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Blueming</t>
+          <t>彩色的黑</t>
         </is>
       </c>
       <c r="C611" t="inlineStr"/>
       <c r="D611" t="inlineStr">
         <is>
-          <t>IU</t>
+          <t>吉克隽逸</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>2025/08/02，2025/10/12，2025/12/4，2026/1/9，2026/2/9</t>
+          <t>2025/08/04，2025/08/21，2025/11/28</t>
         </is>
       </c>
       <c r="F611" t="inlineStr"/>
       <c r="G611" t="inlineStr">
         <is>
-          <t>韩语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I611" t="inlineStr">
-        <is>
-          <t>BV1BV2LBXEVh</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>彩色的黑</t>
+          <t>Super Style</t>
         </is>
       </c>
       <c r="C612" t="inlineStr"/>
       <c r="D612" t="inlineStr">
         <is>
-          <t>吉克隽逸</t>
+          <t>SpeXial</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>2025/08/04，2025/08/21，2025/11/28</t>
+          <t>2025/08/04</t>
         </is>
       </c>
       <c r="F612" t="inlineStr"/>
@@ -22884,7 +22900,7 @@
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I612" t="inlineStr"/>
@@ -22892,23 +22908,23 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Super Style</t>
+          <t>恋爱困难少女</t>
         </is>
       </c>
       <c r="C613" t="inlineStr"/>
       <c r="D613" t="inlineStr">
         <is>
-          <t>SpeXial</t>
+          <t>ChiliChill</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>2025/08/04</t>
+          <t>2025/08/09，2025/08/10，2025/08/13，2025/08/22，2025/08/25，2025/09/03，2025/09/05，2025/09/20，2025/09/29，2025/10/05，2025/10/22，2025/11/14，2025/12/2，2025/12/17，2026/1/14，2026/2/2</t>
         </is>
       </c>
       <c r="F613" t="inlineStr"/>
@@ -22919,34 +22935,42 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I613" t="inlineStr"/>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>BV1u4bwzyEez</t>
+        </is>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>恋爱困难少女</t>
+          <t>原创曲（未命名）</t>
         </is>
       </c>
       <c r="C614" t="inlineStr"/>
       <c r="D614" t="inlineStr">
         <is>
-          <t>ChiliChill</t>
+          <t>三理Mit3uri</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>2025/08/09，2025/08/10，2025/08/13，2025/08/22，2025/08/25，2025/09/03，2025/09/05，2025/09/20，2025/09/29，2025/10/05，2025/10/22，2025/11/14，2025/12/2，2025/12/17，2026/1/14，2026/2/2</t>
-        </is>
-      </c>
-      <c r="F614" t="inlineStr"/>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>三理第一首原创曲</t>
+        </is>
+      </c>
       <c r="G614" t="inlineStr">
         <is>
           <t>华语</t>
@@ -22954,30 +22978,26 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I614" t="inlineStr">
-        <is>
-          <t>BV1u4bwzyEez</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>原创曲（未命名）</t>
+          <t>生日快乐歌</t>
         </is>
       </c>
       <c r="C615" t="inlineStr"/>
       <c r="D615" t="inlineStr">
         <is>
-          <t>三理Mit3uri</t>
+          <t>格格</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
@@ -22985,11 +23005,7 @@
           <t>2025/08/09</t>
         </is>
       </c>
-      <c r="F615" t="inlineStr">
-        <is>
-          <t>三理第一首原创曲</t>
-        </is>
-      </c>
+      <c r="F615" t="inlineStr"/>
       <c r="G615" t="inlineStr">
         <is>
           <t>华语</t>
@@ -23005,97 +23021,97 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>616</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>生日快乐歌</t>
+          <t>From the Start</t>
         </is>
       </c>
       <c r="C616" t="inlineStr"/>
       <c r="D616" t="inlineStr">
         <is>
-          <t>格格</t>
+          <t>Laufey</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>2025/08/09</t>
+          <t>2025/08/12，2025/09/05，2025/09/05，2025/09/17，2025/09/24，2025/09/28，2025/10/01，2025/10/10，2025/10/17，2025/10/23，2025/11/26，2025/12/30，2026/1/10，2026/2/18</t>
         </is>
       </c>
       <c r="F616" t="inlineStr"/>
       <c r="G616" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I616" t="inlineStr"/>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I616" t="inlineStr">
+        <is>
+          <t>BV1RUSTBiEa5</t>
+        </is>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>From the Start</t>
+          <t>天后</t>
         </is>
       </c>
       <c r="C617" t="inlineStr"/>
       <c r="D617" t="inlineStr">
         <is>
-          <t>Laufey</t>
+          <t>陈势安</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>2025/08/12，2025/09/05，2025/09/05，2025/09/17，2025/09/24，2025/09/28，2025/10/01，2025/10/10，2025/10/17，2025/10/23，2025/11/26，2025/12/30，2026/1/10，2026/2/18</t>
+          <t>2025/08/21，2026/1/16，2026/2/2</t>
         </is>
       </c>
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="I617" t="inlineStr">
-        <is>
-          <t>BV1RUSTBiEa5</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>天后</t>
+          <t>凉凉</t>
         </is>
       </c>
       <c r="C618" t="inlineStr"/>
       <c r="D618" t="inlineStr">
         <is>
-          <t>陈势安</t>
+          <t>张碧晨/杨宗纬</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t>2025/08/21，2026/1/16，2026/2/2</t>
+          <t>2025/08/22，2025/09/12</t>
         </is>
       </c>
       <c r="F618" t="inlineStr"/>
@@ -23106,7 +23122,7 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I618" t="inlineStr"/>
@@ -23114,29 +23130,33 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>619</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>凉凉</t>
-        </is>
-      </c>
-      <c r="C619" t="inlineStr"/>
+          <t>だんご大家族</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>团子大家族</t>
+        </is>
+      </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>张碧晨/杨宗纬</t>
+          <t>茶太</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t>2025/08/22，2025/09/12</t>
+          <t>2025/08/23，2025/09/06</t>
         </is>
       </c>
       <c r="F619" t="inlineStr"/>
       <c r="G619" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>日语</t>
         </is>
       </c>
       <c r="H619" t="inlineStr">
@@ -23149,62 +23169,62 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>だんご大家族</t>
-        </is>
-      </c>
-      <c r="C620" t="inlineStr">
-        <is>
-          <t>团子大家族</t>
-        </is>
-      </c>
+          <t>反方向的钟</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr"/>
       <c r="D620" t="inlineStr">
         <is>
-          <t>茶太</t>
+          <t>周杰伦</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
         <is>
-          <t>2025/08/23，2025/09/06</t>
+          <t>2025/08/24，2025/09/20，2025/10/07，2025/11/9，2025/11/21，2026/2/25</t>
         </is>
       </c>
       <c r="F620" t="inlineStr"/>
       <c r="G620" t="inlineStr">
         <is>
-          <t>日语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I620" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I620" t="inlineStr">
+        <is>
+          <t>BV1J2kRBZEgH</t>
+        </is>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>反方向的钟</t>
+          <t>舞娘</t>
         </is>
       </c>
       <c r="C621" t="inlineStr"/>
       <c r="D621" t="inlineStr">
         <is>
-          <t>周杰伦</t>
+          <t>蔡依林</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>2025/08/24，2025/09/20，2025/10/07，2025/11/9，2025/11/21</t>
+          <t>2025/08/26</t>
         </is>
       </c>
       <c r="F621" t="inlineStr"/>
@@ -23215,7 +23235,7 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I621" t="inlineStr"/>
@@ -23223,23 +23243,23 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>舞娘</t>
+          <t>美女主播</t>
         </is>
       </c>
       <c r="C622" t="inlineStr"/>
       <c r="D622" t="inlineStr">
         <is>
-          <t>蔡依林</t>
+          <t>枫子/叶子</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>2025/08/26</t>
+          <t>2025/08/26，2025/08/16，2025/11/13，2025/12/9，2026/1/29，2026/2/19</t>
         </is>
       </c>
       <c r="F622" t="inlineStr"/>
@@ -23250,31 +23270,35 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I622" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>BV1LYvKzmEyV</t>
+        </is>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>美女主播</t>
+          <t>Melody</t>
         </is>
       </c>
       <c r="C623" t="inlineStr"/>
       <c r="D623" t="inlineStr">
         <is>
-          <t>枫子/叶子</t>
+          <t>陶喆</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>2025/08/26，2025/08/16，2025/11/13，2025/12/9，2026/1/29，2026/2/19</t>
+          <t>2025/08/29，2025/09/08，2025/11/24</t>
         </is>
       </c>
       <c r="F623" t="inlineStr"/>
@@ -23285,46 +23309,42 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I623" t="inlineStr">
-        <is>
-          <t>BV1LYvKzmEyV</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>624</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Melody</t>
+          <t>Sorry</t>
         </is>
       </c>
       <c r="C624" t="inlineStr"/>
       <c r="D624" t="inlineStr">
         <is>
-          <t>陶喆</t>
+          <t>Justin Bieber</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>2025/08/29，2025/09/08，2025/11/24</t>
+          <t>2025/09/03</t>
         </is>
       </c>
       <c r="F624" t="inlineStr"/>
       <c r="G624" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I624" t="inlineStr"/>
@@ -23332,12 +23352,12 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Sorry</t>
+          <t>One Time</t>
         </is>
       </c>
       <c r="C625" t="inlineStr"/>
@@ -23367,29 +23387,29 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>626</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>One Time</t>
+          <t>客官不可以</t>
         </is>
       </c>
       <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr">
         <is>
-          <t>Justin Bieber</t>
+          <t>徐良/小凌</t>
         </is>
       </c>
       <c r="E626" t="inlineStr">
         <is>
-          <t>2025/09/03</t>
+          <t>2025/09/04</t>
         </is>
       </c>
       <c r="F626" t="inlineStr"/>
       <c r="G626" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H626" t="inlineStr">
@@ -23402,23 +23422,23 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>客官不可以</t>
+          <t>Last dance</t>
         </is>
       </c>
       <c r="C627" t="inlineStr"/>
       <c r="D627" t="inlineStr">
         <is>
-          <t>徐良/小凌</t>
+          <t>伍佰</t>
         </is>
       </c>
       <c r="E627" t="inlineStr">
         <is>
-          <t>2025/09/04</t>
+          <t>2025/09/05</t>
         </is>
       </c>
       <c r="F627" t="inlineStr"/>
@@ -23437,34 +23457,34 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>628</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Last dance</t>
+          <t>Hide and Seek</t>
         </is>
       </c>
       <c r="C628" t="inlineStr"/>
       <c r="D628" t="inlineStr">
         <is>
-          <t>伍佰</t>
+          <t>Lizz Robinett</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>2025/09/05</t>
+          <t>2025/09/06，2025/10/31</t>
         </is>
       </c>
       <c r="F628" t="inlineStr"/>
       <c r="G628" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I628" t="inlineStr"/>
@@ -23472,29 +23492,29 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Hide and Seek</t>
+          <t>青春修炼手册</t>
         </is>
       </c>
       <c r="C629" t="inlineStr"/>
       <c r="D629" t="inlineStr">
         <is>
-          <t>Lizz Robinett</t>
+          <t>TFBoys</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>2025/09/06，2025/10/31</t>
+          <t>2025/09/10，2026/1/28</t>
         </is>
       </c>
       <c r="F629" t="inlineStr"/>
       <c r="G629" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H629" t="inlineStr">
@@ -23502,28 +23522,32 @@
           <t>2</t>
         </is>
       </c>
-      <c r="I629" t="inlineStr"/>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>BV17HHQz1EZE</t>
+        </is>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>630</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>青春修炼手册</t>
+          <t>你不知道的事</t>
         </is>
       </c>
       <c r="C630" t="inlineStr"/>
       <c r="D630" t="inlineStr">
         <is>
-          <t>TFBoys</t>
+          <t>王力宏</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>2025/09/10，2026/1/28</t>
+          <t>2025/09/10，2025/09/22，2025/09/24，2025/10/23，2025/12/6，2026/1/24，2026/2/5，2026/2/23</t>
         </is>
       </c>
       <c r="F630" t="inlineStr"/>
@@ -23534,35 +23558,35 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>BV17HHQz1EZE</t>
+          <t>BV1aXvxB1EWN</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>631</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>你不知道的事</t>
+          <t>牵丝戏</t>
         </is>
       </c>
       <c r="C631" t="inlineStr"/>
       <c r="D631" t="inlineStr">
         <is>
-          <t>王力宏</t>
+          <t>银临/Aki阿杰</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>2025/09/10，2025/09/22，2025/09/24，2025/10/23，2025/12/6，2026/1/24，2026/2/5，2026/2/23</t>
+          <t>2025/09/10，2025/09/13，2025/09/29，2025/10/10，2025/10/17，2025/11/27，2025/12/19，2026/1/16</t>
         </is>
       </c>
       <c r="F631" t="inlineStr"/>
@@ -23578,30 +23602,30 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>BV1aXvxB1EWN</t>
+          <t>BV13YS7BtEU1</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>632</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>牵丝戏</t>
+          <t>通天大道宽又阔</t>
         </is>
       </c>
       <c r="C632" t="inlineStr"/>
       <c r="D632" t="inlineStr">
         <is>
-          <t>银临/Aki阿杰</t>
+          <t>崔京浩/三叶草演唱组</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>2025/09/10，2025/09/13，2025/09/29，2025/10/10，2025/10/17，2025/11/27，2025/12/19，2026/1/16</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="F632" t="inlineStr"/>
@@ -23612,30 +23636,26 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I632" t="inlineStr">
-        <is>
-          <t>BV13YS7BtEU1</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>通天大道宽又阔</t>
+          <t>当</t>
         </is>
       </c>
       <c r="C633" t="inlineStr"/>
       <c r="D633" t="inlineStr">
         <is>
-          <t>崔京浩/三叶草演唱组</t>
+          <t>动力火车</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
@@ -23659,18 +23679,18 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>当</t>
+          <t>情深深雨濛濛</t>
         </is>
       </c>
       <c r="C634" t="inlineStr"/>
       <c r="D634" t="inlineStr">
         <is>
-          <t>动力火车</t>
+          <t>赵薇</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
@@ -23694,18 +23714,18 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>情深深雨濛濛</t>
+          <t>黄种人</t>
         </is>
       </c>
       <c r="C635" t="inlineStr"/>
       <c r="D635" t="inlineStr">
         <is>
-          <t>赵薇</t>
+          <t>谢霆锋</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
@@ -23729,18 +23749,18 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>黄种人</t>
+          <t>终极一班</t>
         </is>
       </c>
       <c r="C636" t="inlineStr"/>
       <c r="D636" t="inlineStr">
         <is>
-          <t>谢霆锋</t>
+          <t>Tank</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
@@ -23764,18 +23784,18 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>终极一班</t>
+          <t>天下无双</t>
         </is>
       </c>
       <c r="C637" t="inlineStr"/>
       <c r="D637" t="inlineStr">
         <is>
-          <t>Tank</t>
+          <t>张靓颖</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
@@ -23799,18 +23819,18 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>638</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>天下无双</t>
+          <t>我们的纪念</t>
         </is>
       </c>
       <c r="C638" t="inlineStr"/>
       <c r="D638" t="inlineStr">
         <is>
-          <t>张靓颖</t>
+          <t>李雅微</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
@@ -23834,18 +23854,18 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>我们的纪念</t>
+          <t>出神入化</t>
         </is>
       </c>
       <c r="C639" t="inlineStr"/>
       <c r="D639" t="inlineStr">
         <is>
-          <t>李雅微</t>
+          <t>飞轮海</t>
         </is>
       </c>
       <c r="E639" t="inlineStr">
@@ -23869,23 +23889,23 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>640</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>出神入化</t>
+          <t>我的快乐</t>
         </is>
       </c>
       <c r="C640" t="inlineStr"/>
       <c r="D640" t="inlineStr">
         <is>
-          <t>飞轮海</t>
+          <t>锦绣二重唱</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/12，2025/10/17</t>
         </is>
       </c>
       <c r="F640" t="inlineStr"/>
@@ -23896,7 +23916,7 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I640" t="inlineStr"/>
@@ -23904,23 +23924,23 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>641</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>我的快乐</t>
+          <t>生生世世爱</t>
         </is>
       </c>
       <c r="C641" t="inlineStr"/>
       <c r="D641" t="inlineStr">
         <is>
-          <t>锦绣二重唱</t>
+          <t>吴雨霏</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>2025/09/12，2025/10/17</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="F641" t="inlineStr"/>
@@ -23931,7 +23951,7 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I641" t="inlineStr"/>
@@ -23939,18 +23959,18 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>642</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>生生世世爱</t>
+          <t>此生不换</t>
         </is>
       </c>
       <c r="C642" t="inlineStr"/>
       <c r="D642" t="inlineStr">
         <is>
-          <t>吴雨霏</t>
+          <t>青鸟飞鱼</t>
         </is>
       </c>
       <c r="E642" t="inlineStr">
@@ -23974,23 +23994,23 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>643</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>此生不换</t>
+          <t>爱的供养</t>
         </is>
       </c>
       <c r="C643" t="inlineStr"/>
       <c r="D643" t="inlineStr">
         <is>
-          <t>青鸟飞鱼</t>
+          <t>杨幂</t>
         </is>
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/12，2025/09/27</t>
         </is>
       </c>
       <c r="F643" t="inlineStr"/>
@@ -24001,7 +24021,7 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I643" t="inlineStr"/>
@@ -24009,23 +24029,23 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>644</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>爱的供养</t>
+          <t>无法原谅</t>
         </is>
       </c>
       <c r="C644" t="inlineStr"/>
       <c r="D644" t="inlineStr">
         <is>
-          <t>杨幂</t>
+          <t>李佳璐</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>2025/09/12，2025/09/27</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="F644" t="inlineStr"/>
@@ -24036,7 +24056,7 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I644" t="inlineStr"/>
@@ -24044,23 +24064,23 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>无法原谅</t>
+          <t>想见你想见你想见你</t>
         </is>
       </c>
       <c r="C645" t="inlineStr"/>
       <c r="D645" t="inlineStr">
         <is>
-          <t>李佳璐</t>
+          <t>831</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/12，2026/2/7</t>
         </is>
       </c>
       <c r="F645" t="inlineStr"/>
@@ -24071,31 +24091,35 @@
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I645" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I645" t="inlineStr">
+        <is>
+          <t>BV1PgF4zhETP</t>
+        </is>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>646</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>想见你想见你想见你</t>
+          <t>旅行的意义</t>
         </is>
       </c>
       <c r="C646" t="inlineStr"/>
       <c r="D646" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>陈绮贞</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>2025/09/12，2026/2/7</t>
+          <t>2025/09/13，2025/09/13，2025/09/13，2025/09/17，2025/09/18，2025/09/20，2025/09/21，2025/09/24，2025/09/29，2025/10/10，2025/10/13，2025/10/22，2025/10/30，2025/11/3，2025/11/13，2025/11/24，2025/12/5，2025/12/12，2025/12/17，2026/1/6，2026/1/15，2026/1/24</t>
         </is>
       </c>
       <c r="F646" t="inlineStr"/>
@@ -24106,35 +24130,35 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>BV1PgF4zhETP</t>
+          <t>BV1p2p9zcELR</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>647</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>旅行的意义</t>
+          <t>东风破</t>
         </is>
       </c>
       <c r="C647" t="inlineStr"/>
       <c r="D647" t="inlineStr">
         <is>
-          <t>陈绮贞</t>
+          <t>周杰伦</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>2025/09/13，2025/09/13，2025/09/13，2025/09/17，2025/09/18，2025/09/20，2025/09/21，2025/09/24，2025/09/29，2025/10/10，2025/10/13，2025/10/22，2025/10/30，2025/11/3，2025/11/13，2025/11/24，2025/12/5，2025/12/12，2025/12/17，2026/1/6，2026/1/15，2026/1/24</t>
+          <t>2025/09/17</t>
         </is>
       </c>
       <c r="F647" t="inlineStr"/>
@@ -24145,46 +24169,42 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="I647" t="inlineStr">
-        <is>
-          <t>BV1p2p9zcELR</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>东风破</t>
+          <t>Golden</t>
         </is>
       </c>
       <c r="C648" t="inlineStr"/>
       <c r="D648" t="inlineStr">
         <is>
-          <t>周杰伦</t>
+          <t>Ejae/Audrey Nuna/Rei Ami/ HUNTR/X /KPop Demon Hunters Cast</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>2025/09/17</t>
+          <t>2025/09/17，2025/09/15，2025/09/22，2025/09/29，2025/09/29，2025/10/10，2025/10/28，2025/12/2，2026/1/5</t>
         </is>
       </c>
       <c r="F648" t="inlineStr"/>
       <c r="G648" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I648" t="inlineStr"/>
@@ -24192,58 +24212,62 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Golden</t>
+          <t>黑色幽默</t>
         </is>
       </c>
       <c r="C649" t="inlineStr"/>
       <c r="D649" t="inlineStr">
         <is>
-          <t>Ejae/Audrey Nuna/Rei Ami/ HUNTR/X /KPop Demon Hunters Cast</t>
+          <t>周杰伦</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>2025/09/17，2025/09/15，2025/09/22，2025/09/29，2025/09/29，2025/10/10，2025/10/28，2025/12/2，2026/1/5</t>
+          <t>2025/09/17，2025/10/11，2025/10/13，2025/10/20，2025/10/25，2025/11/21，2025/12/17，2026/2/23</t>
         </is>
       </c>
       <c r="F649" t="inlineStr"/>
       <c r="G649" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I649" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>BV1aZWyzREbb，BV1mLf6B6EYy</t>
+        </is>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>黑色幽默</t>
+          <t>我最亲爱的</t>
         </is>
       </c>
       <c r="C650" t="inlineStr"/>
       <c r="D650" t="inlineStr">
         <is>
-          <t>周杰伦</t>
+          <t>张惠妹</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>2025/09/17，2025/10/11，2025/10/13，2025/10/20，2025/10/25，2025/11/21，2025/12/17，2026/2/23</t>
+          <t>2025/09/02</t>
         </is>
       </c>
       <c r="F650" t="inlineStr"/>
@@ -24254,35 +24278,31 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I650" t="inlineStr">
-        <is>
-          <t>BV1aZWyzREbb，BV1mLf6B6EYy</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>651</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>我最亲爱的</t>
+          <t>宠爱</t>
         </is>
       </c>
       <c r="C651" t="inlineStr"/>
       <c r="D651" t="inlineStr">
         <is>
-          <t>张惠妹</t>
+          <t>TFBoys</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>2025/09/02</t>
+          <t>2025/09/02，2025/09/22</t>
         </is>
       </c>
       <c r="F651" t="inlineStr"/>
@@ -24293,7 +24313,7 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I651" t="inlineStr"/>
@@ -24301,23 +24321,23 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>宠爱</t>
+          <t>慢慢喜欢你</t>
         </is>
       </c>
       <c r="C652" t="inlineStr"/>
       <c r="D652" t="inlineStr">
         <is>
-          <t>TFBoys</t>
+          <t>莫文蔚</t>
         </is>
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>2025/09/02，2025/09/22</t>
+          <t>2025/09/15，2025/10/19，2025/10/20，2025/10/26，2025/11/14，2026/1/15，2026/1/23</t>
         </is>
       </c>
       <c r="F652" t="inlineStr"/>
@@ -24328,31 +24348,35 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I652" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>BV1TzrrBAEq9</t>
+        </is>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>慢慢喜欢你</t>
+          <t>萱草花</t>
         </is>
       </c>
       <c r="C653" t="inlineStr"/>
       <c r="D653" t="inlineStr">
         <is>
-          <t>莫文蔚</t>
+          <t>张小斐</t>
         </is>
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>2025/09/15，2025/10/19，2025/10/20，2025/10/26，2025/11/14，2026/1/15，2026/1/23</t>
+          <t>2025/09/15</t>
         </is>
       </c>
       <c r="F653" t="inlineStr"/>
@@ -24363,30 +24387,26 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I653" t="inlineStr">
-        <is>
-          <t>BV1TzrrBAEq9</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>654</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>萱草花</t>
+          <t>How long will I Love you</t>
         </is>
       </c>
       <c r="C654" t="inlineStr"/>
       <c r="D654" t="inlineStr">
         <is>
-          <t>张小斐</t>
+          <t>Ellie Goulding</t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
@@ -24397,7 +24417,7 @@
       <c r="F654" t="inlineStr"/>
       <c r="G654" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H654" t="inlineStr">
@@ -24410,23 +24430,23 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>655</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>How long will I Love you</t>
+          <t>Price Tag</t>
         </is>
       </c>
       <c r="C655" t="inlineStr"/>
       <c r="D655" t="inlineStr">
         <is>
-          <t>Ellie Goulding</t>
+          <t>Jessie J</t>
         </is>
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>2025/09/15</t>
+          <t>2025/09/18</t>
         </is>
       </c>
       <c r="F655" t="inlineStr"/>
@@ -24445,108 +24465,108 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>656</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Price Tag</t>
+          <t>Virtual to LIVE</t>
         </is>
       </c>
       <c r="C656" t="inlineStr"/>
       <c r="D656" t="inlineStr">
         <is>
-          <t>Jessie J</t>
+          <t>VirtuaReal</t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>2025/09/18</t>
+          <t>2025/09/19，2025/09/26，2025/10/16，2025/11/26，2026/2/12</t>
         </is>
       </c>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I656" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>BV1B4cqzWEhs</t>
+        </is>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Virtual to LIVE</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="C657" t="inlineStr"/>
       <c r="D657" t="inlineStr">
         <is>
-          <t>VirtuaReal</t>
+          <t>Coldplay</t>
         </is>
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>2025/09/19，2025/09/26，2025/10/16，2025/11/26，2026/2/12</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="F657" t="inlineStr"/>
       <c r="G657" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I657" t="inlineStr">
-        <is>
-          <t>BV1B4cqzWEhs</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>热爱105度的你</t>
         </is>
       </c>
       <c r="C658" t="inlineStr"/>
       <c r="D658" t="inlineStr">
         <is>
-          <t>Coldplay</t>
+          <t>阿肆</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>2025/09/19</t>
+          <t>2025/09/19，2025/09/30</t>
         </is>
       </c>
       <c r="F658" t="inlineStr"/>
       <c r="G658" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I658" t="inlineStr"/>
@@ -24554,34 +24574,34 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>659</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>热爱105度的你</t>
+          <t>Firework</t>
         </is>
       </c>
       <c r="C659" t="inlineStr"/>
       <c r="D659" t="inlineStr">
         <is>
-          <t>阿肆</t>
+          <t>Katy Perry</t>
         </is>
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>2025/09/19，2025/09/30</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="F659" t="inlineStr"/>
       <c r="G659" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I659" t="inlineStr"/>
@@ -24589,58 +24609,62 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>660</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Firework</t>
+          <t>夏天</t>
         </is>
       </c>
       <c r="C660" t="inlineStr"/>
       <c r="D660" t="inlineStr">
         <is>
-          <t>Katy Perry</t>
+          <t>李玖哲</t>
         </is>
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>2025/09/19</t>
+          <t>2025/09/20，2025/09/21，2025/09/22，2025/09/24，2025/09/27，2025/10/05，2025/10/12，2025/10/22，2025/12/6，2025/12/12，2026/1/19</t>
         </is>
       </c>
       <c r="F660" t="inlineStr"/>
       <c r="G660" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I660" t="inlineStr"/>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I660" t="inlineStr">
+        <is>
+          <t>BV19wxTzsEnU</t>
+        </is>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>661</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>夏天</t>
+          <t>爱情讯息</t>
         </is>
       </c>
       <c r="C661" t="inlineStr"/>
       <c r="D661" t="inlineStr">
         <is>
-          <t>李玖哲</t>
+          <t>郭静</t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>2025/09/20，2025/09/21，2025/09/22，2025/09/24，2025/09/27，2025/10/05，2025/10/12，2025/10/22，2025/12/6，2025/12/12，2026/1/19</t>
+          <t>2025/09/21，2025/09/21，2025/09/22，2025/09/22，2025/09/24，2025/09/27，2025/09/29，2025/10/03，2025/10/05，2025/10/09，2025/10/18，2025/10/22，2025/10/26，2025/11/9，2025/11/19，2025/11/22，2025/11/28，2025/12/22，2026/1/5，2026/1/14，2026/1/22，2026/2/7，2026/2/10</t>
         </is>
       </c>
       <c r="F661" t="inlineStr"/>
@@ -24651,108 +24675,104 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>BV19wxTzsEnU</t>
+          <t>BV1UAnwzQE3E</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>662</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>爱情讯息</t>
+          <t>富士山下</t>
         </is>
       </c>
       <c r="C662" t="inlineStr"/>
       <c r="D662" t="inlineStr">
         <is>
-          <t>郭静</t>
+          <t>陈奕迅</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>2025/09/21，2025/09/21，2025/09/22，2025/09/22，2025/09/24，2025/09/27，2025/09/29，2025/10/03，2025/10/05，2025/10/09，2025/10/18，2025/10/22，2025/10/26，2025/11/9，2025/11/19，2025/11/22，2025/11/28，2025/12/22，2026/1/5，2026/1/14，2026/1/22，2026/2/7，2026/2/10</t>
+          <t>2025/09/22，2025/10/09，2025/12/5，2026/1/25</t>
         </is>
       </c>
       <c r="F662" t="inlineStr"/>
       <c r="G662" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>粤语</t>
         </is>
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>BV1UAnwzQE3E</t>
+          <t>BV1t3zxBEEZr</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>663</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>富士山下</t>
+          <t>Rise</t>
         </is>
       </c>
       <c r="C663" t="inlineStr"/>
       <c r="D663" t="inlineStr">
         <is>
-          <t>陈奕迅</t>
+          <t>The Glitch Mob / Mako / The Word Alive</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>2025/09/22，2025/10/09，2025/12/5，2026/1/25</t>
+          <t>2025/09/22</t>
         </is>
       </c>
       <c r="F663" t="inlineStr"/>
       <c r="G663" t="inlineStr">
         <is>
-          <t>粤语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I663" t="inlineStr">
-        <is>
-          <t>BV1t3zxBEEZr</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>664</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Rise</t>
+          <t>Free Loop</t>
         </is>
       </c>
       <c r="C664" t="inlineStr"/>
       <c r="D664" t="inlineStr">
         <is>
-          <t>The Glitch Mob / Mako / The Word Alive</t>
+          <t>Daniel Powter</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
@@ -24776,18 +24796,18 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Free Loop</t>
+          <t>天外来物</t>
         </is>
       </c>
       <c r="C665" t="inlineStr"/>
       <c r="D665" t="inlineStr">
         <is>
-          <t>Daniel Powter</t>
+          <t>薛之谦</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
@@ -24798,7 +24818,7 @@
       <c r="F665" t="inlineStr"/>
       <c r="G665" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H665" t="inlineStr">
@@ -24811,18 +24831,18 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>666</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>天外来物</t>
+          <t>Pompeii</t>
         </is>
       </c>
       <c r="C666" t="inlineStr"/>
       <c r="D666" t="inlineStr">
         <is>
-          <t>薛之谦</t>
+          <t>Bastille</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
@@ -24833,7 +24853,7 @@
       <c r="F666" t="inlineStr"/>
       <c r="G666" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H666" t="inlineStr">
@@ -24846,23 +24866,23 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>667</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Pompeii</t>
+          <t>New Year's Day</t>
         </is>
       </c>
       <c r="C667" t="inlineStr"/>
       <c r="D667" t="inlineStr">
         <is>
-          <t>Bastille</t>
+          <t>Taylor Swift</t>
         </is>
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>2025/09/22</t>
+          <t>2025/09/22，2025/10/09，2025/12/5</t>
         </is>
       </c>
       <c r="F667" t="inlineStr"/>
@@ -24873,7 +24893,7 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I667" t="inlineStr"/>
@@ -24881,34 +24901,34 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>668</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>New Year's Day</t>
+          <t>天下有情人</t>
         </is>
       </c>
       <c r="C668" t="inlineStr"/>
       <c r="D668" t="inlineStr">
         <is>
-          <t>Taylor Swift</t>
+          <t>周华健</t>
         </is>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>2025/09/22，2025/10/09，2025/12/5</t>
+          <t>2025/09/24</t>
         </is>
       </c>
       <c r="F668" t="inlineStr"/>
       <c r="G668" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>粤语</t>
         </is>
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I668" t="inlineStr"/>
@@ -24916,23 +24936,23 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>669</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>天下有情人</t>
+          <t>烟霞</t>
         </is>
       </c>
       <c r="C669" t="inlineStr"/>
       <c r="D669" t="inlineStr">
         <is>
-          <t>周华健</t>
+          <t>容祖儿</t>
         </is>
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>2025/09/24</t>
+          <t>2025/09/24，2025/09/29，2025/10/13，2025/10/17，2025/10/19，2025/10/20，2025/10/25，2025/10/28，2025/11/7，2025/11/26，2025/12/6，2025/12/12，2025/12/24，2026/1/5，2026/1/19，2026/2/18</t>
         </is>
       </c>
       <c r="F669" t="inlineStr"/>
@@ -24943,81 +24963,81 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I669" t="inlineStr"/>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I669" t="inlineStr">
+        <is>
+          <t>BV1V6BQBhEMS</t>
+        </is>
+      </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>670</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>烟霞</t>
+          <t>青花瓷</t>
         </is>
       </c>
       <c r="C670" t="inlineStr"/>
       <c r="D670" t="inlineStr">
         <is>
-          <t>容祖儿</t>
+          <t>周杰伦</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>2025/09/24，2025/09/29，2025/10/13，2025/10/17，2025/10/19，2025/10/20，2025/10/25，2025/10/28，2025/11/7，2025/11/26，2025/12/6，2025/12/12，2025/12/24，2026/1/5，2026/1/19，2026/2/18</t>
+          <t>2025/09/24，2025/09/26</t>
         </is>
       </c>
       <c r="F670" t="inlineStr"/>
       <c r="G670" t="inlineStr">
         <is>
-          <t>粤语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I670" t="inlineStr">
-        <is>
-          <t>BV1V6BQBhEMS</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I670" t="inlineStr"/>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>671</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>青花瓷</t>
+          <t>What a wonderful world</t>
         </is>
       </c>
       <c r="C671" t="inlineStr"/>
       <c r="D671" t="inlineStr">
         <is>
-          <t>周杰伦</t>
+          <t>Louis Armstrong</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>2025/09/24，2025/09/26</t>
+          <t>2025/09/24</t>
         </is>
       </c>
       <c r="F671" t="inlineStr"/>
       <c r="G671" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I671" t="inlineStr"/>
@@ -25025,58 +25045,62 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>What a wonderful world</t>
+          <t>别问很可怕</t>
         </is>
       </c>
       <c r="C672" t="inlineStr"/>
       <c r="D672" t="inlineStr">
         <is>
-          <t>Louis Armstrong</t>
+          <t>J.Sheon</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>2025/09/24</t>
+          <t>2025/09/24，2025/09/26，2025/09/28，2025/09/29，2025/10/01，2025/10/07，2025/10/10，2025/10/11，2025/10/17，2025/10/23，2025/10/28，2025/12/26，2026/2/5</t>
         </is>
       </c>
       <c r="F672" t="inlineStr"/>
       <c r="G672" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I672" t="inlineStr"/>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I672" t="inlineStr">
+        <is>
+          <t>BV1szBrBHEVt</t>
+        </is>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>673</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>别问很可怕</t>
+          <t>小美满</t>
         </is>
       </c>
       <c r="C673" t="inlineStr"/>
       <c r="D673" t="inlineStr">
         <is>
-          <t>J.Sheon</t>
+          <t>周深</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>2025/09/24，2025/09/26，2025/09/28，2025/09/29，2025/10/01，2025/10/07，2025/10/10，2025/10/11，2025/10/17，2025/10/23，2025/10/28，2025/12/26，2026/2/5</t>
+          <t>2025/09/26，2025/12/12</t>
         </is>
       </c>
       <c r="F673" t="inlineStr"/>
@@ -25087,35 +25111,31 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="I673" t="inlineStr">
-        <is>
-          <t>BV1szBrBHEVt</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>小美满</t>
+          <t>美丽的神话</t>
         </is>
       </c>
       <c r="C674" t="inlineStr"/>
       <c r="D674" t="inlineStr">
         <is>
-          <t>周深</t>
+          <t>成龙/金喜善</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>2025/09/26，2025/12/12</t>
+          <t>2025/09/26，2025/11/18，2026/1/9，2026/2/25</t>
         </is>
       </c>
       <c r="F674" t="inlineStr"/>
@@ -25126,42 +25146,46 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I674" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I674" t="inlineStr">
+        <is>
+          <t>BV1xoyVBoE8C</t>
+        </is>
+      </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>美丽的神话</t>
+          <t>California dreamin’</t>
         </is>
       </c>
       <c r="C675" t="inlineStr"/>
       <c r="D675" t="inlineStr">
         <is>
-          <t>成龙/金喜善</t>
+          <t>The Mamas &amp; The Papas</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>2025/09/26，2025/11/18，2026/1/9</t>
+          <t>2025/09/27</t>
         </is>
       </c>
       <c r="F675" t="inlineStr"/>
       <c r="G675" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I675" t="inlineStr"/>
@@ -25169,18 +25193,18 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>676</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>California dreamin’</t>
+          <t>Castle on the Hill</t>
         </is>
       </c>
       <c r="C676" t="inlineStr"/>
       <c r="D676" t="inlineStr">
         <is>
-          <t>The Mamas &amp; The Papas</t>
+          <t>Ed Sheeran</t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
@@ -25204,29 +25228,29 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>677</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Castle on the Hill</t>
+          <t>喜欢寂寞</t>
         </is>
       </c>
       <c r="C677" t="inlineStr"/>
       <c r="D677" t="inlineStr">
         <is>
-          <t>Ed Sheeran</t>
+          <t>苏打绿</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>2025/09/27</t>
+          <t>2025/09/28</t>
         </is>
       </c>
       <c r="F677" t="inlineStr"/>
       <c r="G677" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H677" t="inlineStr">
@@ -25239,18 +25263,18 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>678</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>喜欢寂寞</t>
+          <t>Read All About It, Pt. III</t>
         </is>
       </c>
       <c r="C678" t="inlineStr"/>
       <c r="D678" t="inlineStr">
         <is>
-          <t>苏打绿</t>
+          <t>Emeli Sandé</t>
         </is>
       </c>
       <c r="E678" t="inlineStr">
@@ -25261,7 +25285,7 @@
       <c r="F678" t="inlineStr"/>
       <c r="G678" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H678" t="inlineStr">
@@ -25274,58 +25298,62 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>679</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Read All About It, Pt. III</t>
+          <t>我的悲伤是水做的</t>
         </is>
       </c>
       <c r="C679" t="inlineStr"/>
       <c r="D679" t="inlineStr">
         <is>
-          <t>Emeli Sandé</t>
+          <t>ChiliChill/洛天依</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>2025/09/28</t>
+          <t>2025/09/29，2025/09/30，2025/10/05，2025/10/07，2025/10/11，2025/10/16，2025/10/19，2025/10/22，2025/10/25，2025/11/19，2025/12/2，2025/12/11，2026/1/9，2026/1/14，2026/2/7</t>
         </is>
       </c>
       <c r="F679" t="inlineStr"/>
       <c r="G679" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I679" t="inlineStr"/>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I679" t="inlineStr">
+        <is>
+          <t>BV126rrBhEun</t>
+        </is>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>680</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>我的悲伤是水做的</t>
+          <t>迷迭香</t>
         </is>
       </c>
       <c r="C680" t="inlineStr"/>
       <c r="D680" t="inlineStr">
         <is>
-          <t>ChiliChill/洛天依</t>
+          <t>周杰伦</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>2025/09/29，2025/09/30，2025/10/05，2025/10/07，2025/10/11，2025/10/16，2025/10/19，2025/10/22，2025/10/25，2025/11/19，2025/12/2，2025/12/11，2026/1/9，2026/1/14，2026/2/7</t>
+          <t>2025/09/29，2025/10/07，2025/10/10，2025/10/13，2025/10/17，2025/10/22，2025/10/25，2025/11/21，2025/12/6，2026/1/15，2026/1/19</t>
         </is>
       </c>
       <c r="F680" t="inlineStr"/>
@@ -25336,74 +25364,70 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>BV126rrBhEun</t>
+          <t>BV1z8U7BiEjg</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>迷迭香</t>
+          <t>Need You Now</t>
         </is>
       </c>
       <c r="C681" t="inlineStr"/>
       <c r="D681" t="inlineStr">
         <is>
-          <t>周杰伦</t>
+          <t>Lady A</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>2025/09/29，2025/10/07，2025/10/10，2025/10/13，2025/10/17，2025/10/22，2025/10/25，2025/11/21，2025/12/6，2026/1/15，2026/1/19</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="F681" t="inlineStr"/>
       <c r="G681" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="I681" t="inlineStr">
-        <is>
-          <t>BV1z8U7BiEjg</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I681" t="inlineStr"/>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>682</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Need You Now</t>
+          <t>Dream A Little Dream Of Me</t>
         </is>
       </c>
       <c r="C682" t="inlineStr"/>
       <c r="D682" t="inlineStr">
         <is>
-          <t>Lady A</t>
+          <t>Louis Armstrong / Ella Fitzgerald</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/09/30，2025/10/01，2025/10/11，2025/10/17，2025/10/26</t>
         </is>
       </c>
       <c r="F682" t="inlineStr"/>
@@ -25414,7 +25438,7 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I682" t="inlineStr"/>
@@ -25422,34 +25446,34 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>683</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Dream A Little Dream Of Me</t>
+          <t>Hurt</t>
         </is>
       </c>
       <c r="C683" t="inlineStr"/>
       <c r="D683" t="inlineStr">
         <is>
-          <t>Louis Armstrong / Ella Fitzgerald</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>2025/09/30，2025/10/01，2025/10/11，2025/10/17，2025/10/26</t>
+          <t>2025/09/30，2025/10/16</t>
         </is>
       </c>
       <c r="F683" t="inlineStr"/>
       <c r="G683" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>韩语</t>
         </is>
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I683" t="inlineStr"/>
@@ -25457,34 +25481,34 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>684</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>Hurt</t>
+          <t>Sweater Weather</t>
         </is>
       </c>
       <c r="C684" t="inlineStr"/>
       <c r="D684" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>The Neighbourhood</t>
         </is>
       </c>
       <c r="E684" t="inlineStr">
         <is>
-          <t>2025/09/30，2025/10/16</t>
+          <t>2025/10/01</t>
         </is>
       </c>
       <c r="F684" t="inlineStr"/>
       <c r="G684" t="inlineStr">
         <is>
-          <t>韩语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I684" t="inlineStr"/>
@@ -25492,18 +25516,18 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>685</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Sweater Weather</t>
+          <t>Bad Liar</t>
         </is>
       </c>
       <c r="C685" t="inlineStr"/>
       <c r="D685" t="inlineStr">
         <is>
-          <t>The Neighbourhood</t>
+          <t>Selena Gomez</t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
@@ -25527,58 +25551,62 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>686</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Bad Liar</t>
+          <t>不值得</t>
         </is>
       </c>
       <c r="C686" t="inlineStr"/>
       <c r="D686" t="inlineStr">
         <is>
-          <t>Selena Gomez</t>
+          <t>梦飞船</t>
         </is>
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>2025/10/01</t>
+          <t>2025/10/01，2025/10/07，2025/10/10，2025/10/13，2025/10/17，2025/10/20，2025/11/3，2025/11/27</t>
         </is>
       </c>
       <c r="F686" t="inlineStr"/>
       <c r="G686" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I686" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I686" t="inlineStr">
+        <is>
+          <t>BV1p61rBKESr</t>
+        </is>
+      </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>687</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>不值得</t>
+          <t>伤不起</t>
         </is>
       </c>
       <c r="C687" t="inlineStr"/>
       <c r="D687" t="inlineStr">
         <is>
-          <t>梦飞船</t>
+          <t>王麟</t>
         </is>
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>2025/10/01，2025/10/07，2025/10/10，2025/10/13，2025/10/17，2025/10/20，2025/11/3，2025/11/27</t>
+          <t>2025/10/03</t>
         </is>
       </c>
       <c r="F687" t="inlineStr"/>
@@ -25589,35 +25617,31 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I687" t="inlineStr">
-        <is>
-          <t>BV1p61rBKESr</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>688</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>伤不起</t>
+          <t>水调歌头</t>
         </is>
       </c>
       <c r="C688" t="inlineStr"/>
       <c r="D688" t="inlineStr">
         <is>
-          <t>王麟</t>
+          <t>苏轼 / 多版本演唱</t>
         </is>
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>2025/10/03</t>
+          <t>2025/10/05</t>
         </is>
       </c>
       <c r="F688" t="inlineStr"/>
@@ -25636,18 +25660,18 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>689</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>水调歌头</t>
+          <t>月亮代表我的心</t>
         </is>
       </c>
       <c r="C689" t="inlineStr"/>
       <c r="D689" t="inlineStr">
         <is>
-          <t>苏轼 / 多版本演唱</t>
+          <t>邓丽君</t>
         </is>
       </c>
       <c r="E689" t="inlineStr">
@@ -25671,23 +25695,23 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>月亮代表我的心</t>
+          <t>一笑倾城</t>
         </is>
       </c>
       <c r="C690" t="inlineStr"/>
       <c r="D690" t="inlineStr">
         <is>
-          <t>邓丽君</t>
+          <t>汪苏泷</t>
         </is>
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>2025/10/05</t>
+          <t>2025/10/07，2025/10/12，2025/10/22</t>
         </is>
       </c>
       <c r="F690" t="inlineStr"/>
@@ -25698,7 +25722,7 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I690" t="inlineStr"/>
@@ -25706,34 +25730,34 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>691</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>一笑倾城</t>
+          <t>Be what you wanna be</t>
         </is>
       </c>
       <c r="C691" t="inlineStr"/>
       <c r="D691" t="inlineStr">
         <is>
-          <t>汪苏泷</t>
+          <t>Darin</t>
         </is>
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>2025/10/07，2025/10/12，2025/10/22</t>
+          <t>2025/10/09，2025/11/17</t>
         </is>
       </c>
       <c r="F691" t="inlineStr"/>
       <c r="G691" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I691" t="inlineStr"/>
@@ -25741,34 +25765,38 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>692</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Be what you wanna be</t>
-        </is>
-      </c>
-      <c r="C692" t="inlineStr"/>
+          <t>君がすきだと叫びたい</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>好想大声说爱你</t>
+        </is>
+      </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>Darin</t>
+          <t>BAAD</t>
         </is>
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>2025/10/09，2025/11/17</t>
+          <t>2025/10/09，2025/11/9，2025/11/14</t>
         </is>
       </c>
       <c r="F692" t="inlineStr"/>
       <c r="G692" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>日语</t>
         </is>
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I692" t="inlineStr"/>
@@ -25776,38 +25804,34 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>693</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>君がすきだと叫びたい</t>
-        </is>
-      </c>
-      <c r="C693" t="inlineStr">
-        <is>
-          <t>好想大声说爱你</t>
-        </is>
-      </c>
+          <t>Demons</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr"/>
       <c r="D693" t="inlineStr">
         <is>
-          <t>BAAD</t>
+          <t>Imagine Dragons</t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>2025/10/09，2025/11/9，2025/11/14</t>
+          <t>2025/10/11，2025/11/28</t>
         </is>
       </c>
       <c r="F693" t="inlineStr"/>
       <c r="G693" t="inlineStr">
         <is>
-          <t>日语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I693" t="inlineStr"/>
@@ -25815,34 +25839,38 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>694</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Demons</t>
+          <t>老公天下第一</t>
         </is>
       </c>
       <c r="C694" t="inlineStr"/>
       <c r="D694" t="inlineStr">
         <is>
-          <t>Imagine Dragons</t>
+          <t>叶洛洛</t>
         </is>
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>2025/10/11，2025/11/28</t>
-        </is>
-      </c>
-      <c r="F694" t="inlineStr"/>
+          <t>2025/10/13</t>
+        </is>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>点歌大概率不唱</t>
+        </is>
+      </c>
       <c r="G694" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I694" t="inlineStr"/>
@@ -25850,18 +25878,18 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>695</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>老公天下第一</t>
+          <t>赤伶</t>
         </is>
       </c>
       <c r="C695" t="inlineStr"/>
       <c r="D695" t="inlineStr">
         <is>
-          <t>叶洛洛</t>
+          <t>HITA</t>
         </is>
       </c>
       <c r="E695" t="inlineStr">
@@ -25869,11 +25897,7 @@
           <t>2025/10/13</t>
         </is>
       </c>
-      <c r="F695" t="inlineStr">
-        <is>
-          <t>点歌大概率不唱</t>
-        </is>
-      </c>
+      <c r="F695" t="inlineStr"/>
       <c r="G695" t="inlineStr">
         <is>
           <t>华语</t>
@@ -25889,34 +25913,34 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>696</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>赤伶</t>
+          <t>打上花火</t>
         </is>
       </c>
       <c r="C696" t="inlineStr"/>
       <c r="D696" t="inlineStr">
         <is>
-          <t>HITA</t>
+          <t>DAOKO × 米津玄師</t>
         </is>
       </c>
       <c r="E696" t="inlineStr">
         <is>
-          <t>2025/10/13</t>
+          <t>2025/10/13，2025/10/18</t>
         </is>
       </c>
       <c r="F696" t="inlineStr"/>
       <c r="G696" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>日语</t>
         </is>
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I696" t="inlineStr"/>
@@ -25924,34 +25948,34 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>697</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>打上花火</t>
+          <t>土星环</t>
         </is>
       </c>
       <c r="C697" t="inlineStr"/>
       <c r="D697" t="inlineStr">
         <is>
-          <t>DAOKO × 米津玄師</t>
+          <t>陈奕迅</t>
         </is>
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>2025/10/13，2025/10/18</t>
+          <t>2025/10/17，2025/10/18，2025/10/23，2025/12/30，2026/1/12</t>
         </is>
       </c>
       <c r="F697" t="inlineStr"/>
       <c r="G697" t="inlineStr">
         <is>
-          <t>日语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I697" t="inlineStr"/>
@@ -25959,12 +25983,12 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>698</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>土星环</t>
+          <t>不要说话</t>
         </is>
       </c>
       <c r="C698" t="inlineStr"/>
@@ -25975,7 +25999,7 @@
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>2025/10/17，2025/10/18，2025/10/23，2025/12/30，2026/1/12</t>
+          <t>2025/10/17，2025/10/18，2025/10/23，2025/10/28，2025/12/5，2025/12/12，2025/12/30</t>
         </is>
       </c>
       <c r="F698" t="inlineStr"/>
@@ -25986,7 +26010,7 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I698" t="inlineStr"/>
@@ -25994,23 +26018,23 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>699</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>不要说话</t>
+          <t>红颜如霜</t>
         </is>
       </c>
       <c r="C699" t="inlineStr"/>
       <c r="D699" t="inlineStr">
         <is>
-          <t>陈奕迅</t>
+          <t>周杰伦</t>
         </is>
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>2025/10/17，2025/10/18，2025/10/23，2025/10/28，2025/12/5，2025/12/12，2025/12/30</t>
+          <t>2025/10/17，2025/10/24，2025/10/30，2025/11/14，2025/11/28，2025/12/12，2025/12/26，2026/1/29，2026/2/9</t>
         </is>
       </c>
       <c r="F699" t="inlineStr"/>
@@ -26021,59 +26045,59 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I699" t="inlineStr"/>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I699" t="inlineStr">
+        <is>
+          <t>BV1RxcYzqE8B</t>
+        </is>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>700</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>红颜如霜</t>
+          <t>Cold As You</t>
         </is>
       </c>
       <c r="C700" t="inlineStr"/>
       <c r="D700" t="inlineStr">
         <is>
-          <t>周杰伦</t>
+          <t>Taylor Swift</t>
         </is>
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>2025/10/17，2025/10/24，2025/10/30，2025/11/14，2025/11/28，2025/12/12，2025/12/26，2026/1/29，2026/2/9</t>
+          <t>2025/10/18</t>
         </is>
       </c>
       <c r="F700" t="inlineStr"/>
       <c r="G700" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I700" t="inlineStr">
-        <is>
-          <t>BV1RxcYzqE8B</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>701</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Cold As You</t>
+          <t>Shake It Off</t>
         </is>
       </c>
       <c r="C701" t="inlineStr"/>
@@ -26103,18 +26127,18 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>702</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>Shake It Off</t>
+          <t>End Game</t>
         </is>
       </c>
       <c r="C702" t="inlineStr"/>
       <c r="D702" t="inlineStr">
         <is>
-          <t>Taylor Swift</t>
+          <t>Taylor Swift ft. Ed Sheeran &amp; Future</t>
         </is>
       </c>
       <c r="E702" t="inlineStr">
@@ -26138,23 +26162,23 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>703</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>End Game</t>
+          <t>Window</t>
         </is>
       </c>
       <c r="C703" t="inlineStr"/>
       <c r="D703" t="inlineStr">
         <is>
-          <t>Taylor Swift ft. Ed Sheeran &amp; Future</t>
+          <t>Galdive</t>
         </is>
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>2025/10/18</t>
+          <t>2025/10/19，2025/10/20，2025/11/18，2025/12/16，2026/1/10</t>
         </is>
       </c>
       <c r="F703" t="inlineStr"/>
@@ -26165,7 +26189,7 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I703" t="inlineStr"/>
@@ -26173,23 +26197,23 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>704</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>Window</t>
+          <t>Santa Tell Me</t>
         </is>
       </c>
       <c r="C704" t="inlineStr"/>
       <c r="D704" t="inlineStr">
         <is>
-          <t>Galdive</t>
+          <t>Ariana Grande</t>
         </is>
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>2025/10/19，2025/10/20，2025/11/18，2025/12/16，2026/1/10</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="F704" t="inlineStr"/>
@@ -26200,7 +26224,7 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I704" t="inlineStr"/>
@@ -26208,12 +26232,12 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>705</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Santa Tell Me</t>
+          <t>One Last Time</t>
         </is>
       </c>
       <c r="C705" t="inlineStr"/>
@@ -26243,23 +26267,23 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>706</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>One Last Time</t>
+          <t>Love Me Harder</t>
         </is>
       </c>
       <c r="C706" t="inlineStr"/>
       <c r="D706" t="inlineStr">
         <is>
-          <t>Ariana Grande</t>
+          <t>Ariana Grande &amp; The Weeknd</t>
         </is>
       </c>
       <c r="E706" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/23，2025/10/25，2025/12/12，2026/1/19</t>
         </is>
       </c>
       <c r="F706" t="inlineStr"/>
@@ -26270,7 +26294,7 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I706" t="inlineStr"/>
@@ -26278,23 +26302,23 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>707</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Love Me Harder</t>
+          <t>The Way</t>
         </is>
       </c>
       <c r="C707" t="inlineStr"/>
       <c r="D707" t="inlineStr">
         <is>
-          <t>Ariana Grande &amp; The Weeknd</t>
+          <t>Ariana Grande ft. Mac Miller</t>
         </is>
       </c>
       <c r="E707" t="inlineStr">
         <is>
-          <t>2025/10/23，2025/10/25，2025/12/12，2026/1/19</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="F707" t="inlineStr"/>
@@ -26305,7 +26329,7 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I707" t="inlineStr"/>
@@ -26313,18 +26337,18 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>708</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>The Way</t>
+          <t>Bang Bang</t>
         </is>
       </c>
       <c r="C708" t="inlineStr"/>
       <c r="D708" t="inlineStr">
         <is>
-          <t>Ariana Grande ft. Mac Miller</t>
+          <t>Jessie J, Ariana Grande &amp; Nicki Minaj</t>
         </is>
       </c>
       <c r="E708" t="inlineStr">
@@ -26348,18 +26372,18 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>709</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Bang Bang</t>
+          <t>Merry Go 'Round</t>
         </is>
       </c>
       <c r="C709" t="inlineStr"/>
       <c r="D709" t="inlineStr">
         <is>
-          <t>Jessie J, Ariana Grande &amp; Nicki Minaj</t>
+          <t>Kacey Musgraves</t>
         </is>
       </c>
       <c r="E709" t="inlineStr">
@@ -26383,18 +26407,18 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>710</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Merry Go 'Round</t>
+          <t>Tears Always Win</t>
         </is>
       </c>
       <c r="C710" t="inlineStr"/>
       <c r="D710" t="inlineStr">
         <is>
-          <t>Kacey Musgraves</t>
+          <t>Alicia Keys</t>
         </is>
       </c>
       <c r="E710" t="inlineStr">
@@ -26418,23 +26442,23 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>711</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Tears Always Win</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C711" t="inlineStr"/>
       <c r="D711" t="inlineStr">
         <is>
-          <t>Alicia Keys</t>
+          <t>Meghan Trainor</t>
         </is>
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/23，2025/10/28，2025/12/12</t>
         </is>
       </c>
       <c r="F711" t="inlineStr"/>
@@ -26445,7 +26469,7 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I711" t="inlineStr"/>
@@ -26453,23 +26477,23 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>712</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>Eh, Eh (Nothing Else I Can Say)</t>
         </is>
       </c>
       <c r="C712" t="inlineStr"/>
       <c r="D712" t="inlineStr">
         <is>
-          <t>Meghan Trainor</t>
+          <t>Lady Gaga</t>
         </is>
       </c>
       <c r="E712" t="inlineStr">
         <is>
-          <t>2025/10/23，2025/10/28，2025/12/12</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="F712" t="inlineStr"/>
@@ -26480,7 +26504,7 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I712" t="inlineStr"/>
@@ -26488,23 +26512,23 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>713</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>Eh, Eh (Nothing Else I Can Say)</t>
+          <t>Let you down</t>
         </is>
       </c>
       <c r="C713" t="inlineStr"/>
       <c r="D713" t="inlineStr">
         <is>
-          <t>Lady Gaga</t>
+          <t>NF</t>
         </is>
       </c>
       <c r="E713" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/23，2025/10/28</t>
         </is>
       </c>
       <c r="F713" t="inlineStr"/>
@@ -26515,7 +26539,7 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I713" t="inlineStr"/>
@@ -26523,23 +26547,23 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>714</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>Let you down</t>
+          <t>See you again</t>
         </is>
       </c>
       <c r="C714" t="inlineStr"/>
       <c r="D714" t="inlineStr">
         <is>
-          <t>NF</t>
+          <t>Wiz Khalifa ft. Charlie Puth</t>
         </is>
       </c>
       <c r="E714" t="inlineStr">
         <is>
-          <t>2025/10/23，2025/10/28</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="F714" t="inlineStr"/>
@@ -26550,7 +26574,7 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I714" t="inlineStr"/>
@@ -26558,23 +26582,23 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>715</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>See you again</t>
+          <t>California Dreamin'</t>
         </is>
       </c>
       <c r="C715" t="inlineStr"/>
       <c r="D715" t="inlineStr">
         <is>
-          <t>Wiz Khalifa ft. Charlie Puth</t>
+          <t>The Mamas &amp; The Papas</t>
         </is>
       </c>
       <c r="E715" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="F715" t="inlineStr"/>
@@ -26593,214 +26617,214 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>716</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>California Dreamin'</t>
+          <t>大哥</t>
         </is>
       </c>
       <c r="C716" t="inlineStr"/>
       <c r="D716" t="inlineStr">
         <is>
-          <t>The Mamas &amp; The Papas</t>
+          <t>卫兰</t>
         </is>
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/24，2025/10/25，2025/10/28，2025/11/12，2025/11/26，2026/1/2，2026/1/5，2026/1/9，2026/2/23</t>
         </is>
       </c>
       <c r="F716" t="inlineStr"/>
       <c r="G716" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>粤语</t>
         </is>
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I716" t="inlineStr"/>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I716" t="inlineStr">
+        <is>
+          <t>BV1TBihBsEo5，BV1ksf6BeE2k</t>
+        </is>
+      </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>717</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>大哥</t>
+          <t>梦的光点</t>
         </is>
       </c>
       <c r="C717" t="inlineStr"/>
       <c r="D717" t="inlineStr">
         <is>
-          <t>卫兰</t>
+          <t>S.H.E</t>
         </is>
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>2025/10/24，2025/10/25，2025/10/28，2025/11/12，2025/11/26，2026/1/2，2026/1/5，2026/1/9，2026/2/23</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="F717" t="inlineStr"/>
       <c r="G717" t="inlineStr">
         <is>
-          <t>粤语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I717" t="inlineStr">
-        <is>
-          <t>BV1TBihBsEo5，BV1ksf6BeE2k</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I717" t="inlineStr"/>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>718</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>梦的光点</t>
-        </is>
-      </c>
-      <c r="C718" t="inlineStr"/>
+          <t>幽ノ楽園</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>幽幽乐园</t>
+        </is>
+      </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>S.H.E</t>
+          <t xml:space="preserve">Albemuth </t>
         </is>
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/25，2025/12/2，2026/2/23</t>
         </is>
       </c>
       <c r="F718" t="inlineStr"/>
       <c r="G718" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>日语</t>
         </is>
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I718" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I718" t="inlineStr">
+        <is>
+          <t>BV1oV2iBGEn4</t>
+        </is>
+      </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>719</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>幽ノ楽園</t>
-        </is>
-      </c>
-      <c r="C719" t="inlineStr">
-        <is>
-          <t>幽幽乐园</t>
-        </is>
-      </c>
+          <t>晚婚</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr"/>
       <c r="D719" t="inlineStr">
         <is>
-          <t xml:space="preserve">Albemuth </t>
+          <t>江蕙</t>
         </is>
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>2025/10/25，2025/12/2，2026/2/23</t>
+          <t>2025/10/28，2025/11/12，2025/12/19，2026/2/8，2026/2/10</t>
         </is>
       </c>
       <c r="F719" t="inlineStr"/>
       <c r="G719" t="inlineStr">
         <is>
-          <t>日语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>BV1oV2iBGEn4</t>
+          <t>BV1bscPz1EEj</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>720</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>晚婚</t>
+          <t>Unstoppable</t>
         </is>
       </c>
       <c r="C720" t="inlineStr"/>
       <c r="D720" t="inlineStr">
         <is>
-          <t>江蕙</t>
+          <t>Sia</t>
         </is>
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>2025/10/28，2025/11/12，2025/12/19，2026/2/8，2026/2/10</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="F720" t="inlineStr"/>
       <c r="G720" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I720" t="inlineStr">
-        <is>
-          <t>BV1bscPz1EEj</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I720" t="inlineStr"/>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>721</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Unstoppable</t>
+          <t>the cutest pair</t>
         </is>
       </c>
       <c r="C721" t="inlineStr"/>
       <c r="D721" t="inlineStr">
         <is>
-          <t>Sia</t>
+          <t>Regina Song</t>
         </is>
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/10/30，2025/11/3，2025/11/7，2025/11/13，2025/11/22，2025/12/5，2026/1/2</t>
         </is>
       </c>
       <c r="F721" t="inlineStr"/>
@@ -26811,31 +26835,35 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I721" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I721" t="inlineStr">
+        <is>
+          <t>BV1tJ1vBxEFQ</t>
+        </is>
+      </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>722</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>the cutest pair</t>
+          <t>We Are Never Ever Getting Back Together</t>
         </is>
       </c>
       <c r="C722" t="inlineStr"/>
       <c r="D722" t="inlineStr">
         <is>
-          <t>Regina Song</t>
+          <t>Taylor Swift</t>
         </is>
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t>2025/10/30，2025/11/3，2025/11/7，2025/11/13，2025/11/22，2025/12/5，2026/1/2</t>
+          <t>2025/10/31，2025/11/12</t>
         </is>
       </c>
       <c r="F722" t="inlineStr"/>
@@ -26846,46 +26874,42 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I722" t="inlineStr">
-        <is>
-          <t>BV1tJ1vBxEFQ</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I722" t="inlineStr"/>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>723</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>We Are Never Ever Getting Back Together</t>
+          <t>雨天</t>
         </is>
       </c>
       <c r="C723" t="inlineStr"/>
       <c r="D723" t="inlineStr">
         <is>
-          <t>Taylor Swift</t>
+          <t>孙燕姿</t>
         </is>
       </c>
       <c r="E723" t="inlineStr">
         <is>
-          <t>2025/10/31，2025/11/12</t>
+          <t>2025/11/3</t>
         </is>
       </c>
       <c r="F723" t="inlineStr"/>
       <c r="G723" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I723" t="inlineStr"/>
@@ -26893,18 +26917,22 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>724</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>雨天</t>
-        </is>
-      </c>
-      <c r="C724" t="inlineStr"/>
+          <t>ミラーチューン</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>Mirror Tune</t>
+        </is>
+      </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>孙燕姿</t>
+          <t>ずっと真夜中でいいのに。</t>
         </is>
       </c>
       <c r="E724" t="inlineStr">
@@ -26915,7 +26943,7 @@
       <c r="F724" t="inlineStr"/>
       <c r="G724" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>日语</t>
         </is>
       </c>
       <c r="H724" t="inlineStr">
@@ -26928,33 +26956,29 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>725</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>ミラーチューン</t>
-        </is>
-      </c>
-      <c r="C725" t="inlineStr">
-        <is>
-          <t>Mirror Tune</t>
-        </is>
-      </c>
+          <t>God Is a Girl</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr"/>
       <c r="D725" t="inlineStr">
         <is>
-          <t>ずっと真夜中でいいのに。</t>
+          <t>Groove Coverage</t>
         </is>
       </c>
       <c r="E725" t="inlineStr">
         <is>
-          <t>2025/11/3</t>
+          <t>2025/11/9</t>
         </is>
       </c>
       <c r="F725" t="inlineStr"/>
       <c r="G725" t="inlineStr">
         <is>
-          <t>日语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H725" t="inlineStr">
@@ -26967,18 +26991,18 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>726</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>God Is a Girl</t>
+          <t>给未来的自己</t>
         </is>
       </c>
       <c r="C726" t="inlineStr"/>
       <c r="D726" t="inlineStr">
         <is>
-          <t>Groove Coverage</t>
+          <t>梁静茹</t>
         </is>
       </c>
       <c r="E726" t="inlineStr">
@@ -26989,7 +27013,7 @@
       <c r="F726" t="inlineStr"/>
       <c r="G726" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H726" t="inlineStr">
@@ -27002,18 +27026,18 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>727</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>给未来的自己</t>
+          <t>夜车</t>
         </is>
       </c>
       <c r="C727" t="inlineStr"/>
       <c r="D727" t="inlineStr">
         <is>
-          <t>梁静茹</t>
+          <t>曾轶可</t>
         </is>
       </c>
       <c r="E727" t="inlineStr">
@@ -27037,34 +27061,34 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>728</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>夜车</t>
+          <t>All About U</t>
         </is>
       </c>
       <c r="C728" t="inlineStr"/>
       <c r="D728" t="inlineStr">
         <is>
-          <t>曾轶可</t>
+          <t>G.E.M. 邓紫棋</t>
         </is>
       </c>
       <c r="E728" t="inlineStr">
         <is>
-          <t>2025/11/9</t>
+          <t>2025/11/9，2026/1/14</t>
         </is>
       </c>
       <c r="F728" t="inlineStr"/>
       <c r="G728" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>粤语</t>
         </is>
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I728" t="inlineStr"/>
@@ -27072,34 +27096,34 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>729</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>All About U</t>
+          <t>Love Fool</t>
         </is>
       </c>
       <c r="C729" t="inlineStr"/>
       <c r="D729" t="inlineStr">
         <is>
-          <t>G.E.M. 邓紫棋</t>
+          <t>EXO</t>
         </is>
       </c>
       <c r="E729" t="inlineStr">
         <is>
-          <t>2025/11/9，2026/1/14</t>
+          <t>2025/11/9</t>
         </is>
       </c>
       <c r="F729" t="inlineStr"/>
       <c r="G729" t="inlineStr">
         <is>
-          <t>粤语</t>
+          <t>韩语</t>
         </is>
       </c>
       <c r="H729" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I729" t="inlineStr"/>
@@ -27107,34 +27131,34 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>730</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Love Fool</t>
+          <t>Try</t>
         </is>
       </c>
       <c r="C730" t="inlineStr"/>
       <c r="D730" t="inlineStr">
         <is>
-          <t>EXO</t>
+          <t>Colbie Caillat</t>
         </is>
       </c>
       <c r="E730" t="inlineStr">
         <is>
-          <t>2025/11/9</t>
+          <t>2025/11/9，2025/11/14</t>
         </is>
       </c>
       <c r="F730" t="inlineStr"/>
       <c r="G730" t="inlineStr">
         <is>
-          <t>韩语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I730" t="inlineStr"/>
@@ -27142,34 +27166,34 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>731</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>Try</t>
+          <t>Tabacco</t>
         </is>
       </c>
       <c r="C731" t="inlineStr"/>
       <c r="D731" t="inlineStr">
         <is>
-          <t>Colbie Caillat</t>
+          <t>로쿠</t>
         </is>
       </c>
       <c r="E731" t="inlineStr">
         <is>
-          <t>2025/11/9，2025/11/14</t>
+          <t>2025/11/10，2025/11/19，2026/1/5</t>
         </is>
       </c>
       <c r="F731" t="inlineStr"/>
       <c r="G731" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>韩语</t>
         </is>
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I731" t="inlineStr"/>
@@ -27177,23 +27201,27 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>732</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Tabacco</t>
-        </is>
-      </c>
-      <c r="C732" t="inlineStr"/>
+          <t>밤편지</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>夜信</t>
+        </is>
+      </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t>로쿠</t>
+          <t>IU</t>
         </is>
       </c>
       <c r="E732" t="inlineStr">
         <is>
-          <t>2025/11/10，2025/11/19，2026/1/5</t>
+          <t>2025/11/12，2025/11/14，2025/11/24，2025/12/6，2025/12/12，2025/12/26，2026/1/5，2026/1/30，2026/2/9</t>
         </is>
       </c>
       <c r="F732" t="inlineStr"/>
@@ -27204,74 +27232,70 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I732" t="inlineStr"/>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I732" t="inlineStr">
+        <is>
+          <t>BV1i1C3BYEKh</t>
+        </is>
+      </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>733</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>밤편지</t>
-        </is>
-      </c>
-      <c r="C733" t="inlineStr">
-        <is>
-          <t>夜信</t>
-        </is>
-      </c>
+          <t>雪落下的声音</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr"/>
       <c r="D733" t="inlineStr">
         <is>
-          <t>IU</t>
+          <t>陆虎</t>
         </is>
       </c>
       <c r="E733" t="inlineStr">
         <is>
-          <t>2025/11/12，2025/11/14，2025/11/24，2025/12/6，2025/12/12，2025/12/26，2026/1/5，2026/1/30，2026/2/9</t>
+          <t>2025/11/14，2025/12/26</t>
         </is>
       </c>
       <c r="F733" t="inlineStr"/>
       <c r="G733" t="inlineStr">
         <is>
-          <t>韩语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I733" t="inlineStr">
-        <is>
-          <t>BV1i1C3BYEKh</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I733" t="inlineStr"/>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>734</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>雪落下的声音</t>
+          <t>唯一</t>
         </is>
       </c>
       <c r="C734" t="inlineStr"/>
       <c r="D734" t="inlineStr">
         <is>
-          <t>陆虎</t>
+          <t>G.E.M. 邓紫棋</t>
         </is>
       </c>
       <c r="E734" t="inlineStr">
         <is>
-          <t>2025/11/14，2025/12/26</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="F734" t="inlineStr"/>
@@ -27282,7 +27306,7 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I734" t="inlineStr"/>
@@ -27290,23 +27314,23 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>735</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>唯一</t>
+          <t>绿色</t>
         </is>
       </c>
       <c r="C735" t="inlineStr"/>
       <c r="D735" t="inlineStr">
         <is>
-          <t>G.E.M. 邓紫棋</t>
+          <t>陈雪凝</t>
         </is>
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/14，2025/12/11</t>
         </is>
       </c>
       <c r="F735" t="inlineStr"/>
@@ -27317,7 +27341,7 @@
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I735" t="inlineStr"/>
@@ -27325,34 +27349,34 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>736</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>绿色</t>
+          <t>Bright</t>
         </is>
       </c>
       <c r="C736" t="inlineStr"/>
       <c r="D736" t="inlineStr">
         <is>
-          <t>陈雪凝</t>
+          <t>Echosmith</t>
         </is>
       </c>
       <c r="E736" t="inlineStr">
         <is>
-          <t>2025/11/14，2025/12/11</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="F736" t="inlineStr"/>
       <c r="G736" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I736" t="inlineStr"/>
@@ -27360,34 +27384,30 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Despacito</t>
         </is>
       </c>
       <c r="C737" t="inlineStr"/>
       <c r="D737" t="inlineStr">
         <is>
-          <t>Echosmith</t>
+          <t>Luis Fonsi</t>
         </is>
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/18，2025/11/26</t>
         </is>
       </c>
       <c r="F737" t="inlineStr"/>
-      <c r="G737" t="inlineStr">
-        <is>
-          <t>英语</t>
-        </is>
-      </c>
+      <c r="G737" t="inlineStr"/>
       <c r="H737" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I737" t="inlineStr"/>
@@ -27395,30 +27415,34 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>738</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>Despacito</t>
+          <t>FEARLESS</t>
         </is>
       </c>
       <c r="C738" t="inlineStr"/>
       <c r="D738" t="inlineStr">
         <is>
-          <t>Luis Fonsi</t>
+          <t>LE SSERAFIM</t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
         <is>
-          <t>2025/11/18，2025/11/26</t>
+          <t>2025/11/18</t>
         </is>
       </c>
       <c r="F738" t="inlineStr"/>
-      <c r="G738" t="inlineStr"/>
+      <c r="G738" t="inlineStr">
+        <is>
+          <t>韩语</t>
+        </is>
+      </c>
       <c r="H738" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I738" t="inlineStr"/>
@@ -27426,18 +27450,18 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>739</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>FEARLESS</t>
+          <t>Cake by the Ocean</t>
         </is>
       </c>
       <c r="C739" t="inlineStr"/>
       <c r="D739" t="inlineStr">
         <is>
-          <t>LE SSERAFIM</t>
+          <t>DNCE</t>
         </is>
       </c>
       <c r="E739" t="inlineStr">
@@ -27448,7 +27472,7 @@
       <c r="F739" t="inlineStr"/>
       <c r="G739" t="inlineStr">
         <is>
-          <t>韩语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H739" t="inlineStr">
@@ -27461,23 +27485,23 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>740</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>Cake by the Ocean</t>
+          <t>Frankenstein</t>
         </is>
       </c>
       <c r="C740" t="inlineStr"/>
       <c r="D740" t="inlineStr">
         <is>
-          <t>DNCE</t>
+          <t>Claire Rosinkranz</t>
         </is>
       </c>
       <c r="E740" t="inlineStr">
         <is>
-          <t>2025/11/18</t>
+          <t>2025/11/19，2025/12/26</t>
         </is>
       </c>
       <c r="F740" t="inlineStr"/>
@@ -27488,7 +27512,7 @@
       </c>
       <c r="H740" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I740" t="inlineStr"/>
@@ -27496,23 +27520,23 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>741</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>Frankenstein</t>
+          <t>All I Want For Christmas Is You</t>
         </is>
       </c>
       <c r="C741" t="inlineStr"/>
       <c r="D741" t="inlineStr">
         <is>
-          <t>Claire Rosinkranz</t>
+          <t>Mariah Carey</t>
         </is>
       </c>
       <c r="E741" t="inlineStr">
         <is>
-          <t>2025/11/19，2025/12/26</t>
+          <t>2025/11/24，2025/12/24</t>
         </is>
       </c>
       <c r="F741" t="inlineStr"/>
@@ -27531,34 +27555,34 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>742</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>All I Want For Christmas Is You</t>
+          <t>麦乐鸡(Melody)</t>
         </is>
       </c>
       <c r="C742" t="inlineStr"/>
       <c r="D742" t="inlineStr">
         <is>
-          <t>Mariah Carey</t>
+          <t>陶喆</t>
         </is>
       </c>
       <c r="E742" t="inlineStr">
         <is>
-          <t>2025/11/24，2025/12/24</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="F742" t="inlineStr"/>
       <c r="G742" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I742" t="inlineStr"/>
@@ -27566,18 +27590,18 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>743</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>麦乐鸡(Melody)</t>
+          <t>哈雪大冒险</t>
         </is>
       </c>
       <c r="C743" t="inlineStr"/>
       <c r="D743" t="inlineStr">
         <is>
-          <t>陶喆</t>
+          <t>曼波</t>
         </is>
       </c>
       <c r="E743" t="inlineStr">
@@ -27601,18 +27625,18 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>744</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>哈雪大冒险</t>
+          <t>Desperado</t>
         </is>
       </c>
       <c r="C744" t="inlineStr"/>
       <c r="D744" t="inlineStr">
         <is>
-          <t>曼波</t>
+          <t>Eagles</t>
         </is>
       </c>
       <c r="E744" t="inlineStr">
@@ -27623,7 +27647,7 @@
       <c r="F744" t="inlineStr"/>
       <c r="G744" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H744" t="inlineStr">
@@ -27636,23 +27660,23 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>745</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>Desperado</t>
+          <t>My heart will go on</t>
         </is>
       </c>
       <c r="C745" t="inlineStr"/>
       <c r="D745" t="inlineStr">
         <is>
-          <t>Eagles</t>
+          <t>Céline Dion</t>
         </is>
       </c>
       <c r="E745" t="inlineStr">
         <is>
-          <t>2025/11/24</t>
+          <t>2025/11/26</t>
         </is>
       </c>
       <c r="F745" t="inlineStr"/>
@@ -27671,18 +27695,22 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>745</t>
+          <t>746</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>My heart will go on</t>
-        </is>
-      </c>
-      <c r="C746" t="inlineStr"/>
+          <t>잘자요 아가씨</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>晚安大小姐</t>
+        </is>
+      </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>Céline Dion</t>
+          <t>ASMRZ</t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
@@ -27693,7 +27721,7 @@
       <c r="F746" t="inlineStr"/>
       <c r="G746" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>韩语</t>
         </is>
       </c>
       <c r="H746" t="inlineStr">
@@ -27706,62 +27734,62 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>747</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>잘자요 아가씨</t>
-        </is>
-      </c>
-      <c r="C747" t="inlineStr">
-        <is>
-          <t>晚安大小姐</t>
-        </is>
-      </c>
+          <t>恋人</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr"/>
       <c r="D747" t="inlineStr">
         <is>
-          <t>ASMRZ</t>
+          <t>李荣浩</t>
         </is>
       </c>
       <c r="E747" t="inlineStr">
         <is>
-          <t>2025/11/26</t>
+          <t>2025/11/27，2025/11/27，2025/11/28，2025/12/6，2025/12/13，2026/1/10，2026/1/24，2026/2/14</t>
         </is>
       </c>
       <c r="F747" t="inlineStr"/>
       <c r="G747" t="inlineStr">
         <is>
-          <t>韩语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I747" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I747" t="inlineStr">
+        <is>
+          <t>BV181SyBPERE</t>
+        </is>
+      </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>748</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>恋人</t>
+          <t>我不难过</t>
         </is>
       </c>
       <c r="C748" t="inlineStr"/>
       <c r="D748" t="inlineStr">
         <is>
-          <t>李荣浩</t>
+          <t>孙燕姿</t>
         </is>
       </c>
       <c r="E748" t="inlineStr">
         <is>
-          <t>2025/11/27，2025/11/27，2025/11/28，2025/12/6，2025/12/13，2026/1/10，2026/1/24，2026/2/14</t>
+          <t>2025/11/28</t>
         </is>
       </c>
       <c r="F748" t="inlineStr"/>
@@ -27772,30 +27800,26 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I748" t="inlineStr">
-        <is>
-          <t>BV181SyBPERE</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I748" t="inlineStr"/>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>749</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>我不难过</t>
+          <t>泪桥</t>
         </is>
       </c>
       <c r="C749" t="inlineStr"/>
       <c r="D749" t="inlineStr">
         <is>
-          <t>孙燕姿</t>
+          <t>伍佰</t>
         </is>
       </c>
       <c r="E749" t="inlineStr">
@@ -27819,18 +27843,18 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>751</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>泪桥</t>
+          <t>九张机</t>
         </is>
       </c>
       <c r="C750" t="inlineStr"/>
       <c r="D750" t="inlineStr">
         <is>
-          <t>伍佰</t>
+          <t>叶炫清</t>
         </is>
       </c>
       <c r="E750" t="inlineStr">
@@ -27854,29 +27878,29 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>752</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>九张机</t>
+          <t>Hey Jude</t>
         </is>
       </c>
       <c r="C751" t="inlineStr"/>
       <c r="D751" t="inlineStr">
         <is>
-          <t>叶炫清</t>
+          <t>The Beatles</t>
         </is>
       </c>
       <c r="E751" t="inlineStr">
         <is>
-          <t>2025/11/28</t>
+          <t>2025/12/2</t>
         </is>
       </c>
       <c r="F751" t="inlineStr"/>
       <c r="G751" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H751" t="inlineStr">
@@ -27889,23 +27913,23 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>753</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>Hey Jude</t>
+          <t>Loves Me Not</t>
         </is>
       </c>
       <c r="C752" t="inlineStr"/>
       <c r="D752" t="inlineStr">
         <is>
-          <t>The Beatles</t>
+          <t>t.A.T.u.</t>
         </is>
       </c>
       <c r="E752" t="inlineStr">
         <is>
-          <t>2025/12/2</t>
+          <t>2025/12/4</t>
         </is>
       </c>
       <c r="F752" t="inlineStr"/>
@@ -27924,18 +27948,18 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>754</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>Loves Me Not</t>
+          <t>不怕不怕</t>
         </is>
       </c>
       <c r="C753" t="inlineStr"/>
       <c r="D753" t="inlineStr">
         <is>
-          <t>t.A.T.u.</t>
+          <t>美美jocie</t>
         </is>
       </c>
       <c r="E753" t="inlineStr">
@@ -27946,7 +27970,7 @@
       <c r="F753" t="inlineStr"/>
       <c r="G753" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H753" t="inlineStr">
@@ -27959,23 +27983,23 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>754</t>
+          <t>755</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>不怕不怕</t>
+          <t>卜卦</t>
         </is>
       </c>
       <c r="C754" t="inlineStr"/>
       <c r="D754" t="inlineStr">
         <is>
-          <t>美美jocie</t>
+          <t>崔子格</t>
         </is>
       </c>
       <c r="E754" t="inlineStr">
         <is>
-          <t>2025/12/4</t>
+          <t>2025/12/5</t>
         </is>
       </c>
       <c r="F754" t="inlineStr"/>
@@ -27994,34 +28018,38 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>756</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>卜卦</t>
-        </is>
-      </c>
-      <c r="C755" t="inlineStr"/>
+          <t>届かない恋</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>无法传达的恋爱</t>
+        </is>
+      </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>崔子格</t>
+          <t>上原玲奈</t>
         </is>
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t>2025/12/5</t>
+          <t>2025/12/9，2026/2/2</t>
         </is>
       </c>
       <c r="F755" t="inlineStr"/>
       <c r="G755" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>日语</t>
         </is>
       </c>
       <c r="H755" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I755" t="inlineStr"/>
@@ -28029,62 +28057,62 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>757</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>届かない恋</t>
-        </is>
-      </c>
-      <c r="C756" t="inlineStr">
-        <is>
-          <t>无法传达的恋爱</t>
-        </is>
-      </c>
+          <t>听见</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr"/>
       <c r="D756" t="inlineStr">
         <is>
-          <t>上原玲奈</t>
+          <t>方雅贤</t>
         </is>
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t>2025/12/9，2026/2/2</t>
+          <t>2025/12/9，2025/12/17，2026/1/14，2026/1/23，2026/2/5，2026/2/10，2026/2/25</t>
         </is>
       </c>
       <c r="F756" t="inlineStr"/>
       <c r="G756" t="inlineStr">
         <is>
-          <t>日语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I756" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I756" t="inlineStr">
+        <is>
+          <t>BV1cWmnB5Etm</t>
+        </is>
+      </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>758</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>听见</t>
+          <t>神探</t>
         </is>
       </c>
       <c r="C757" t="inlineStr"/>
       <c r="D757" t="inlineStr">
         <is>
-          <t>方雅贤</t>
+          <t>丁世光</t>
         </is>
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>2025/12/9，2025/12/17，2026/1/14，2026/1/23，2026/2/5，2026/2/10</t>
+          <t>2025/12/11，2025/12/12，2025/12/17，2026/1/2，2026/1/5，2026/1/11，2026/1/17，2026/1/29，2026/2/9</t>
         </is>
       </c>
       <c r="F757" t="inlineStr"/>
@@ -28095,35 +28123,35 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>BV1cWmnB5Etm</t>
+          <t>BV1FekxB5Etj</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>759</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>神探</t>
+          <t>我的天坑</t>
         </is>
       </c>
       <c r="C758" t="inlineStr"/>
       <c r="D758" t="inlineStr">
         <is>
-          <t>丁世光</t>
+          <t>南征北战NZBZ</t>
         </is>
       </c>
       <c r="E758" t="inlineStr">
         <is>
-          <t>2025/12/11，2025/12/12，2025/12/17，2026/1/2，2026/1/5，2026/1/11，2026/1/17，2026/1/29，2026/2/9</t>
+          <t>2025/12/12</t>
         </is>
       </c>
       <c r="F758" t="inlineStr"/>
@@ -28134,30 +28162,26 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I758" t="inlineStr">
-        <is>
-          <t>BV1FekxB5Etj</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I758" t="inlineStr"/>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>760</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>我的天坑</t>
+          <t>同桌的你</t>
         </is>
       </c>
       <c r="C759" t="inlineStr"/>
       <c r="D759" t="inlineStr">
         <is>
-          <t>南征北战NZBZ</t>
+          <t>老狼</t>
         </is>
       </c>
       <c r="E759" t="inlineStr">
@@ -28181,18 +28205,18 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>761</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>同桌的你</t>
+          <t>北京东路的日子</t>
         </is>
       </c>
       <c r="C760" t="inlineStr"/>
       <c r="D760" t="inlineStr">
         <is>
-          <t>老狼</t>
+          <t>群星</t>
         </is>
       </c>
       <c r="E760" t="inlineStr">
@@ -28216,18 +28240,18 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>762</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>北京东路的日子</t>
+          <t>倔强</t>
         </is>
       </c>
       <c r="C761" t="inlineStr"/>
       <c r="D761" t="inlineStr">
         <is>
-          <t>群星</t>
+          <t>五月天</t>
         </is>
       </c>
       <c r="E761" t="inlineStr">
@@ -28251,18 +28275,18 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>763</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>倔强</t>
+          <t>Brand new me</t>
         </is>
       </c>
       <c r="C762" t="inlineStr"/>
       <c r="D762" t="inlineStr">
         <is>
-          <t>五月天</t>
+          <t>Alicia Keys</t>
         </is>
       </c>
       <c r="E762" t="inlineStr">
@@ -28273,7 +28297,7 @@
       <c r="F762" t="inlineStr"/>
       <c r="G762" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H762" t="inlineStr">
@@ -28286,29 +28310,29 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>764</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>Brand new me</t>
+          <t>太难唱了</t>
         </is>
       </c>
       <c r="C763" t="inlineStr"/>
       <c r="D763" t="inlineStr">
         <is>
-          <t>Alicia Keys</t>
+          <t>彭佳慧</t>
         </is>
       </c>
       <c r="E763" t="inlineStr">
         <is>
-          <t>2025/12/12</t>
+          <t>2025/12/16</t>
         </is>
       </c>
       <c r="F763" t="inlineStr"/>
       <c r="G763" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H763" t="inlineStr">
@@ -28321,23 +28345,23 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>765</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>太难唱了</t>
+          <t>他一定很爱你</t>
         </is>
       </c>
       <c r="C764" t="inlineStr"/>
       <c r="D764" t="inlineStr">
         <is>
-          <t>彭佳慧</t>
+          <t>阿杜</t>
         </is>
       </c>
       <c r="E764" t="inlineStr">
         <is>
-          <t>2025/12/16</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="F764" t="inlineStr"/>
@@ -28356,97 +28380,101 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>766</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>他一定很爱你</t>
+          <t>Please Please Please</t>
         </is>
       </c>
       <c r="C765" t="inlineStr"/>
       <c r="D765" t="inlineStr">
         <is>
-          <t>阿杜</t>
+          <t>Sabrina Carpenter</t>
         </is>
       </c>
       <c r="E765" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2025/12/19，2025/12/24，2025/12/26，2026/1/2，2026/1/9，2026/1/23，2026/1/29</t>
         </is>
       </c>
       <c r="F765" t="inlineStr"/>
       <c r="G765" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H765" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I765" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I765" t="inlineStr">
+        <is>
+          <t>BV1K8isBiExx</t>
+        </is>
+      </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>767</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>Please Please Please</t>
+          <t>流浪者之歌</t>
         </is>
       </c>
       <c r="C766" t="inlineStr"/>
       <c r="D766" t="inlineStr">
         <is>
-          <t>Sabrina Carpenter</t>
+          <t>F.I.R.飞儿乐团</t>
         </is>
       </c>
       <c r="E766" t="inlineStr">
         <is>
-          <t>2025/12/19，2025/12/24，2025/12/26，2026/1/2，2026/1/9，2026/1/23，2026/1/29</t>
+          <t>2025/12/19，2026/2/8</t>
         </is>
       </c>
       <c r="F766" t="inlineStr"/>
       <c r="G766" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H766" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>BV1K8isBiExx</t>
+          <t>BV1WVqrBLEc2</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>768</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>流浪者之歌</t>
+          <t>气球</t>
         </is>
       </c>
       <c r="C767" t="inlineStr"/>
       <c r="D767" t="inlineStr">
         <is>
-          <t>F.I.R.飞儿乐团</t>
+          <t>许哲珮</t>
         </is>
       </c>
       <c r="E767" t="inlineStr">
         <is>
-          <t>2025/12/19，2026/2/8</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="F767" t="inlineStr"/>
@@ -28457,35 +28485,31 @@
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I767" t="inlineStr">
-        <is>
-          <t>BV1WVqrBLEc2</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I767" t="inlineStr"/>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>769</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>气球</t>
+          <t>一样的月光</t>
         </is>
       </c>
       <c r="C768" t="inlineStr"/>
       <c r="D768" t="inlineStr">
         <is>
-          <t>许哲珮</t>
+          <t>徐佳莹</t>
         </is>
       </c>
       <c r="E768" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/19，2025/12/23，2025/12/26，2026/1/2，2026/1/5，2026/1/11，2026/1/25，2026/2/9，2026/2/23</t>
         </is>
       </c>
       <c r="F768" t="inlineStr"/>
@@ -28496,70 +28520,74 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I768" t="inlineStr"/>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I768" t="inlineStr">
+        <is>
+          <t>BV1oKiwBXE1L，BV1Csf6BeEYe</t>
+        </is>
+      </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>770</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>一样的月光</t>
+          <t>BIRDS OF A FEATHER</t>
         </is>
       </c>
       <c r="C769" t="inlineStr"/>
       <c r="D769" t="inlineStr">
         <is>
-          <t>徐佳莹</t>
+          <t>Billie Eilish</t>
         </is>
       </c>
       <c r="E769" t="inlineStr">
         <is>
-          <t>2025/12/19，2025/12/23，2025/12/26，2026/1/2，2026/1/5，2026/1/11，2026/1/25，2026/2/9，2026/2/23</t>
+          <t>2025/12/24，2025/12/24，2025/12/26，2026/1/2，2026/1/10</t>
         </is>
       </c>
       <c r="F769" t="inlineStr"/>
       <c r="G769" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>BV1oKiwBXE1L，BV1Csf6BeEYe</t>
+          <t>BV1GiicB5EFK</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>771</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>BIRDS OF A FEATHER</t>
+          <t>Catch Me If You Can</t>
         </is>
       </c>
       <c r="C770" t="inlineStr"/>
       <c r="D770" t="inlineStr">
         <is>
-          <t>Billie Eilish</t>
+          <t>鸣潮先约电台</t>
         </is>
       </c>
       <c r="E770" t="inlineStr">
         <is>
-          <t>2025/12/24，2025/12/24，2025/12/26，2026/1/2，2026/1/10</t>
+          <t>2025/12/26，2026/1/5，2026/1/19，2026/1/21，2026/1/22，2026/1/24，2026/2/7，2026/2/19，2026/2/24，2026/2/24，2026/2/25</t>
         </is>
       </c>
       <c r="F770" t="inlineStr"/>
@@ -28570,74 +28598,74 @@
       </c>
       <c r="H770" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>BV1GiicB5EFK</t>
+          <t>BV1pfzcBgERV，BV1aff2BvEZF</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>Catch Me If You Can</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C771" t="inlineStr"/>
       <c r="D771" t="inlineStr">
         <is>
-          <t>鸣潮先约电台</t>
+          <t>队长/黄礼格</t>
         </is>
       </c>
       <c r="E771" t="inlineStr">
         <is>
-          <t>2025/12/26，2026/1/5，2026/1/19，2026/1/21，2026/1/22，2026/1/24，2026/2/7，2026/2/19，2026/2/24，2026/2/24</t>
+          <t>2025/12/26，2026/1/19，2026/2/9</t>
         </is>
       </c>
       <c r="F771" t="inlineStr"/>
       <c r="G771" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>BV1pfzcBgERV，BV1aff2BvEZF</t>
+          <t>BV1VUcuzvEaU</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>773</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>鱼仔</t>
         </is>
       </c>
       <c r="C772" t="inlineStr"/>
       <c r="D772" t="inlineStr">
         <is>
-          <t>队长/黄礼格</t>
+          <t>卢广仲</t>
         </is>
       </c>
       <c r="E772" t="inlineStr">
         <is>
-          <t>2025/12/26，2026/1/19，2026/2/9</t>
+          <t>2025/12/26，2026/1/10，2026/1/22，2026/1/23，2026/1/31，2026/2/10，2026/2/23</t>
         </is>
       </c>
       <c r="F772" t="inlineStr"/>
@@ -28648,35 +28676,35 @@
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>BV1VUcuzvEaU</t>
+          <t>BV1mNBfBBEkr</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>774</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>鱼仔</t>
+          <t>Always Online</t>
         </is>
       </c>
       <c r="C773" t="inlineStr"/>
       <c r="D773" t="inlineStr">
         <is>
-          <t>卢广仲</t>
+          <t>林俊杰</t>
         </is>
       </c>
       <c r="E773" t="inlineStr">
         <is>
-          <t>2025/12/26，2026/1/10，2026/1/22，2026/1/23，2026/1/31，2026/2/10，2026/2/23</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="F773" t="inlineStr"/>
@@ -28687,35 +28715,31 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I773" t="inlineStr">
-        <is>
-          <t>BV1mNBfBBEkr</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I773" t="inlineStr"/>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>Always Online</t>
+          <t>如愿</t>
         </is>
       </c>
       <c r="C774" t="inlineStr"/>
       <c r="D774" t="inlineStr">
         <is>
-          <t>林俊杰</t>
+          <t>王菲</t>
         </is>
       </c>
       <c r="E774" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2026/1/5</t>
         </is>
       </c>
       <c r="F774" t="inlineStr"/>
@@ -28734,97 +28758,101 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>776</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>如愿</t>
+          <t>NOT CUTE ANYMORE</t>
         </is>
       </c>
       <c r="C775" t="inlineStr"/>
       <c r="D775" t="inlineStr">
         <is>
-          <t>王菲</t>
+          <t>ILLIT</t>
         </is>
       </c>
       <c r="E775" t="inlineStr">
         <is>
-          <t>2026/1/5</t>
+          <t>2025/12/27，2026/1/5，2026/1/6，2026/1/14，2026/1/23，2026/2/9</t>
         </is>
       </c>
       <c r="F775" t="inlineStr"/>
       <c r="G775" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>韩语</t>
         </is>
       </c>
       <c r="H775" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I775" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I775" t="inlineStr">
+        <is>
+          <t>BV1NrqABkEk4</t>
+        </is>
+      </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>777</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>NOT CUTE ANYMORE</t>
+          <t>莫名其妙爱上你</t>
         </is>
       </c>
       <c r="C776" t="inlineStr"/>
       <c r="D776" t="inlineStr">
         <is>
-          <t>ILLIT</t>
+          <t>朱主爱</t>
         </is>
       </c>
       <c r="E776" t="inlineStr">
         <is>
-          <t>2025/12/27，2026/1/5，2026/1/6，2026/1/14，2026/1/23，2026/2/9</t>
+          <t>2026/1/14</t>
         </is>
       </c>
       <c r="F776" t="inlineStr"/>
       <c r="G776" t="inlineStr">
         <is>
-          <t>韩语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>BV1NrqABkEk4</t>
+          <t>BV1c6rWBBEyT</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>778</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>莫名其妙爱上你</t>
+          <t>三理之歌</t>
         </is>
       </c>
       <c r="C777" t="inlineStr"/>
       <c r="D777" t="inlineStr">
         <is>
-          <t>朱主爱</t>
+          <t>库里之歌</t>
         </is>
       </c>
       <c r="E777" t="inlineStr">
         <is>
-          <t>2026/1/14</t>
+          <t>2026/1/15，2026/1/29</t>
         </is>
       </c>
       <c r="F777" t="inlineStr"/>
@@ -28835,35 +28863,35 @@
       </c>
       <c r="H777" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>BV1c6rWBBEyT</t>
+          <t>BV1kwkFBgEVE</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>779</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>三理之歌</t>
+          <t>坏女孩</t>
         </is>
       </c>
       <c r="C778" t="inlineStr"/>
       <c r="D778" t="inlineStr">
         <is>
-          <t>库里之歌</t>
+          <t>徐良</t>
         </is>
       </c>
       <c r="E778" t="inlineStr">
         <is>
-          <t>2026/1/15，2026/1/29</t>
+          <t>2026/1/19</t>
         </is>
       </c>
       <c r="F778" t="inlineStr"/>
@@ -28874,35 +28902,31 @@
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I778" t="inlineStr">
-        <is>
-          <t>BV1kwkFBgEVE</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I778" t="inlineStr"/>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>780</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>坏女孩</t>
+          <t>分手快乐</t>
         </is>
       </c>
       <c r="C779" t="inlineStr"/>
       <c r="D779" t="inlineStr">
         <is>
-          <t>徐良</t>
+          <t>梁静茹</t>
         </is>
       </c>
       <c r="E779" t="inlineStr">
         <is>
-          <t>2026/1/19</t>
+          <t>2026/1/21</t>
         </is>
       </c>
       <c r="F779" t="inlineStr"/>
@@ -28921,23 +28945,23 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>781</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>分手快乐</t>
+          <t>我只在乎你</t>
         </is>
       </c>
       <c r="C780" t="inlineStr"/>
       <c r="D780" t="inlineStr">
         <is>
-          <t>梁静茹</t>
+          <t>邓丽君</t>
         </is>
       </c>
       <c r="E780" t="inlineStr">
         <is>
-          <t>2026/1/21</t>
+          <t>2026/1/23</t>
         </is>
       </c>
       <c r="F780" t="inlineStr"/>
@@ -28956,34 +28980,34 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>782</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>我只在乎你</t>
+          <t>死别</t>
         </is>
       </c>
       <c r="C781" t="inlineStr"/>
       <c r="D781" t="inlineStr">
         <is>
-          <t>邓丽君</t>
+          <t>シャノン</t>
         </is>
       </c>
       <c r="E781" t="inlineStr">
         <is>
-          <t>2026/1/23</t>
+          <t>2026/1/23，2026/1/25，2026/2/5，2026/2/9</t>
         </is>
       </c>
       <c r="F781" t="inlineStr"/>
       <c r="G781" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>日语</t>
         </is>
       </c>
       <c r="H781" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I781" t="inlineStr"/>
@@ -28991,34 +29015,34 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>783</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>死别</t>
+          <t>情歌</t>
         </is>
       </c>
       <c r="C782" t="inlineStr"/>
       <c r="D782" t="inlineStr">
         <is>
-          <t>シャノン</t>
+          <t>梁静茹</t>
         </is>
       </c>
       <c r="E782" t="inlineStr">
         <is>
-          <t>2026/1/23，2026/1/25，2026/2/5，2026/2/9</t>
+          <t>2026/1/23</t>
         </is>
       </c>
       <c r="F782" t="inlineStr"/>
       <c r="G782" t="inlineStr">
         <is>
-          <t>日语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I782" t="inlineStr"/>
@@ -29026,23 +29050,23 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>784</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>情歌</t>
+          <t>几分之几</t>
         </is>
       </c>
       <c r="C783" t="inlineStr"/>
       <c r="D783" t="inlineStr">
         <is>
-          <t>梁静茹</t>
+          <t>卢广仲</t>
         </is>
       </c>
       <c r="E783" t="inlineStr">
         <is>
-          <t>2026/1/23</t>
+          <t>2026/1/24，2026/1/25，2026/1/26，2026/2/2，2026/2/7，2026/2/10，2026/2/14，2026/2/19</t>
         </is>
       </c>
       <c r="F783" t="inlineStr"/>
@@ -29053,31 +29077,35 @@
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I783" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I783" t="inlineStr">
+        <is>
+          <t>BV1sEzxBCEua</t>
+        </is>
+      </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>785</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>几分之几</t>
+          <t>爱不单行</t>
         </is>
       </c>
       <c r="C784" t="inlineStr"/>
       <c r="D784" t="inlineStr">
         <is>
-          <t>卢广仲</t>
+          <t>罗志祥</t>
         </is>
       </c>
       <c r="E784" t="inlineStr">
         <is>
-          <t>2026/1/24，2026/1/25，2026/1/26，2026/2/2，2026/2/7，2026/2/10，2026/2/14，2026/2/19</t>
+          <t>2026/1/24，2026/2/8</t>
         </is>
       </c>
       <c r="F784" t="inlineStr"/>
@@ -29088,168 +29116,164 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>BV1sEzxBCEua</t>
+          <t>BV1zPz1BRExW</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>爱不单行</t>
-        </is>
-      </c>
-      <c r="C785" t="inlineStr"/>
+          <t>STAR WALKIN'</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>逐星</t>
+        </is>
+      </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t>罗志祥</t>
+          <t>Lil Nas X</t>
         </is>
       </c>
       <c r="E785" t="inlineStr">
         <is>
-          <t>2026/1/24，2026/2/8</t>
+          <t>2026/1/25</t>
         </is>
       </c>
       <c r="F785" t="inlineStr"/>
       <c r="G785" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I785" t="inlineStr">
-        <is>
-          <t>BV1zPz1BRExW</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I785" t="inlineStr"/>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>787</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>STAR WALKIN'</t>
-        </is>
-      </c>
-      <c r="C786" t="inlineStr">
-        <is>
-          <t>逐星</t>
-        </is>
-      </c>
+          <t>阳光彩虹小白马</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr"/>
       <c r="D786" t="inlineStr">
         <is>
-          <t>Lil Nas X</t>
+          <t>大张伟</t>
         </is>
       </c>
       <c r="E786" t="inlineStr">
         <is>
-          <t>2026/1/25</t>
+          <t>2026/1/25，2026/2/10</t>
         </is>
       </c>
       <c r="F786" t="inlineStr"/>
       <c r="G786" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I786" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I786" t="inlineStr">
+        <is>
+          <t>BV1Gnc4zmEjA</t>
+        </is>
+      </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>788</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>阳光彩虹小白马</t>
+          <t>Lulala! Lululala!</t>
         </is>
       </c>
       <c r="C787" t="inlineStr"/>
       <c r="D787" t="inlineStr">
         <is>
-          <t>大张伟</t>
+          <t>鸣潮先约电台</t>
         </is>
       </c>
       <c r="E787" t="inlineStr">
         <is>
-          <t>2026/1/25，2026/2/10</t>
+          <t>2026/1/25，2026/1/30，2026/2/2，2026/2/8，2026/2/19，2026/2/23，2026/2/25</t>
         </is>
       </c>
       <c r="F787" t="inlineStr"/>
       <c r="G787" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>BV1Gnc4zmEjA</t>
+          <t>BV1Dv6qBsEXr</t>
         </is>
       </c>
     </row>
     <row r="788">
-      <c r="A788" t="inlineStr">
-        <is>
-          <t>788</t>
-        </is>
-      </c>
+      <c r="A788" t="inlineStr"/>
       <c r="B788" t="inlineStr">
         <is>
-          <t>Lulala! Lululala!</t>
+          <t>爱要坦荡荡(R&amp;B版)</t>
         </is>
       </c>
       <c r="C788" t="inlineStr"/>
       <c r="D788" t="inlineStr">
         <is>
-          <t>鸣潮先约电台</t>
+          <t>顾叮当</t>
         </is>
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t>2026/1/25，2026/1/30，2026/2/2，2026/2/8，2026/2/19，2026/2/23</t>
+          <t>2026/1/29</t>
         </is>
       </c>
       <c r="F788" t="inlineStr"/>
       <c r="G788" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>BV1Dv6qBsEXr</t>
+          <t>BV1Xx6cBRE14</t>
         </is>
       </c>
     </row>
@@ -29257,24 +29281,24 @@
       <c r="A789" t="inlineStr"/>
       <c r="B789" t="inlineStr">
         <is>
-          <t>爱要坦荡荡(R&amp;B版)</t>
+          <t>Long Live</t>
         </is>
       </c>
       <c r="C789" t="inlineStr"/>
       <c r="D789" t="inlineStr">
         <is>
-          <t>顾叮当</t>
+          <t>Taylor Swift</t>
         </is>
       </c>
       <c r="E789" t="inlineStr">
         <is>
-          <t>2026/1/29</t>
+          <t>2026/1/30</t>
         </is>
       </c>
       <c r="F789" t="inlineStr"/>
       <c r="G789" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H789" t="inlineStr">
@@ -29282,59 +29306,59 @@
           <t>1</t>
         </is>
       </c>
-      <c r="I789" t="inlineStr">
-        <is>
-          <t>BV1Xx6cBRE14</t>
-        </is>
-      </c>
+      <c r="I789" t="inlineStr"/>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr"/>
       <c r="B790" t="inlineStr">
         <is>
-          <t>Long Live</t>
+          <t>身不由己</t>
         </is>
       </c>
       <c r="C790" t="inlineStr"/>
       <c r="D790" t="inlineStr">
         <is>
-          <t>Taylor Swift</t>
+          <t>大都会乐团</t>
         </is>
       </c>
       <c r="E790" t="inlineStr">
         <is>
-          <t>2026/1/30</t>
+          <t>2026/2/2，2026/2/5，2026/2/9，2026/2/22</t>
         </is>
       </c>
       <c r="F790" t="inlineStr"/>
       <c r="G790" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H790" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I790" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I790" t="inlineStr">
+        <is>
+          <t>BV1fxFMzqEDd</t>
+        </is>
+      </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr"/>
       <c r="B791" t="inlineStr">
         <is>
-          <t>身不由己</t>
+          <t>乐鸣东方</t>
         </is>
       </c>
       <c r="C791" t="inlineStr"/>
       <c r="D791" t="inlineStr">
         <is>
-          <t>大都会乐团</t>
+          <t>洛天依</t>
         </is>
       </c>
       <c r="E791" t="inlineStr">
         <is>
-          <t>2026/2/2，2026/2/5，2026/2/9，2026/2/22</t>
+          <t>2026/2/7</t>
         </is>
       </c>
       <c r="F791" t="inlineStr"/>
@@ -29345,26 +29369,22 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I791" t="inlineStr">
-        <is>
-          <t>BV1fxFMzqEDd</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I791" t="inlineStr"/>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr"/>
       <c r="B792" t="inlineStr">
         <is>
-          <t>乐鸣东方</t>
+          <t>爱的飞行日记</t>
         </is>
       </c>
       <c r="C792" t="inlineStr"/>
       <c r="D792" t="inlineStr">
         <is>
-          <t>洛天依</t>
+          <t>周杰伦</t>
         </is>
       </c>
       <c r="E792" t="inlineStr">
@@ -29383,24 +29403,28 @@
           <t>1</t>
         </is>
       </c>
-      <c r="I792" t="inlineStr"/>
+      <c r="I792" t="inlineStr">
+        <is>
+          <t>BV1wGF4zFEBM</t>
+        </is>
+      </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr"/>
       <c r="B793" t="inlineStr">
         <is>
-          <t>爱的飞行日记</t>
+          <t>相亲相爱</t>
         </is>
       </c>
       <c r="C793" t="inlineStr"/>
       <c r="D793" t="inlineStr">
         <is>
-          <t>周杰伦</t>
+          <t>陈慧琳/张惠妹/孙楠/古淖文</t>
         </is>
       </c>
       <c r="E793" t="inlineStr">
         <is>
-          <t>2026/2/7</t>
+          <t>2026/2/8</t>
         </is>
       </c>
       <c r="F793" t="inlineStr"/>
@@ -29416,7 +29440,7 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>BV1wGF4zFEBM</t>
+          <t>BV1U9cTzpEjm</t>
         </is>
       </c>
     </row>
@@ -29424,18 +29448,18 @@
       <c r="A794" t="inlineStr"/>
       <c r="B794" t="inlineStr">
         <is>
-          <t>相亲相爱</t>
+          <t>混入人类计划</t>
         </is>
       </c>
       <c r="C794" t="inlineStr"/>
       <c r="D794" t="inlineStr">
         <is>
-          <t>陈慧琳/张惠妹/孙楠/古淖文</t>
+          <t>ChiliChill</t>
         </is>
       </c>
       <c r="E794" t="inlineStr">
         <is>
-          <t>2026/2/8</t>
+          <t>2026/2/8，2026/2/9，2026/2/14，2026/2/20</t>
         </is>
       </c>
       <c r="F794" t="inlineStr"/>
@@ -29446,12 +29470,12 @@
       </c>
       <c r="H794" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>BV1U9cTzpEjm</t>
+          <t>BV1JncczQEuJ，BV1c6fGBDEG1</t>
         </is>
       </c>
     </row>
@@ -29459,34 +29483,34 @@
       <c r="A795" t="inlineStr"/>
       <c r="B795" t="inlineStr">
         <is>
-          <t>混入人类计划</t>
+          <t>纸飞机</t>
         </is>
       </c>
       <c r="C795" t="inlineStr"/>
       <c r="D795" t="inlineStr">
         <is>
-          <t>ChiliChill</t>
+          <t>鸣潮先约电台/飞行雪绒</t>
         </is>
       </c>
       <c r="E795" t="inlineStr">
         <is>
-          <t>2026/2/8，2026/2/9，2026/2/14，2026/2/20</t>
+          <t>2026/2/8，2026/2/9，2026/2/12，2026/2/14，2026/2/19，2026/2/23，2026/2/24，2026/2/25</t>
         </is>
       </c>
       <c r="F795" t="inlineStr"/>
       <c r="G795" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H795" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>BV1JncczQEuJ，BV1c6fGBDEG1</t>
+          <t>BV1W4cuzSE8Y，BV12Ef6BBE5C</t>
         </is>
       </c>
     </row>
@@ -29494,34 +29518,34 @@
       <c r="A796" t="inlineStr"/>
       <c r="B796" t="inlineStr">
         <is>
-          <t>纸飞机</t>
+          <t>刻在我心底的名字</t>
         </is>
       </c>
       <c r="C796" t="inlineStr"/>
       <c r="D796" t="inlineStr">
         <is>
-          <t>鸣潮先约电台/飞行雪绒</t>
+          <t>卢广仲</t>
         </is>
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>2026/2/8，2026/2/9，2026/2/12，2026/2/14，2026/2/19，2026/2/23，2026/2/24</t>
+          <t>2026/2/9</t>
         </is>
       </c>
       <c r="F796" t="inlineStr"/>
       <c r="G796" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>BV1W4cuzSE8Y，BV12Ef6BBE5C</t>
+          <t>BV1EkcszREeP</t>
         </is>
       </c>
     </row>
@@ -29529,18 +29553,18 @@
       <c r="A797" t="inlineStr"/>
       <c r="B797" t="inlineStr">
         <is>
-          <t>刻在我心底的名字</t>
+          <t>词不达意</t>
         </is>
       </c>
       <c r="C797" t="inlineStr"/>
       <c r="D797" t="inlineStr">
         <is>
-          <t>卢广仲</t>
+          <t>林忆莲</t>
         </is>
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t>2026/2/9</t>
+          <t>2026/2/12</t>
         </is>
       </c>
       <c r="F797" t="inlineStr"/>
@@ -29556,7 +29580,7 @@
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>BV1EkcszREeP</t>
+          <t>BV1BNcBz4ECH</t>
         </is>
       </c>
     </row>
@@ -29564,34 +29588,38 @@
       <c r="A798" t="inlineStr"/>
       <c r="B798" t="inlineStr">
         <is>
-          <t>词不达意</t>
-        </is>
-      </c>
-      <c r="C798" t="inlineStr"/>
+          <t>RUNNING FOR YOUR LIFE</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>无所遁藏</t>
+        </is>
+      </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>林忆莲</t>
+          <t>鸣潮先约电台/Casey Lee Williams</t>
         </is>
       </c>
       <c r="E798" t="inlineStr">
         <is>
-          <t>2026/2/12</t>
+          <t>2026/2/14，2026/2/24</t>
         </is>
       </c>
       <c r="F798" t="inlineStr"/>
       <c r="G798" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H798" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>BV1BNcBz4ECH</t>
+          <t>BV14GZEBgErZ</t>
         </is>
       </c>
     </row>
@@ -29599,28 +29627,24 @@
       <c r="A799" t="inlineStr"/>
       <c r="B799" t="inlineStr">
         <is>
-          <t>RUNNING FOR YOUR LIFE</t>
-        </is>
-      </c>
-      <c r="C799" t="inlineStr">
-        <is>
-          <t>无所遁藏</t>
-        </is>
-      </c>
+          <t>发财发福中国年</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr"/>
       <c r="D799" t="inlineStr">
         <is>
-          <t>鸣潮先约电台/Casey Lee Williams</t>
+          <t>中国娃娃</t>
         </is>
       </c>
       <c r="E799" t="inlineStr">
         <is>
-          <t>2026/2/14，2026/2/24</t>
+          <t>2026/2/17，2026/2/19</t>
         </is>
       </c>
       <c r="F799" t="inlineStr"/>
       <c r="G799" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H799" t="inlineStr">
@@ -29630,7 +29654,7 @@
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>BV14GZEBgErZ</t>
+          <t>BV1EYZ1B6ECT</t>
         </is>
       </c>
     </row>
@@ -29638,18 +29662,18 @@
       <c r="A800" t="inlineStr"/>
       <c r="B800" t="inlineStr">
         <is>
-          <t>发财发福中国年</t>
+          <t>恭喜发财</t>
         </is>
       </c>
       <c r="C800" t="inlineStr"/>
       <c r="D800" t="inlineStr">
         <is>
-          <t>中国娃娃</t>
+          <t>刘德华</t>
         </is>
       </c>
       <c r="E800" t="inlineStr">
         <is>
-          <t>2026/2/17，2026/2/19</t>
+          <t>2026/2/17</t>
         </is>
       </c>
       <c r="F800" t="inlineStr"/>
@@ -29660,37 +29684,33 @@
       </c>
       <c r="H800" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I800" t="inlineStr">
-        <is>
-          <t>BV1EYZ1B6ECT</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I800" t="inlineStr"/>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr"/>
       <c r="B801" t="inlineStr">
         <is>
-          <t>恭喜发财</t>
+          <t>迎春花</t>
         </is>
       </c>
       <c r="C801" t="inlineStr"/>
       <c r="D801" t="inlineStr">
         <is>
-          <t>刘德华</t>
+          <t>卓依婷</t>
         </is>
       </c>
       <c r="E801" t="inlineStr">
         <is>
-          <t>2026/2/17</t>
+          <t>2026/2/19</t>
         </is>
       </c>
       <c r="F801" t="inlineStr"/>
       <c r="G801" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>粤语</t>
         </is>
       </c>
       <c r="H801" t="inlineStr">
@@ -29698,19 +29718,23 @@
           <t>1</t>
         </is>
       </c>
-      <c r="I801" t="inlineStr"/>
+      <c r="I801" t="inlineStr">
+        <is>
+          <t>BV1gnZBBiEmr</t>
+        </is>
+      </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr"/>
       <c r="B802" t="inlineStr">
         <is>
-          <t>迎春花</t>
+          <t>天堂</t>
         </is>
       </c>
       <c r="C802" t="inlineStr"/>
       <c r="D802" t="inlineStr">
         <is>
-          <t>卓依婷</t>
+          <t>腾格尔</t>
         </is>
       </c>
       <c r="E802" t="inlineStr">
@@ -29721,7 +29745,7 @@
       <c r="F802" t="inlineStr"/>
       <c r="G802" t="inlineStr">
         <is>
-          <t>粤语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H802" t="inlineStr">
@@ -29731,7 +29755,7 @@
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>BV1gnZBBiEmr</t>
+          <t>BV166ZBBQEWz</t>
         </is>
       </c>
     </row>
@@ -29739,18 +29763,18 @@
       <c r="A803" t="inlineStr"/>
       <c r="B803" t="inlineStr">
         <is>
-          <t>天堂</t>
+          <t>退后</t>
         </is>
       </c>
       <c r="C803" t="inlineStr"/>
       <c r="D803" t="inlineStr">
         <is>
-          <t>腾格尔</t>
+          <t>周杰伦</t>
         </is>
       </c>
       <c r="E803" t="inlineStr">
         <is>
-          <t>2026/2/19</t>
+          <t>2026/2/20</t>
         </is>
       </c>
       <c r="F803" t="inlineStr"/>
@@ -29766,7 +29790,7 @@
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>BV166ZBBQEWz</t>
+          <t>BV1zkfGBEELD</t>
         </is>
       </c>
     </row>
@@ -29774,13 +29798,13 @@
       <c r="A804" t="inlineStr"/>
       <c r="B804" t="inlineStr">
         <is>
-          <t>退后</t>
+          <t>最近还好吗</t>
         </is>
       </c>
       <c r="C804" t="inlineStr"/>
       <c r="D804" t="inlineStr">
         <is>
-          <t>周杰伦</t>
+          <t>S.H.E</t>
         </is>
       </c>
       <c r="E804" t="inlineStr">
@@ -29801,7 +29825,7 @@
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>BV1zkfGBEELD</t>
+          <t>BV14Tf3BWEef</t>
         </is>
       </c>
     </row>
@@ -29809,34 +29833,34 @@
       <c r="A805" t="inlineStr"/>
       <c r="B805" t="inlineStr">
         <is>
-          <t>最近还好吗</t>
+          <t>持续瞬间的永恒</t>
         </is>
       </c>
       <c r="C805" t="inlineStr"/>
       <c r="D805" t="inlineStr">
         <is>
-          <t>S.H.E</t>
+          <t>鸣潮先约电台/jixwang/markmilian/Sophia</t>
         </is>
       </c>
       <c r="E805" t="inlineStr">
         <is>
-          <t>2026/2/20</t>
+          <t>2026/2/22，2026/2/23，2026/2/24，2026/2/25</t>
         </is>
       </c>
       <c r="F805" t="inlineStr"/>
       <c r="G805" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>BV14Tf3BWEef</t>
+          <t>BV1K7f6BgE9r</t>
         </is>
       </c>
     </row>
@@ -29844,34 +29868,34 @@
       <c r="A806" t="inlineStr"/>
       <c r="B806" t="inlineStr">
         <is>
-          <t>持续瞬间的永恒</t>
+          <t>安静</t>
         </is>
       </c>
       <c r="C806" t="inlineStr"/>
       <c r="D806" t="inlineStr">
         <is>
-          <t>鸣潮先约电台/jixwang/markmilian/Sophia</t>
+          <t>周杰伦</t>
         </is>
       </c>
       <c r="E806" t="inlineStr">
         <is>
-          <t>2026/2/22，2026/2/23，2026/2/24</t>
+          <t>2026/2/23</t>
         </is>
       </c>
       <c r="F806" t="inlineStr"/>
       <c r="G806" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>华语</t>
         </is>
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>BV1K7f6BgE9r</t>
+          <t>BV11nf6BTE4b</t>
         </is>
       </c>
     </row>
@@ -29879,13 +29903,13 @@
       <c r="A807" t="inlineStr"/>
       <c r="B807" t="inlineStr">
         <is>
-          <t>安静</t>
+          <t>可惜没如果</t>
         </is>
       </c>
       <c r="C807" t="inlineStr"/>
       <c r="D807" t="inlineStr">
         <is>
-          <t>周杰伦</t>
+          <t>林俊杰</t>
         </is>
       </c>
       <c r="E807" t="inlineStr">
@@ -29906,7 +29930,7 @@
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>BV11nf6BTE4b</t>
+          <t>BV1w1fzBwEhj</t>
         </is>
       </c>
     </row>
@@ -29914,18 +29938,18 @@
       <c r="A808" t="inlineStr"/>
       <c r="B808" t="inlineStr">
         <is>
-          <t>可惜没如果</t>
+          <t>星炬不熄</t>
         </is>
       </c>
       <c r="C808" t="inlineStr"/>
       <c r="D808" t="inlineStr">
         <is>
-          <t>林俊杰</t>
+          <t>鸣潮先约电台/飞行雪绒/星炬学院毕业生</t>
         </is>
       </c>
       <c r="E808" t="inlineStr">
         <is>
-          <t>2026/2/23</t>
+          <t>2026/2/25</t>
         </is>
       </c>
       <c r="F808" t="inlineStr"/>
@@ -29941,7 +29965,7 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>BV1w1fzBwEhj</t>
+          <t>BV1WDfaByEfD</t>
         </is>
       </c>
     </row>

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I808"/>
+  <dimension ref="A1:I809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -940,7 +940,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025/03/04，2025/03/12，2025/03/17，2025/03/28，2025/04/07，2025/04/19，2025/04/26，2025/05/06，2025/05/16，2025/05/22，2025/05/30，2025/06/21，2025/07/06，2025/08/22，2025/09/06，2025/09/21，2025/10/23，2025/11/10，2025/11/13，2025/12/4，2026/1/24，2026/1/24，2026/2/19</t>
+          <t>2025/03/04，2025/03/12，2025/03/17，2025/03/28，2025/04/07，2025/04/19，2025/04/26，2025/05/06，2025/05/16，2025/05/22，2025/05/30，2025/06/21，2025/07/06，2025/08/22，2025/09/06，2025/09/21，2025/10/23，2025/11/10，2025/11/13，2025/12/4，2026/1/24，2026/1/24，2026/2/19，2026/2/25</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -951,7 +951,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025/03/04，2025/03/17，2025/03/21，2025/04/04，2025/04/14，2025/04/19，2025/04/25，2025/05/08，2025/05/09，2025/05/19，2025/05/27，2025/05/29，2025/06/08，2025/06/09，2025/07/11，2025/07/14，2025/08/04，2025/08/08，2025/08/12，2025/09/18，2025/10/03，2025/10/10，2025/10/23，2025/11/13，2025/11/28，2025/12/13，2025/12/28，2026/1/9，2026/1/28</t>
+          <t>2025/03/04，2025/03/17，2025/03/21，2025/04/04，2025/04/14，2025/04/19，2025/04/25，2025/05/08，2025/05/09，2025/05/19，2025/05/27，2025/05/29，2025/06/08，2025/06/09，2025/07/11，2025/07/14，2025/08/04，2025/08/08，2025/08/12，2025/09/18，2025/10/03，2025/10/10，2025/10/23，2025/11/13，2025/11/28，2025/12/13，2025/12/28，2026/1/9，2026/1/28，2026/2/25</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025/03/06，2025/03/21，2025/04/19，2025/05/11，2025/06/03，2026/1/19，2026/1/25</t>
+          <t>2025/03/06，2025/03/21，2025/04/19，2025/05/11，2025/06/03，2026/1/19，2026/1/25，2026/2/25</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025/03/06，2025/04/03，2025/04/14，2025/05/05，2025/05/15，2025/05/29，2025/06/20，2025/06/27，2025/08/07，2025/08/24，2025/09/17，2025/10/16，2025/11/10，2025/12/9，2025/12/17，2026/1/21，2026/2/12</t>
+          <t>2025/03/06，2025/04/03，2025/04/14，2025/05/05，2025/05/15，2025/05/29，2025/06/20，2025/06/27，2025/08/07，2025/08/24，2025/09/17，2025/10/16，2025/11/10，2025/12/9，2025/12/17，2026/1/21，2026/2/12，2026/2/25</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025/03/06，2025/04/06，2025/04/13，2025/04/22，2025/05/08，2025/05/09，2025/05/30，2025/06/08，2025/08/04，2025/09/18，2025/10/12，2025/11/21，2026/1/24，2026/2/14</t>
+          <t>2025/03/06，2025/04/06，2025/04/13，2025/04/22，2025/05/08，2025/05/09，2025/05/30，2025/06/08，2025/08/04，2025/09/18，2025/10/12，2025/11/21，2026/1/24，2026/2/14，2026/2/25</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025/03/07，2025/03/21，2025/04/04，2025/04/18，2025/04/29，2025/05/08，2025/05/22，2025/05/25，2025/06/06，2025/06/08，2025/06/13，2025/06/13，2025/06/26，2025/07/03，2025/07/05，2025/07/11，2025/07/14，2025/07/26，2025/08/02，2025/08/12，2025/08/21，2025/09/17，2025/11/9，2025/12/4，2025/12/16，2025/12/31，2026/1/9，2026/1/15，2026/1/21，2026/1/23，2026/1/29，2026/2/2，2026/2/7，2026/2/10，2026/2/14，2026/2/19，2026/2/24</t>
+          <t>2025/03/07，2025/03/21，2025/04/04，2025/04/18，2025/04/29，2025/05/08，2025/05/22，2025/05/25，2025/06/06，2025/06/08，2025/06/13，2025/06/13，2025/06/26，2025/07/03，2025/07/05，2025/07/11，2025/07/14，2025/07/26，2025/08/02，2025/08/12，2025/08/21，2025/09/17，2025/11/9，2025/12/4，2025/12/16，2025/12/31，2026/1/9，2026/1/15，2026/1/21，2026/1/23，2026/1/29，2026/2/2，2026/2/7，2026/2/10，2026/2/14，2026/2/19，2026/2/24，2026/2/25</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>2025/03/20，2025/05/19，2025/06/12，2025/06/19，2025/06/23，2025/07/11，2025/08/03，2025/08/12，2025/08/21，2025/09/15，2025/10/07，2025/12/2，2026/1/16，2026/2/2，2026/2/23</t>
+          <t>2025/03/20，2025/05/19，2025/06/12，2025/06/19，2025/06/23，2025/07/11，2025/08/03，2025/08/12，2025/08/21，2025/09/15，2025/10/07，2025/12/2，2026/1/16，2026/2/2，2026/2/23，2026/2/25</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -6239,7 +6239,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>2025/03/20，2025/04/04，2025/05/03，2025/05/22，2025/06/05，2025/07/25，2025/08/26，2025/08/16，2025/09/21，2025/10/03，2025/11/12，2026/1/23，2026/1/26，2026/2/7，2026/2/10，2026/2/23</t>
+          <t>2025/03/20，2025/04/04，2025/05/03，2025/05/22，2025/06/05，2025/07/25，2025/08/26，2025/08/16，2025/09/21，2025/10/03，2025/11/12，2026/1/23，2026/1/26，2026/2/7，2026/2/10，2026/2/23，2026/2/25</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -6395,7 +6395,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>2025/03/27，2025/04/03，2025/04/15，2025/04/24，2025/05/13，2025/06/02，2025/06/27，2025/07/14，2025/08/26，2025/09/02，2025/10/03，2025/10/17，2025/11/21，2026/2/14，2026/2/23</t>
+          <t>2025/03/27，2025/04/03，2025/04/15，2025/04/24，2025/05/13，2025/06/02，2025/06/27，2025/07/14，2025/08/26，2025/09/02，2025/10/03，2025/10/17，2025/11/21，2026/2/14，2026/2/23，2026/2/25</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>2025/04/01，2025/04/28，2025/05/22，2025/06/08，2025/06/27，2025/07/08，2025/08/01，2025/09/03，2025/09/28，2025/10/16，2025/10/23，2025/10/31，2025/12/19，2025/12/31，2026/1/21</t>
+          <t>2025/04/01，2025/04/28，2025/05/22，2025/06/08，2025/06/27，2025/07/08，2025/08/01，2025/09/03，2025/09/28，2025/10/16，2025/10/23，2025/10/31，2025/12/19，2025/12/31，2026/1/21，2026/2/25</t>
         </is>
       </c>
       <c r="F256" t="inlineStr"/>
@@ -10020,10 +10020,14 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I256" t="inlineStr"/>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>BV1ocznBSE1q</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -17008,7 +17012,7 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>2025/05/18</t>
+          <t>2025/05/18，2026/2/25</t>
         </is>
       </c>
       <c r="F449" t="inlineStr"/>
@@ -17019,10 +17023,14 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I449" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>BV1HENXzUEiK</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -17872,7 +17880,7 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>2025/05/27，2025/05/29，2025/05/30，2025/05/31，2025/06/02，2025/06/03，2025/06/06，2025/06/08，2025/06/13，2025/06/13，2025/06/26，2025/07/03，2025/07/11，2025/07/22，2025/08/21，2025/09/10，2025/09/26，2025/10/03，2025/10/11，2025/10/26，2025/11/7，2025/12/7，2025/12/23，2026/1/9，2026/1/24，2026/2/9</t>
+          <t>2025/05/27，2025/05/29，2025/05/30，2025/05/31，2025/06/02，2025/06/03，2025/06/06，2025/06/08，2025/06/13，2025/06/13，2025/06/26，2025/07/03，2025/07/11，2025/07/22，2025/08/21，2025/09/10，2025/09/26，2025/10/03，2025/10/11，2025/10/26，2025/11/7，2025/12/7，2025/12/23，2026/1/9，2026/1/24，2026/2/9，2026/2/25</t>
         </is>
       </c>
       <c r="F473" t="inlineStr"/>
@@ -17883,7 +17891,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -21246,7 +21254,7 @@
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>2025/07/03，2025/07/07，2025/07/26，2025/08/28，2025/09/14，2025/10/11，2025/11/26，2025/12/9，2026/1/9，2026/1/23，2026/2/12</t>
+          <t>2025/07/03，2025/07/07，2025/07/26，2025/08/28，2025/09/14，2025/10/11，2025/11/26，2025/12/9，2026/1/9，2026/1/23，2026/2/12，2026/2/25</t>
         </is>
       </c>
       <c r="F567" t="inlineStr"/>
@@ -21257,7 +21265,7 @@
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
@@ -22394,7 +22402,7 @@
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>2025/07/23，2025/12/12</t>
+          <t>2025/07/23，2025/12/12，2026/2/25</t>
         </is>
       </c>
       <c r="F599" t="inlineStr"/>
@@ -22405,10 +22413,14 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I599" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I599" t="inlineStr">
+        <is>
+          <t>BV1opmUBmE8R</t>
+        </is>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -23204,7 +23216,7 @@
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>2025/08/24，2025/09/20，2025/10/07，2025/11/9，2025/11/21</t>
+          <t>2025/08/24，2025/09/20，2025/10/07，2025/11/9，2025/11/21，2026/2/25</t>
         </is>
       </c>
       <c r="F621" t="inlineStr"/>
@@ -23215,10 +23227,14 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I621" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>BV1J2kRBZEgH</t>
+        </is>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -25150,7 +25166,7 @@
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>2025/09/26，2025/11/18，2026/1/9</t>
+          <t>2025/09/26，2025/11/18，2026/1/9，2026/2/25</t>
         </is>
       </c>
       <c r="F675" t="inlineStr"/>
@@ -25161,10 +25177,14 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I675" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I675" t="inlineStr">
+        <is>
+          <t>BV1xoyVBoE8C</t>
+        </is>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -28084,7 +28104,7 @@
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>2025/12/9，2025/12/17，2026/1/14，2026/1/23，2026/2/5，2026/2/10</t>
+          <t>2025/12/9，2025/12/17，2026/1/14，2026/1/23，2026/2/5，2026/2/10，2026/2/25</t>
         </is>
       </c>
       <c r="F757" t="inlineStr"/>
@@ -28095,7 +28115,7 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I757" t="inlineStr">
@@ -28598,7 +28618,7 @@
       </c>
       <c r="E771" t="inlineStr">
         <is>
-          <t>2025/12/26，2026/1/5，2026/1/19，2026/1/21，2026/1/22，2026/1/24，2026/2/7，2026/2/19，2026/2/24，2026/2/24</t>
+          <t>2025/12/26，2026/1/5，2026/1/19，2026/1/21，2026/1/22，2026/1/24，2026/2/7，2026/2/19，2026/2/24，2026/2/24，2026/2/25</t>
         </is>
       </c>
       <c r="F771" t="inlineStr"/>
@@ -28609,7 +28629,7 @@
       </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
@@ -29233,7 +29253,7 @@
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t>2026/1/25，2026/1/30，2026/2/2，2026/2/8，2026/2/19，2026/2/23</t>
+          <t>2026/1/25，2026/1/30，2026/2/2，2026/2/8，2026/2/19，2026/2/23，2026/2/25</t>
         </is>
       </c>
       <c r="F788" t="inlineStr"/>
@@ -29244,7 +29264,7 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
@@ -29505,7 +29525,7 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>2026/2/8，2026/2/9，2026/2/12，2026/2/14，2026/2/19，2026/2/23，2026/2/24</t>
+          <t>2026/2/8，2026/2/9，2026/2/12，2026/2/14，2026/2/19，2026/2/23，2026/2/24，2026/2/25</t>
         </is>
       </c>
       <c r="F796" t="inlineStr"/>
@@ -29516,7 +29536,7 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
@@ -29855,7 +29875,7 @@
       </c>
       <c r="E806" t="inlineStr">
         <is>
-          <t>2026/2/22，2026/2/23，2026/2/24</t>
+          <t>2026/2/22，2026/2/23，2026/2/24，2026/2/25</t>
         </is>
       </c>
       <c r="F806" t="inlineStr"/>
@@ -29866,7 +29886,7 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">
@@ -29942,6 +29962,41 @@
       <c r="I808" t="inlineStr">
         <is>
           <t>BV1w1fzBwEhj</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr"/>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>星炬不熄</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr"/>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>鸣潮先约电台/飞行雪绒/星炬学院毕业生</t>
+        </is>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>2026/2/25</t>
+        </is>
+      </c>
+      <c r="F809" t="inlineStr"/>
+      <c r="G809" t="inlineStr">
+        <is>
+          <t>华语</t>
+        </is>
+      </c>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I809" t="inlineStr">
+        <is>
+          <t>BV1WDfaByEfD</t>
         </is>
       </c>
     </row>

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -25141,7 +25141,7 @@
       <c r="F674" t="inlineStr"/>
       <c r="G674" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>华语，韩语</t>
         </is>
       </c>
       <c r="H674" t="inlineStr">
@@ -29955,7 +29955,7 @@
       <c r="F808" t="inlineStr"/>
       <c r="G808" t="inlineStr">
         <is>
-          <t>华语</t>
+          <t>华语，韩语</t>
         </is>
       </c>
       <c r="H808" t="inlineStr">

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I808"/>
+  <dimension ref="A1:I809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025/03/04，2025/03/25，2025/04/29，2025/05/09，2025/05/13，2025/05/22，2025/05/26，2025/05/30，2025/06/08，2025/06/13，2025/06/20，2025/07/05，2025/07/14，2025/07/20，2025/08/01，2025/08/30，2025/09/12，2025/09/17，2025/09/02，2025/09/22，2025/09/24，2025/10/03，2025/10/12，2025/11/14，2025/11/21，2025/11/28，2025/12/17，2026/1/10，2026/1/22，2026/2/10，2026/2/14，2026/2/14</t>
+          <t>2025/03/04，2025/03/25，2025/04/29，2025/05/09，2025/05/13，2025/05/22，2025/05/26，2025/05/30，2025/06/08，2025/06/13，2025/06/20，2025/07/05，2025/07/14，2025/07/20，2025/08/01，2025/08/30，2025/09/12，2025/09/17，2025/09/02，2025/09/22，2025/09/24，2025/10/03，2025/10/12，2025/11/14，2025/11/21，2025/11/28，2025/12/17，2026/1/10，2026/1/22，2026/2/10，2026/2/14，2026/2/14，2026/2/27</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TICKING AWAY (VCT ANTHEM 2023)</t>
+          <t>TICKING AWAY</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2231,10 +2231,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025/03/06，2025/03/28，2025/04/19，2025/04/24，2025/05/03，2025/05/15，2025/05/16，2025/05/22，2025/05/30，2025/06/14，2025/06/19，2025/06/26，2025/07/18，2025/08/04，2025/09/10，2025/09/18，2025/10/03，2026/2/7，2026/2/9</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
+          <t>2025/03/06，2025/03/28，2025/04/19，2025/04/24，2025/05/03，2025/05/15，2025/05/16，2025/05/22，2025/05/30，2025/06/14，2025/06/19，2025/06/26，2025/07/18，2025/08/04，2025/09/10，2025/09/18，2025/10/03，2026/2/7，2026/2/9，2026/2/27</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2023无畏契约全球冠军赛主题曲</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
           <t>英语</t>
@@ -2242,7 +2246,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2839,7 +2843,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025/03/07，2025/03/21，2025/04/04，2025/04/18，2025/04/29，2025/05/08，2025/05/22，2025/05/25，2025/06/06，2025/06/08，2025/06/13，2025/06/13，2025/06/26，2025/07/03，2025/07/05，2025/07/11，2025/07/14，2025/07/26，2025/08/02，2025/08/12，2025/08/21，2025/09/17，2025/11/9，2025/12/4，2025/12/16，2025/12/31，2026/1/9，2026/1/15，2026/1/21，2026/1/23，2026/1/29，2026/2/2，2026/2/7，2026/2/10，2026/2/14，2026/2/19，2026/2/24，2026/2/25</t>
+          <t>2025/03/07，2025/03/21，2025/04/04，2025/04/18，2025/04/29，2025/05/08，2025/05/22，2025/05/25，2025/06/06，2025/06/08，2025/06/13，2025/06/13，2025/06/26，2025/07/03，2025/07/05，2025/07/11，2025/07/14，2025/07/26，2025/08/02，2025/08/12，2025/08/21，2025/09/17，2025/11/9，2025/12/4，2025/12/16，2025/12/31，2026/1/9，2026/1/15，2026/1/21，2026/1/23，2026/1/29，2026/2/2，2026/2/7，2026/2/10，2026/2/14，2026/2/19，2026/2/24，2026/2/25，2026/2/27</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -2850,7 +2854,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4203,7 +4207,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2025/03/13，2025/05/12，2025/05/22，2025/06/16，2025/06/30，2025/08/01，2025/08/16，2025/09/19，2025/10/05，2025/11/18，2025/12/23，2026/1/9</t>
+          <t>2025/03/13，2025/05/12，2025/05/22，2025/06/16，2025/06/30，2025/08/01，2025/08/16，2025/09/19，2025/10/05，2025/11/18，2025/12/23，2026/1/9，2026/2/27</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -4214,10 +4218,14 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr"/>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>BV1cRB1BoENX</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4869,7 +4877,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2025/03/14，2025/04/05，2025/07/22</t>
+          <t>2025/03/14，2025/04/05，2025/07/22，2026/2/27</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
@@ -4880,10 +4888,14 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>BV1QhgpzdEb7</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6388,7 +6400,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>2025/03/20，2025/04/04，2025/05/03，2025/05/22，2025/06/05，2025/07/25，2025/08/26，2025/08/16，2025/09/21，2025/10/03，2025/11/12，2026/1/23，2026/1/26，2026/2/7，2026/2/10，2026/2/23，2026/2/25</t>
+          <t>2025/03/20，2025/04/04，2025/05/03，2025/05/22，2025/06/05，2025/07/25，2025/08/26，2025/08/16，2025/09/21，2025/10/03，2025/11/12，2026/1/23，2026/1/26，2026/2/7，2026/2/10，2026/2/23，2026/2/25，2026/2/27</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -6399,7 +6411,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -10013,7 +10025,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>2025/04/01，2025/04/28，2025/05/22，2025/06/08，2025/06/27，2025/07/08，2025/08/01，2025/09/03，2025/09/28，2025/10/16，2025/10/23，2025/10/31，2025/12/19，2025/12/31，2026/1/21，2026/2/25</t>
+          <t>2025/04/01，2025/04/28，2025/05/22，2025/06/08，2025/06/27，2025/07/08，2025/08/01，2025/09/03，2025/09/28，2025/10/16，2025/10/23，2025/10/31，2025/12/19，2025/12/31，2026/1/21，2026/2/25，2026/2/27</t>
         </is>
       </c>
       <c r="F256" t="inlineStr"/>
@@ -10024,7 +10036,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -11418,7 +11430,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>2025/04/05，2025/04/19，2025/05/20，2025/07/11，2025/09/12，2025/12/9，2025/12/16</t>
+          <t>2025/04/05，2025/04/19，2025/05/20，2025/07/11，2025/09/12，2025/12/9，2025/12/16，2026/2/27</t>
         </is>
       </c>
       <c r="F295" t="inlineStr"/>
@@ -11429,7 +11441,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I295" t="inlineStr"/>
@@ -13980,7 +13992,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>2025/04/18，2025/05/18，2025/06/19，2025/07/15，2025/08/01，2025/09/17，2025/10/28，2025/11/13，2025/11/14，2026/2/10</t>
+          <t>2025/04/18，2025/05/18，2025/06/19，2025/07/15，2025/08/01，2025/09/17，2025/10/28，2025/11/13，2025/11/14，2026/2/10，2026/2/27</t>
         </is>
       </c>
       <c r="F365" t="inlineStr"/>
@@ -13991,7 +14003,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -15327,7 +15339,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>2025/04/27，2025/05/04，2025/05/26，2025/06/08，2025/08/28，2025/10/18，2025/11/18，2025/12/24，2026/1/29</t>
+          <t>2025/04/27，2025/05/04，2025/05/26，2025/06/08，2025/08/28，2025/10/18，2025/11/18，2025/12/24，2026/1/29，2026/2/27</t>
         </is>
       </c>
       <c r="F402" t="inlineStr"/>
@@ -15338,7 +15350,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -22048,7 +22060,7 @@
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>2025/07/15，2026/1/5，2026/1/10，2026/1/25，2026/2/10</t>
+          <t>2025/07/15，2026/1/5，2026/1/10，2026/1/25，2026/2/10，2026/2/27</t>
         </is>
       </c>
       <c r="F589" t="inlineStr"/>
@@ -22059,7 +22071,7 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
@@ -24119,7 +24131,7 @@
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>2025/09/13，2025/09/13，2025/09/13，2025/09/17，2025/09/18，2025/09/20，2025/09/21，2025/09/24，2025/09/29，2025/10/10，2025/10/13，2025/10/22，2025/10/30，2025/11/3，2025/11/13，2025/11/24，2025/12/5，2025/12/12，2025/12/17，2026/1/6，2026/1/15，2026/1/24</t>
+          <t>2025/09/13，2025/09/13，2025/09/13，2025/09/17，2025/09/18，2025/09/20，2025/09/21，2025/09/24，2025/09/29，2025/10/10，2025/10/13，2025/10/22，2025/10/30，2025/11/3，2025/11/13，2025/11/24，2025/12/5，2025/12/12，2025/12/17，2026/1/6，2026/1/15，2026/1/24，2026/2/27</t>
         </is>
       </c>
       <c r="F646" t="inlineStr"/>
@@ -24130,7 +24142,7 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
@@ -29529,7 +29541,7 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>2026/2/9</t>
+          <t>2026/2/9，2026/2/27</t>
         </is>
       </c>
       <c r="F796" t="inlineStr"/>
@@ -29540,12 +29552,12 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>BV1EkcszREeP</t>
+          <t>BV1EkcszREeP，BV11dAQz2ESx</t>
         </is>
       </c>
     </row>
@@ -29955,7 +29967,7 @@
       <c r="F808" t="inlineStr"/>
       <c r="G808" t="inlineStr">
         <is>
-          <t>华语，韩语</t>
+          <t>华语，日语，英语，韩语</t>
         </is>
       </c>
       <c r="H808" t="inlineStr">
@@ -29968,6 +29980,37 @@
           <t>BV1WDfaByEfD</t>
         </is>
       </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr"/>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Everglow</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr"/>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>Coldplay</t>
+        </is>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>2026/2/27</t>
+        </is>
+      </c>
+      <c r="F809" t="inlineStr"/>
+      <c r="G809" t="inlineStr">
+        <is>
+          <t>英语</t>
+        </is>
+      </c>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I809" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scripts/Book1.xlsx
+++ b/scripts/Book1.xlsx
@@ -4893,7 +4893,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>BV1QhgpzdEb7</t>
+          <t>BV1kcAXzVEWt，BV1QhgpzdEb7</t>
         </is>
       </c>
     </row>
@@ -11444,7 +11444,11 @@
           <t>8</t>
         </is>
       </c>
-      <c r="I295" t="inlineStr"/>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>BV16NAXz6EZ7</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -14008,7 +14012,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>BV1UgF9zLEPz</t>
+          <t>BV1rwAXzkEr1，BV1UgF9zLEPz</t>
         </is>
       </c>
     </row>
@@ -29471,7 +29475,7 @@
       </c>
       <c r="E794" t="inlineStr">
         <is>
-          <t>2026/2/8，2026/2/9，2026/2/14，2026/2/20</t>
+          <t>2026/2/8，2026/2/9，2026/2/14，2026/2/20，2026/2/28</t>
         </is>
       </c>
       <c r="F794" t="inlineStr"/>
@@ -29482,7 +29486,7 @@
       </c>
       <c r="H794" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I794" t="inlineStr">
@@ -29961,7 +29965,7 @@
       </c>
       <c r="E808" t="inlineStr">
         <is>
-          <t>2026/2/25</t>
+          <t>2026/2/25，2026/2/28</t>
         </is>
       </c>
       <c r="F808" t="inlineStr"/>
@@ -29972,7 +29976,7 @@
       </c>
       <c r="H808" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I808" t="inlineStr">
@@ -30010,7 +30014,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="I809" t="inlineStr"/>
+      <c r="I809" t="inlineStr">
+        <is>
+          <t>BV1kcAXzVEXm</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
